--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server/Protocol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4089E7A7-4714-6E4A-98B8-26683924F2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E68EDC-1D81-0949-9B5C-0F51F2159BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15580" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -637,6 +637,20 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t xml:space="preserve">サキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック削除イベント</t>
+    <rPh sb="4" eb="6">
+      <t>サクジヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short イベントID  3</t>
+    <rPh sb="13" eb="14">
+      <t>ザヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1279,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1291,7 +1305,8 @@
     <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2922,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB30"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="CL21" sqref="CL21"/>
+    <sheetView tabSelected="1" topLeftCell="AW15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BW20" sqref="BW20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -4342,6 +4357,9 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="15"/>
+      <c r="BV22" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="23" spans="2:105" ht="37.5" customHeight="1">
       <c r="B23" s="8"/>
@@ -4378,6 +4396,46 @@
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
+      <c r="BV23" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW23" s="1"/>
+      <c r="BX23" s="1"/>
+      <c r="BY23" s="1"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="2"/>
+      <c r="CD23" s="3">
+        <v>16</v>
+      </c>
+      <c r="CE23" s="1"/>
+      <c r="CF23" s="1"/>
+      <c r="CG23" s="1"/>
+      <c r="CH23" s="1"/>
+      <c r="CI23" s="1"/>
+      <c r="CJ23" s="1"/>
+      <c r="CK23" s="2"/>
+      <c r="CL23" s="5">
+        <v>32</v>
+      </c>
+      <c r="CM23" s="8"/>
+      <c r="CN23" s="8"/>
+      <c r="CO23" s="8"/>
+      <c r="CP23" s="8"/>
+      <c r="CQ23" s="8"/>
+      <c r="CR23" s="8"/>
+      <c r="CS23" s="4"/>
+      <c r="CT23" s="5">
+        <v>48</v>
+      </c>
+      <c r="CU23" s="8"/>
+      <c r="CV23" s="8"/>
+      <c r="CW23" s="8"/>
+      <c r="CX23" s="8"/>
+      <c r="CY23" s="8"/>
+      <c r="CZ23" s="8"/>
+      <c r="DA23" s="4"/>
     </row>
     <row r="24" spans="2:105" ht="37.5" customHeight="1">
       <c r="B24" s="12"/>
@@ -4414,6 +4472,44 @@
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
+      <c r="BV24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW24" s="7"/>
+      <c r="BX24" s="7"/>
+      <c r="BY24" s="7"/>
+      <c r="BZ24" s="7"/>
+      <c r="CA24" s="7"/>
+      <c r="CB24" s="7"/>
+      <c r="CC24" s="7"/>
+      <c r="CD24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE24" s="7"/>
+      <c r="CF24" s="7"/>
+      <c r="CG24" s="7"/>
+      <c r="CH24" s="7"/>
+      <c r="CI24" s="7"/>
+      <c r="CJ24" s="7"/>
+      <c r="CK24" s="15"/>
+      <c r="CL24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="CM24" s="9"/>
+      <c r="CN24" s="9"/>
+      <c r="CO24" s="9"/>
+      <c r="CP24" s="9"/>
+      <c r="CQ24" s="9"/>
+      <c r="CR24" s="9"/>
+      <c r="CS24" s="9"/>
+      <c r="CT24" s="9"/>
+      <c r="CU24" s="9"/>
+      <c r="CV24" s="9"/>
+      <c r="CW24" s="9"/>
+      <c r="CX24" s="9"/>
+      <c r="CY24" s="9"/>
+      <c r="CZ24" s="9"/>
+      <c r="DA24" s="11"/>
     </row>
     <row r="25" spans="2:105" ht="37.5" customHeight="1">
       <c r="B25" s="8"/>
@@ -4450,6 +4546,40 @@
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
+      <c r="BV25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BW25" s="7"/>
+      <c r="BX25" s="7"/>
+      <c r="BY25" s="7"/>
+      <c r="BZ25" s="7"/>
+      <c r="CA25" s="7"/>
+      <c r="CB25" s="7"/>
+      <c r="CC25" s="7"/>
+      <c r="CD25" s="7"/>
+      <c r="CE25" s="7"/>
+      <c r="CF25" s="7"/>
+      <c r="CG25" s="7"/>
+      <c r="CH25" s="7"/>
+      <c r="CI25" s="7"/>
+      <c r="CJ25" s="7"/>
+      <c r="CK25" s="7"/>
+      <c r="CL25" s="10"/>
+      <c r="CM25" s="9"/>
+      <c r="CN25" s="9"/>
+      <c r="CO25" s="9"/>
+      <c r="CP25" s="9"/>
+      <c r="CQ25" s="9"/>
+      <c r="CR25" s="9"/>
+      <c r="CS25" s="9"/>
+      <c r="CT25" s="9"/>
+      <c r="CU25" s="9"/>
+      <c r="CV25" s="9"/>
+      <c r="CW25" s="9"/>
+      <c r="CX25" s="9"/>
+      <c r="CY25" s="9"/>
+      <c r="CZ25" s="9"/>
+      <c r="DA25" s="9"/>
     </row>
     <row r="26" spans="2:105" ht="37.5" customHeight="1">
       <c r="B26" s="8"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E68EDC-1D81-0949-9B5C-0F51F2159BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD036A1-B2EB-45C4-B426-8130A7A44517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="94">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -652,6 +652,25 @@
     <rPh sb="13" eb="14">
       <t>ザヒョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップデータプロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホットバーブロックの設置プロトコル</t>
+    <rPh sb="10" eb="12">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short ホットバースロット</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -659,7 +678,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1294,22 +1313,22 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1323,7 +1342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1343,7 +1362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1366,7 +1385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1388,7 +1407,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1411,7 +1430,7 @@
         <v>プレイヤー座標プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1431,7 +1450,7 @@
         <v>イベント返答プロトコル</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1451,7 +1470,7 @@
         <v>プレイヤーインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1462,8 +1481,14 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1475,7 +1500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1518,13 +1543,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1532,7 +1557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1540,7 +1565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1548,7 +1573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1556,7 +1581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1572,27 +1597,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH43"/>
+  <dimension ref="A2:AH48"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q48" sqref="B48:Q48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" customWidth="1"/>
-    <col min="18" max="18" width="2.83203125" customWidth="1"/>
-    <col min="26" max="26" width="2.83203125" customWidth="1"/>
-    <col min="34" max="34" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="2.875" customWidth="1"/>
+    <col min="10" max="10" width="2.875" customWidth="1"/>
+    <col min="18" max="18" width="2.875" customWidth="1"/>
+    <col min="26" max="26" width="2.875" customWidth="1"/>
+    <col min="34" max="34" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -1638,7 +1663,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -1679,7 +1704,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -1718,7 +1743,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -1757,7 +1782,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1792,7 +1817,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1827,7 +1852,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1862,7 +1887,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1896,12 +1921,12 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -1934,7 +1959,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1974,7 +1999,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -2012,7 +2037,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2047,7 +2072,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
         <v>51</v>
       </c>
@@ -2084,7 +2109,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -2129,7 +2154,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2167,7 +2192,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2201,7 +2226,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2235,12 +2260,12 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1">
+    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2285,7 +2310,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
@@ -2323,7 +2348,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2357,7 +2382,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="37.5" customHeight="1">
+    <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>68</v>
       </c>
@@ -2393,7 +2418,7 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
     </row>
-    <row r="27" spans="2:34" ht="37.5" customHeight="1">
+    <row r="27" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2438,7 +2463,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="37.5" customHeight="1">
+    <row r="28" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
         <v>69</v>
       </c>
@@ -2478,7 +2503,7 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="15"/>
     </row>
-    <row r="29" spans="2:34" ht="37.5" customHeight="1">
+    <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
         <v>71</v>
       </c>
@@ -2516,7 +2541,7 @@
       <c r="AF29" s="7"/>
       <c r="AG29" s="15"/>
     </row>
-    <row r="30" spans="2:34" ht="37.5" customHeight="1">
+    <row r="30" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
         <v>73</v>
       </c>
@@ -2554,7 +2579,7 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="15"/>
     </row>
-    <row r="31" spans="2:34" ht="37.5" customHeight="1">
+    <row r="31" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="6" t="s">
         <v>74</v>
       </c>
@@ -2574,12 +2599,12 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="33" spans="2:34" ht="37.5" customHeight="1">
+    <row r="33" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:34" ht="37.5" customHeight="1">
+    <row r="34" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -2624,7 +2649,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="37.5" customHeight="1">
+    <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
         <v>80</v>
       </c>
@@ -2664,7 +2689,7 @@
       <c r="AF35" s="7"/>
       <c r="AG35" s="15"/>
     </row>
-    <row r="36" spans="2:34" ht="37.5" customHeight="1">
+    <row r="36" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
         <v>82</v>
       </c>
@@ -2704,7 +2729,7 @@
       <c r="AF36" s="7"/>
       <c r="AG36" s="15"/>
     </row>
-    <row r="37" spans="2:34" ht="37.5" customHeight="1">
+    <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>74</v>
       </c>
@@ -2740,7 +2765,7 @@
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
     </row>
-    <row r="38" spans="2:34" ht="37.5" customHeight="1">
+    <row r="38" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2758,12 +2783,12 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="2:34" ht="37.5" customHeight="1">
+    <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="2:34" ht="37.5" customHeight="1">
+    <row r="40" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -2808,7 +2833,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:34" ht="37.5" customHeight="1">
+    <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
         <v>84</v>
       </c>
@@ -2848,7 +2873,7 @@
       <c r="AF41" s="7"/>
       <c r="AG41" s="15"/>
     </row>
-    <row r="42" spans="2:34" ht="37.5" customHeight="1">
+    <row r="42" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="6" t="s">
         <v>73</v>
       </c>
@@ -2888,7 +2913,7 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="15"/>
     </row>
-    <row r="43" spans="2:34" ht="37.5" customHeight="1">
+    <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6" t="s">
         <v>87</v>
       </c>
@@ -2926,6 +2951,116 @@
       <c r="AF43" s="9"/>
       <c r="AG43" s="9"/>
     </row>
+    <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="3">
+        <v>16</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="3">
+        <v>32</v>
+      </c>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="3">
+        <v>48</v>
+      </c>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="15"/>
+    </row>
+    <row r="48" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2937,16 +3072,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BW20" sqref="BW20"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:106" ht="37.5" customHeight="1">
+    <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -2957,7 +3092,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="37.5" customHeight="1">
+    <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -3085,7 +3220,7 @@
       <c r="CZ3" s="8"/>
       <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:106" ht="37.5" customHeight="1">
+    <row r="4" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3202,7 +3337,7 @@
       <c r="DA4" s="9"/>
       <c r="DB4" s="8"/>
     </row>
-    <row r="5" spans="1:106" ht="37.5" customHeight="1">
+    <row r="5" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -3293,7 +3428,7 @@
       <c r="DA5" s="8"/>
       <c r="DB5" s="8"/>
     </row>
-    <row r="6" spans="1:106" ht="37.5" customHeight="1">
+    <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
@@ -3311,7 +3446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:106" ht="37.5" customHeight="1">
+    <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
@@ -3377,7 +3512,7 @@
       <c r="CZ7" s="8"/>
       <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8">
         <v>0</v>
       </c>
@@ -3457,7 +3592,7 @@
       <c r="CZ8" s="7"/>
       <c r="DA8" s="15"/>
     </row>
-    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -3541,7 +3676,7 @@
       <c r="CZ9" s="7"/>
       <c r="DA9" s="15"/>
     </row>
-    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -3605,7 +3740,7 @@
       <c r="CJ10" s="9"/>
       <c r="CK10" s="9"/>
     </row>
-    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -3656,7 +3791,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:106" ht="37.5" customHeight="1">
+    <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8"/>
@@ -3736,7 +3871,7 @@
       <c r="CZ12" s="8"/>
       <c r="DA12" s="4"/>
     </row>
-    <row r="13" spans="1:106" ht="37.5" customHeight="1">
+    <row r="13" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3813,7 +3948,7 @@
       <c r="CZ13" s="7"/>
       <c r="DA13" s="15"/>
     </row>
-    <row r="14" spans="1:106" ht="37.5" customHeight="1">
+    <row r="14" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3889,7 +4024,7 @@
       <c r="CZ14" s="7"/>
       <c r="DA14" s="15"/>
     </row>
-    <row r="15" spans="1:106" ht="37.5" customHeight="1">
+    <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>54</v>
@@ -3931,7 +4066,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:106" ht="37.5" customHeight="1">
+    <row r="16" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -3980,7 +4115,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:105" ht="37.5" customHeight="1">
+    <row r="17" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
@@ -4060,7 +4195,7 @@
       <c r="CZ17" s="8"/>
       <c r="DA17" s="4"/>
     </row>
-    <row r="18" spans="2:105" ht="37.5" customHeight="1">
+    <row r="18" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6" t="s">
         <v>55</v>
       </c>
@@ -4136,7 +4271,7 @@
       <c r="CZ18" s="7"/>
       <c r="DA18" s="15"/>
     </row>
-    <row r="19" spans="2:105" ht="37.5" customHeight="1">
+    <row r="19" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>57</v>
       </c>
@@ -4210,7 +4345,7 @@
       <c r="CZ19" s="7"/>
       <c r="DA19" s="15"/>
     </row>
-    <row r="20" spans="2:105" ht="37.5" customHeight="1">
+    <row r="20" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
@@ -4282,7 +4417,7 @@
       <c r="CZ20" s="7"/>
       <c r="DA20" s="15"/>
     </row>
-    <row r="21" spans="2:105" ht="37.5" customHeight="1">
+    <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>59</v>
       </c>
@@ -4320,7 +4455,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:105" ht="37.5" customHeight="1">
+    <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
         <v>60</v>
       </c>
@@ -4361,7 +4496,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="2:105" ht="37.5" customHeight="1">
+    <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -4437,7 +4572,7 @@
       <c r="CZ23" s="8"/>
       <c r="DA23" s="4"/>
     </row>
-    <row r="24" spans="2:105" ht="37.5" customHeight="1">
+    <row r="24" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="12"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -4511,7 +4646,7 @@
       <c r="CZ24" s="9"/>
       <c r="DA24" s="11"/>
     </row>
-    <row r="25" spans="2:105" ht="37.5" customHeight="1">
+    <row r="25" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -4581,7 +4716,7 @@
       <c r="CZ25" s="9"/>
       <c r="DA25" s="9"/>
     </row>
-    <row r="26" spans="2:105" ht="37.5" customHeight="1">
+    <row r="26" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -4617,7 +4752,7 @@
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="2:105" ht="37.5" customHeight="1">
+    <row r="27" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -4653,7 +4788,7 @@
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
     </row>
-    <row r="28" spans="2:105" ht="37.5" customHeight="1">
+    <row r="28" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="12"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -4689,7 +4824,7 @@
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
     </row>
-    <row r="29" spans="2:105" ht="37.5" customHeight="1">
+    <row r="29" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -4725,7 +4860,7 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
     </row>
-    <row r="30" spans="2:105" ht="37.5" customHeight="1">
+    <row r="30" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD036A1-B2EB-45C4-B426-8130A7A44517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FA7B55-2248-4243-BED6-252DA3B09DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-19425" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -614,13 +614,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未実装 ブロックインベントリ内アイテム移動プロトコル</t>
-    <rPh sb="0" eb="3">
-      <t>ミジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int 移動元ブロックインベントリスロット</t>
     <rPh sb="4" eb="6">
       <t>イドウ</t>
@@ -671,6 +664,10 @@
   </si>
   <si>
     <t>short ホットバースロット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックインベントリ内アイテム移動プロトコル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1485,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1506,7 +1503,7 @@
       </c>
       <c r="B10" s="13" t="str">
         <f>'from client'!$B$39</f>
-        <v>未実装 ブロックインベントリ内アイテム移動プロトコル</v>
+        <v>ブロックインベントリ内アイテム移動プロトコル</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1599,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q48" sqref="B48:Q48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2785,7 +2782,7 @@
     </row>
     <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2885,7 +2882,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -2903,7 +2900,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="11"/>
       <c r="Z42" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
@@ -2915,7 +2912,7 @@
     </row>
     <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="7"/>
@@ -2953,7 +2950,7 @@
     </row>
     <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3003,7 +3000,7 @@
     </row>
     <row r="47" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -3013,7 +3010,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="15"/>
       <c r="J47" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -4493,7 +4490,7 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="15"/>
       <c r="BV22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4618,7 +4615,7 @@
       <c r="CB24" s="7"/>
       <c r="CC24" s="7"/>
       <c r="CD24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="CE24" s="7"/>
       <c r="CF24" s="7"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FA7B55-2248-4243-BED6-252DA3B09DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC27AF3A-3E1C-478E-9166-0972AA49FB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19425" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -668,6 +668,10 @@
   </si>
   <si>
     <t>ブロックインベントリ内アイテム移動プロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int プレイヤーId</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1597,7 +1601,7 @@
   <dimension ref="A2:AH48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+      <selection activeCell="AI41" sqref="AI41:AJ42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3057,6 +3061,24 @@
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="15"/>
+      <c r="R48" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC27AF3A-3E1C-478E-9166-0972AA49FB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E243D73D-62B0-4AF3-AE50-2ED06544D060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19425" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-19425" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -304,19 +304,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベント要求プロトコル</t>
-    <rPh sb="0" eb="2">
-      <t>キカイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>short パケットID 4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -672,6 +659,10 @@
   </si>
   <si>
     <t>int プレイヤーId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント要求プロトコル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1311,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1405,7 +1396,7 @@
         <v>チャンクデータプロトコル</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1486,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1511,6 +1502,12 @@
       </c>
       <c r="C10" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="str">
+        <f>'from client'!$B$45</f>
+        <v>ホットバーブロックの設置プロトコル</v>
       </c>
     </row>
   </sheetData>
@@ -1530,6 +1527,7 @@
     <hyperlink ref="B8" location="'from client'!B26" display="'from client'!B26" xr:uid="{CBBD4C72-1145-4E35-8A91-19D4F1301DFC}"/>
     <hyperlink ref="B9" location="'from client'!B33" display="'from client'!B33" xr:uid="{D1DDCF5F-D032-9941-B0DE-183876C26C81}"/>
     <hyperlink ref="B10" location="'from client'!B39" display="'from client'!B39" xr:uid="{5A8838B1-1247-1745-A447-957E2DBF349D}"/>
+    <hyperlink ref="B11" location="'from client'!B45" display="'from client'!B45" xr:uid="{46920734-A454-4530-89C1-F77469B5F187}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1568,15 +1566,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -1584,7 +1582,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1600,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI41" sqref="AI41:AJ42"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2012,7 +2010,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -2075,7 +2073,7 @@
     </row>
     <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2167,7 +2165,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="15"/>
       <c r="J19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -2263,7 +2261,7 @@
     </row>
     <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2313,7 +2311,7 @@
     </row>
     <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2323,7 +2321,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -2385,7 +2383,7 @@
     </row>
     <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2466,7 +2464,7 @@
     </row>
     <row r="28" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2476,7 +2474,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2486,7 +2484,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -2506,7 +2504,7 @@
     </row>
     <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2524,7 +2522,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -2544,7 +2542,7 @@
     </row>
     <row r="30" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2562,7 +2560,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -2582,7 +2580,7 @@
     </row>
     <row r="31" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2602,7 +2600,7 @@
     </row>
     <row r="33" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2652,7 +2650,7 @@
     </row>
     <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2662,7 +2660,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -2680,7 +2678,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
@@ -2692,7 +2690,7 @@
     </row>
     <row r="36" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2702,7 +2700,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -2720,7 +2718,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
@@ -2732,7 +2730,7 @@
     </row>
     <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2786,7 +2784,7 @@
     </row>
     <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2836,7 +2834,7 @@
     </row>
     <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2846,7 +2844,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -2864,7 +2862,7 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="15"/>
       <c r="Z41" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
@@ -2876,7 +2874,7 @@
     </row>
     <row r="42" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2886,7 +2884,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -2904,7 +2902,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="11"/>
       <c r="Z42" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
@@ -2916,7 +2914,7 @@
     </row>
     <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="7"/>
@@ -2926,7 +2924,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="15"/>
       <c r="J43" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -2954,7 +2952,7 @@
     </row>
     <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3004,7 +3002,7 @@
     </row>
     <row r="47" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -3014,7 +3012,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="15"/>
       <c r="J47" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -3024,7 +3022,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -3044,7 +3042,7 @@
     </row>
     <row r="48" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -3062,7 +3060,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="15"/>
       <c r="R48" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -3108,7 +3106,7 @@
         <v>21</v>
       </c>
       <c r="BV2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3327,7 +3325,7 @@
       <c r="CB4" s="7"/>
       <c r="CC4" s="7"/>
       <c r="CD4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CE4" s="7"/>
       <c r="CF4" s="7"/>
@@ -3337,7 +3335,7 @@
       <c r="CJ4" s="7"/>
       <c r="CK4" s="15"/>
       <c r="CL4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CM4" s="9"/>
       <c r="CN4" s="9"/>
@@ -3396,7 +3394,7 @@
       <c r="AR5" s="7"/>
       <c r="AS5" s="7"/>
       <c r="AT5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7"/>
@@ -3462,7 +3460,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="BV6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3583,7 +3581,7 @@
       <c r="CB8" s="7"/>
       <c r="CC8" s="7"/>
       <c r="CD8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="CE8" s="7"/>
       <c r="CF8" s="7"/>
@@ -3677,7 +3675,7 @@
       <c r="CJ9" s="7"/>
       <c r="CK9" s="15"/>
       <c r="CL9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CM9" s="7"/>
       <c r="CN9" s="7"/>
@@ -3807,7 +3805,7 @@
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
       <c r="BV11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3939,7 +3937,7 @@
       <c r="CB13" s="7"/>
       <c r="CC13" s="7"/>
       <c r="CD13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CE13" s="7"/>
       <c r="CF13" s="7"/>
@@ -3949,7 +3947,7 @@
       <c r="CJ13" s="7"/>
       <c r="CK13" s="15"/>
       <c r="CL13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="CM13" s="7"/>
       <c r="CN13" s="7"/>
@@ -4007,7 +4005,7 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
       <c r="BV14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BW14" s="7"/>
       <c r="BX14" s="7"/>
@@ -4025,7 +4023,7 @@
       <c r="CJ14" s="7"/>
       <c r="CK14" s="15"/>
       <c r="CL14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CM14" s="7"/>
       <c r="CN14" s="7"/>
@@ -4046,7 +4044,7 @@
     <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -4131,12 +4129,12 @@
       </c>
       <c r="AI16" s="8"/>
       <c r="BV16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4146,7 +4144,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="15"/>
       <c r="J17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -4216,7 +4214,7 @@
     </row>
     <row r="18" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4234,7 +4232,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
@@ -4262,7 +4260,7 @@
       <c r="CB18" s="7"/>
       <c r="CC18" s="7"/>
       <c r="CD18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CE18" s="7"/>
       <c r="CF18" s="7"/>
@@ -4272,7 +4270,7 @@
       <c r="CJ18" s="7"/>
       <c r="CK18" s="15"/>
       <c r="CL18" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="CM18" s="7"/>
       <c r="CN18" s="7"/>
@@ -4292,7 +4290,7 @@
     </row>
     <row r="19" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4310,7 +4308,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
@@ -4328,7 +4326,7 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="15"/>
       <c r="BV19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BW19" s="7"/>
       <c r="BX19" s="7"/>
@@ -4346,7 +4344,7 @@
       <c r="CJ19" s="7"/>
       <c r="CK19" s="15"/>
       <c r="CL19" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CM19" s="7"/>
       <c r="CN19" s="7"/>
@@ -4400,7 +4398,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="BV20" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BW20" s="7"/>
       <c r="BX20" s="7"/>
@@ -4418,7 +4416,7 @@
       <c r="CJ20" s="7"/>
       <c r="CK20" s="15"/>
       <c r="CL20" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CM20" s="7"/>
       <c r="CN20" s="7"/>
@@ -4438,7 +4436,7 @@
     </row>
     <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4456,7 +4454,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -4476,7 +4474,7 @@
     </row>
     <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4494,7 +4492,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -4512,7 +4510,7 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="15"/>
       <c r="BV22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4637,7 +4635,7 @@
       <c r="CB24" s="7"/>
       <c r="CC24" s="7"/>
       <c r="CD24" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CE24" s="7"/>
       <c r="CF24" s="7"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E243D73D-62B0-4AF3-AE50-2ED06544D060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AFD0D7-BB9F-1B41-9FA8-9A39C53EF6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19425" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -576,10 +576,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int プレイヤーインベントリスロット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int 移動元プレイヤーインベントリスロット</t>
     <rPh sb="4" eb="7">
       <t>イドウ</t>
@@ -663,6 +659,10 @@
   </si>
   <si>
     <t>イベント要求プロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int ブロックインベントリスロット</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -670,7 +670,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1304,23 +1304,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="44.375" customWidth="1"/>
-    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>プレイヤー座標プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>イベント返答プロトコル</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>プレイヤーインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1477,10 +1477,10 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="B11" s="13" t="str">
         <f>'from client'!$B$45</f>
         <v>ホットバーブロックの設置プロトコル</v>
@@ -1542,13 +1542,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1598,25 +1598,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH48"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="2.875" customWidth="1"/>
-    <col min="10" max="10" width="2.875" customWidth="1"/>
-    <col min="18" max="18" width="2.875" customWidth="1"/>
-    <col min="26" max="26" width="2.875" customWidth="1"/>
-    <col min="34" max="34" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" customWidth="1"/>
+    <col min="18" max="18" width="2.83203125" customWidth="1"/>
+    <col min="26" max="26" width="2.83203125" customWidth="1"/>
+    <col min="34" max="34" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -1703,7 +1703,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -1742,7 +1742,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -1781,7 +1781,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1816,7 +1816,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1851,7 +1851,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1886,7 +1886,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1920,12 +1920,12 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1998,7 +1998,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2071,7 +2071,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>50</v>
       </c>
@@ -2108,7 +2108,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2225,7 +2225,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2259,12 +2259,12 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1">
       <c r="B22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" ht="37.5" customHeight="1">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1">
       <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2381,7 +2381,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:34" ht="37.5" customHeight="1">
       <c r="B26" t="s">
         <v>67</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
     </row>
-    <row r="27" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:34" ht="37.5" customHeight="1">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:34" ht="37.5" customHeight="1">
       <c r="B28" s="6" t="s">
         <v>68</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="15"/>
     </row>
-    <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:34" ht="37.5" customHeight="1">
       <c r="B29" s="6" t="s">
         <v>70</v>
       </c>
@@ -2540,7 +2540,7 @@
       <c r="AF29" s="7"/>
       <c r="AG29" s="15"/>
     </row>
-    <row r="30" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:34" ht="37.5" customHeight="1">
       <c r="B30" s="6" t="s">
         <v>72</v>
       </c>
@@ -2560,7 +2560,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="6" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -2578,7 +2578,7 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="15"/>
     </row>
-    <row r="31" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:34" ht="37.5" customHeight="1">
       <c r="B31" s="6" t="s">
         <v>73</v>
       </c>
@@ -2598,12 +2598,12 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="33" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:34" ht="37.5" customHeight="1">
       <c r="B33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:34" ht="37.5" customHeight="1">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:34" ht="37.5" customHeight="1">
       <c r="B35" s="6" t="s">
         <v>79</v>
       </c>
@@ -2678,7 +2678,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
@@ -2688,9 +2688,9 @@
       <c r="AF35" s="7"/>
       <c r="AG35" s="15"/>
     </row>
-    <row r="36" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:34" ht="37.5" customHeight="1">
       <c r="B36" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2700,7 +2700,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -2728,7 +2728,7 @@
       <c r="AF36" s="7"/>
       <c r="AG36" s="15"/>
     </row>
-    <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:34" ht="37.5" customHeight="1">
       <c r="B37" s="6" t="s">
         <v>73</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
     </row>
-    <row r="38" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:34" ht="37.5" customHeight="1">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2782,12 +2782,12 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:34" ht="37.5" customHeight="1">
       <c r="B39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="2:34" ht="37.5" customHeight="1">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -2832,9 +2832,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:34" ht="37.5" customHeight="1">
       <c r="B41" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2872,7 +2872,7 @@
       <c r="AF41" s="7"/>
       <c r="AG41" s="15"/>
     </row>
-    <row r="42" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:34" ht="37.5" customHeight="1">
       <c r="B42" s="6" t="s">
         <v>72</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -2902,7 +2902,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="11"/>
       <c r="Z42" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
@@ -2912,9 +2912,9 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="15"/>
     </row>
-    <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:34" ht="37.5" customHeight="1">
       <c r="B43" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="7"/>
@@ -2950,12 +2950,12 @@
       <c r="AF43" s="9"/>
       <c r="AG43" s="9"/>
     </row>
-    <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:34" ht="37.5" customHeight="1">
       <c r="B45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="2:34" ht="37.5" customHeight="1">
       <c r="B46" s="3">
         <v>0</v>
       </c>
@@ -3000,9 +3000,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:34" ht="37.5" customHeight="1">
       <c r="B47" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -3012,7 +3012,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="15"/>
       <c r="J47" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -3040,7 +3040,7 @@
       <c r="AF47" s="7"/>
       <c r="AG47" s="15"/>
     </row>
-    <row r="48" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:34" ht="37.5" customHeight="1">
       <c r="B48" s="6" t="s">
         <v>72</v>
       </c>
@@ -3060,7 +3060,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="15"/>
       <c r="R48" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -3093,12 +3093,12 @@
       <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:106" ht="37.5" customHeight="1">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:106" ht="37.5" customHeight="1">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="CZ3" s="8"/>
       <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:106" ht="37.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3354,7 +3354,7 @@
       <c r="DA4" s="9"/>
       <c r="DB4" s="8"/>
     </row>
-    <row r="5" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:106" ht="37.5" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -3445,7 +3445,7 @@
       <c r="DA5" s="8"/>
       <c r="DB5" s="8"/>
     </row>
-    <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:106" ht="37.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:106" ht="37.5" customHeight="1">
       <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
@@ -3529,7 +3529,7 @@
       <c r="CZ7" s="8"/>
       <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="B8" s="8">
         <v>0</v>
       </c>
@@ -3609,7 +3609,7 @@
       <c r="CZ8" s="7"/>
       <c r="DA8" s="15"/>
     </row>
-    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -3693,7 +3693,7 @@
       <c r="CZ9" s="7"/>
       <c r="DA9" s="15"/>
     </row>
-    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -3757,7 +3757,7 @@
       <c r="CJ10" s="9"/>
       <c r="CK10" s="9"/>
     </row>
-    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -3808,7 +3808,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:106" ht="37.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8"/>
@@ -3888,7 +3888,7 @@
       <c r="CZ12" s="8"/>
       <c r="DA12" s="4"/>
     </row>
-    <row r="13" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:106" ht="37.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3965,7 +3965,7 @@
       <c r="CZ13" s="7"/>
       <c r="DA13" s="15"/>
     </row>
-    <row r="14" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:106" ht="37.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -4041,7 +4041,7 @@
       <c r="CZ14" s="7"/>
       <c r="DA14" s="15"/>
     </row>
-    <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:106" ht="37.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>53</v>
@@ -4083,7 +4083,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:106" ht="37.5" customHeight="1">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:105" ht="37.5" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>39</v>
       </c>
@@ -4212,7 +4212,7 @@
       <c r="CZ17" s="8"/>
       <c r="DA17" s="4"/>
     </row>
-    <row r="18" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:105" ht="37.5" customHeight="1">
       <c r="B18" s="6" t="s">
         <v>54</v>
       </c>
@@ -4288,7 +4288,7 @@
       <c r="CZ18" s="7"/>
       <c r="DA18" s="15"/>
     </row>
-    <row r="19" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:105" ht="37.5" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>56</v>
       </c>
@@ -4362,7 +4362,7 @@
       <c r="CZ19" s="7"/>
       <c r="DA19" s="15"/>
     </row>
-    <row r="20" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:105" ht="37.5" customHeight="1">
       <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="CZ20" s="7"/>
       <c r="DA20" s="15"/>
     </row>
-    <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:105" ht="37.5" customHeight="1">
       <c r="B21" s="6" t="s">
         <v>58</v>
       </c>
@@ -4472,7 +4472,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:105" ht="37.5" customHeight="1">
       <c r="B22" s="6" t="s">
         <v>59</v>
       </c>
@@ -4510,10 +4510,10 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="15"/>
       <c r="BV22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:105" ht="37.5" customHeight="1">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -4589,7 +4589,7 @@
       <c r="CZ23" s="8"/>
       <c r="DA23" s="4"/>
     </row>
-    <row r="24" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:105" ht="37.5" customHeight="1">
       <c r="B24" s="12"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -4635,7 +4635,7 @@
       <c r="CB24" s="7"/>
       <c r="CC24" s="7"/>
       <c r="CD24" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="CE24" s="7"/>
       <c r="CF24" s="7"/>
@@ -4663,7 +4663,7 @@
       <c r="CZ24" s="9"/>
       <c r="DA24" s="11"/>
     </row>
-    <row r="25" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:105" ht="37.5" customHeight="1">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -4733,7 +4733,7 @@
       <c r="CZ25" s="9"/>
       <c r="DA25" s="9"/>
     </row>
-    <row r="26" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:105" ht="37.5" customHeight="1">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -4769,7 +4769,7 @@
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:105" ht="37.5" customHeight="1">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -4805,7 +4805,7 @@
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
     </row>
-    <row r="28" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:105" ht="37.5" customHeight="1">
       <c r="B28" s="12"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -4841,7 +4841,7 @@
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
     </row>
-    <row r="29" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:105" ht="37.5" customHeight="1">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -4877,7 +4877,7 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
     </row>
-    <row r="30" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:105" ht="37.5" customHeight="1">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AFD0D7-BB9F-1B41-9FA8-9A39C53EF6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4FA036-9525-E74D-969B-F4BA677E7965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -515,10 +515,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int プレイヤーインベントリインデックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int ブロック座標X</t>
     <rPh sb="8" eb="10">
       <t>ザヒョウ</t>
@@ -576,6 +572,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>int プレイヤーインベントリスロット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>int 移動元プレイヤーインベントリスロット</t>
     <rPh sb="4" eb="7">
       <t>イドウ</t>
@@ -663,6 +663,10 @@
   </si>
   <si>
     <t>int ブロックインベントリスロット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1598,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -2400,7 +2404,9 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
+      <c r="R26" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
@@ -2504,7 +2510,7 @@
     </row>
     <row r="29" spans="2:34" ht="37.5" customHeight="1">
       <c r="B29" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2522,7 +2528,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -2542,7 +2548,7 @@
     </row>
     <row r="30" spans="2:34" ht="37.5" customHeight="1">
       <c r="B30" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2580,7 +2586,7 @@
     </row>
     <row r="31" spans="2:34" ht="37.5" customHeight="1">
       <c r="B31" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2600,7 +2606,7 @@
     </row>
     <row r="33" spans="2:34" ht="37.5" customHeight="1">
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="2:34" ht="37.5" customHeight="1">
@@ -2650,7 +2656,7 @@
     </row>
     <row r="35" spans="2:34" ht="37.5" customHeight="1">
       <c r="B35" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2718,7 +2724,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
@@ -2730,7 +2736,7 @@
     </row>
     <row r="37" spans="2:34" ht="37.5" customHeight="1">
       <c r="B37" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2844,7 +2850,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -2862,7 +2868,7 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="15"/>
       <c r="Z41" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
@@ -2874,7 +2880,7 @@
     </row>
     <row r="42" spans="2:34" ht="37.5" customHeight="1">
       <c r="B42" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2924,7 +2930,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="15"/>
       <c r="J43" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -3022,7 +3028,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -3042,7 +3048,7 @@
     </row>
     <row r="48" spans="2:34" ht="37.5" customHeight="1">
       <c r="B48" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -4129,7 +4135,7 @@
       </c>
       <c r="AI16" s="8"/>
       <c r="BV16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:105" ht="37.5" customHeight="1">
@@ -4260,7 +4266,7 @@
       <c r="CB18" s="7"/>
       <c r="CC18" s="7"/>
       <c r="CD18" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CE18" s="7"/>
       <c r="CF18" s="7"/>
@@ -4398,7 +4404,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="BV20" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BW20" s="7"/>
       <c r="BX20" s="7"/>
@@ -4416,7 +4422,7 @@
       <c r="CJ20" s="7"/>
       <c r="CK20" s="15"/>
       <c r="CL20" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CM20" s="7"/>
       <c r="CN20" s="7"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4FA036-9525-E74D-969B-F4BA677E7965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964F21CB-7CC8-2043-8217-C64671DC5301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="102">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -667,6 +667,36 @@
   </si>
   <si>
     <t>i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックインベントリ要求プロトコル</t>
+    <rPh sb="10" eb="12">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックインベントリ応答プロトコル</t>
+    <rPh sb="10" eb="12">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short アイテム数</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1306,16 +1336,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
@@ -1495,6 +1525,13 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" s="13" t="str">
+        <f>'from server'!$B$24</f>
+        <v>ブロックインベントリ応答プロトコル</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
@@ -1512,6 +1549,19 @@
       <c r="B11" s="13" t="str">
         <f>'from client'!$B$45</f>
         <v>ホットバーブロックの設置プロトコル</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="13" t="str">
+        <f>'from client'!$B$50</f>
+        <v>ブロックインベントリ要求プロトコル</v>
+      </c>
+      <c r="C12" s="13" t="str">
+        <f>'from server'!$B$24</f>
+        <v>ブロックインベントリ応答プロトコル</v>
       </c>
     </row>
   </sheetData>
@@ -1532,6 +1582,9 @@
     <hyperlink ref="B9" location="'from client'!B33" display="'from client'!B33" xr:uid="{D1DDCF5F-D032-9941-B0DE-183876C26C81}"/>
     <hyperlink ref="B10" location="'from client'!B39" display="'from client'!B39" xr:uid="{5A8838B1-1247-1745-A447-957E2DBF349D}"/>
     <hyperlink ref="B11" location="'from client'!B45" display="'from client'!B45" xr:uid="{46920734-A454-4530-89C1-F77469B5F187}"/>
+    <hyperlink ref="B12" location="'from client'!B51" display="'from client'!B51" xr:uid="{BD44C648-ABF1-AA40-9C73-2972260DADB1}"/>
+    <hyperlink ref="C12" location="'from server'!B24" display="'from server'!B24" xr:uid="{C8DE9813-B4C5-9C4E-9007-9CE50D366673}"/>
+    <hyperlink ref="F9" location="'from server'!B24" display="'from server'!B24" xr:uid="{5C1752A0-9769-C548-B84F-323F4288A18F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1600,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH48"/>
+  <dimension ref="A2:AH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -3084,6 +3137,126 @@
       <c r="AF48" s="7"/>
       <c r="AG48" s="15"/>
     </row>
+    <row r="50" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="5">
+        <v>16</v>
+      </c>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="5">
+        <v>32</v>
+      </c>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="5">
+        <v>48</v>
+      </c>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B52" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="15"/>
+    </row>
+    <row r="53" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B53" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3095,8 +3268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -4596,7 +4769,9 @@
       <c r="DA23" s="4"/>
     </row>
     <row r="24" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B24" s="12"/>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -4670,39 +4845,49 @@
       <c r="DA24" s="11"/>
     </row>
     <row r="25" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B25" s="8"/>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5">
+        <v>16</v>
+      </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="5">
+        <v>32</v>
+      </c>
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="5">
+        <v>48</v>
+      </c>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
       <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25">
+        <v>64</v>
+      </c>
       <c r="AI25" s="8"/>
       <c r="BV25" s="6" t="s">
         <v>24</v>
@@ -4740,58 +4925,65 @@
       <c r="DA25" s="9"/>
     </row>
     <row r="26" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
+      <c r="B26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="15"/>
       <c r="AI26" s="8"/>
     </row>
     <row r="27" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="B27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="15"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964F21CB-7CC8-2043-8217-C64671DC5301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9C9C92-FFD4-4D91-9C5C-00A063BAEBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -696,7 +696,80 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>short アイテム数</t>
+    <t>int スロット2のアイテムID</t>
+    <rPh sb="13" eb="14">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int スロットnのアイテム数</t>
+    <rPh sb="13" eb="14">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short UIタイプID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short UIタイプID 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short スロット数</t>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェストなど、一つのスロットしかないブロック</t>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short UIタイプID 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short 入力スロット数</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short 出力スロット数</t>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常の入出力があるブロック</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short アイテム数 n</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -704,7 +777,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,19 +1415,19 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1368,7 +1441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1388,7 +1461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1411,7 +1484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1433,7 +1506,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1456,7 +1529,7 @@
         <v>プレイヤー座標プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1476,7 +1549,7 @@
         <v>イベント返答プロトコル</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1496,7 +1569,7 @@
         <v>プレイヤーインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1514,7 +1587,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1533,7 +1606,7 @@
         <v>ブロックインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1545,7 +1618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B11" s="13" t="str">
         <f>'from client'!$B$45</f>
         <v>ホットバーブロックの設置プロトコル</v>
@@ -1554,7 +1627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="str">
         <f>'from client'!$B$50</f>
         <v>ブロックインベントリ要求プロトコル</v>
@@ -1599,13 +1672,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1613,7 +1686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1621,7 +1694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1629,7 +1702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1637,7 +1710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1659,21 +1732,21 @@
       <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" customWidth="1"/>
-    <col min="18" max="18" width="2.83203125" customWidth="1"/>
-    <col min="26" max="26" width="2.83203125" customWidth="1"/>
-    <col min="34" max="34" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="2.875" customWidth="1"/>
+    <col min="10" max="10" width="2.875" customWidth="1"/>
+    <col min="18" max="18" width="2.875" customWidth="1"/>
+    <col min="26" max="26" width="2.875" customWidth="1"/>
+    <col min="34" max="34" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -1719,7 +1792,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -1760,7 +1833,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -1799,7 +1872,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -1838,7 +1911,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1873,7 +1946,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1908,7 +1981,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1943,7 +2016,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1977,12 +2050,12 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -2015,7 +2088,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -2055,7 +2128,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -2093,7 +2166,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2128,7 +2201,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
         <v>50</v>
       </c>
@@ -2165,7 +2238,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -2210,7 +2283,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2248,7 +2321,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2282,7 +2355,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2316,12 +2389,12 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1">
+    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2366,7 +2439,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
@@ -2404,7 +2477,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2438,7 +2511,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="37.5" customHeight="1">
+    <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>67</v>
       </c>
@@ -2476,7 +2549,7 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
     </row>
-    <row r="27" spans="2:34" ht="37.5" customHeight="1">
+    <row r="27" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2521,7 +2594,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="37.5" customHeight="1">
+    <row r="28" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
         <v>68</v>
       </c>
@@ -2561,7 +2634,7 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="15"/>
     </row>
-    <row r="29" spans="2:34" ht="37.5" customHeight="1">
+    <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
         <v>79</v>
       </c>
@@ -2599,7 +2672,7 @@
       <c r="AF29" s="7"/>
       <c r="AG29" s="15"/>
     </row>
-    <row r="30" spans="2:34" ht="37.5" customHeight="1">
+    <row r="30" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2637,7 +2710,7 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="15"/>
     </row>
-    <row r="31" spans="2:34" ht="37.5" customHeight="1">
+    <row r="31" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="6" t="s">
         <v>72</v>
       </c>
@@ -2657,12 +2730,12 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="33" spans="2:34" ht="37.5" customHeight="1">
+    <row r="33" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:34" ht="37.5" customHeight="1">
+    <row r="34" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -2707,7 +2780,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="37.5" customHeight="1">
+    <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
         <v>78</v>
       </c>
@@ -2747,7 +2820,7 @@
       <c r="AF35" s="7"/>
       <c r="AG35" s="15"/>
     </row>
-    <row r="36" spans="2:34" ht="37.5" customHeight="1">
+    <row r="36" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
         <v>80</v>
       </c>
@@ -2787,7 +2860,7 @@
       <c r="AF36" s="7"/>
       <c r="AG36" s="15"/>
     </row>
-    <row r="37" spans="2:34" ht="37.5" customHeight="1">
+    <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>72</v>
       </c>
@@ -2823,7 +2896,7 @@
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
     </row>
-    <row r="38" spans="2:34" ht="37.5" customHeight="1">
+    <row r="38" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2841,12 +2914,12 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="2:34" ht="37.5" customHeight="1">
+    <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="2:34" ht="37.5" customHeight="1">
+    <row r="40" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -2891,7 +2964,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:34" ht="37.5" customHeight="1">
+    <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
         <v>82</v>
       </c>
@@ -2931,7 +3004,7 @@
       <c r="AF41" s="7"/>
       <c r="AG41" s="15"/>
     </row>
-    <row r="42" spans="2:34" ht="37.5" customHeight="1">
+    <row r="42" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="6" t="s">
         <v>71</v>
       </c>
@@ -2971,7 +3044,7 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="15"/>
     </row>
-    <row r="43" spans="2:34" ht="37.5" customHeight="1">
+    <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6" t="s">
         <v>84</v>
       </c>
@@ -3009,12 +3082,12 @@
       <c r="AF43" s="9"/>
       <c r="AG43" s="9"/>
     </row>
-    <row r="45" spans="2:34" ht="37.5" customHeight="1">
+    <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="2:34" ht="37.5" customHeight="1">
+    <row r="46" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="3">
         <v>0</v>
       </c>
@@ -3059,7 +3132,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:34" ht="37.5" customHeight="1">
+    <row r="47" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="6" t="s">
         <v>89</v>
       </c>
@@ -3099,7 +3172,7 @@
       <c r="AF47" s="7"/>
       <c r="AG47" s="15"/>
     </row>
-    <row r="48" spans="2:34" ht="37.5" customHeight="1">
+    <row r="48" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="6" t="s">
         <v>71</v>
       </c>
@@ -3137,12 +3210,12 @@
       <c r="AF48" s="7"/>
       <c r="AG48" s="15"/>
     </row>
-    <row r="50" spans="2:34" ht="37.5" customHeight="1">
+    <row r="50" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="2:34" ht="37.5" customHeight="1">
+    <row r="51" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="5">
         <v>0</v>
       </c>
@@ -3187,7 +3260,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:34" ht="37.5" customHeight="1">
+    <row r="52" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
         <v>98</v>
       </c>
@@ -3227,7 +3300,7 @@
       <c r="AF52" s="7"/>
       <c r="AG52" s="15"/>
     </row>
-    <row r="53" spans="2:34" ht="37.5" customHeight="1">
+    <row r="53" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
         <v>99</v>
       </c>
@@ -3266,18 +3339,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
-  <dimension ref="A2:DB30"/>
+  <dimension ref="A2:DB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:Q27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:106" ht="37.5" customHeight="1">
+    <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -3288,7 +3361,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="37.5" customHeight="1">
+    <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -3416,7 +3489,7 @@
       <c r="CZ3" s="8"/>
       <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:106" ht="37.5" customHeight="1">
+    <row r="4" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3533,7 +3606,7 @@
       <c r="DA4" s="9"/>
       <c r="DB4" s="8"/>
     </row>
-    <row r="5" spans="1:106" ht="37.5" customHeight="1">
+    <row r="5" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -3624,7 +3697,7 @@
       <c r="DA5" s="8"/>
       <c r="DB5" s="8"/>
     </row>
-    <row r="6" spans="1:106" ht="37.5" customHeight="1">
+    <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
@@ -3642,7 +3715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:106" ht="37.5" customHeight="1">
+    <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
@@ -3708,7 +3781,7 @@
       <c r="CZ7" s="8"/>
       <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8">
         <v>0</v>
       </c>
@@ -3788,7 +3861,7 @@
       <c r="CZ8" s="7"/>
       <c r="DA8" s="15"/>
     </row>
-    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -3872,7 +3945,7 @@
       <c r="CZ9" s="7"/>
       <c r="DA9" s="15"/>
     </row>
-    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -3936,7 +4009,7 @@
       <c r="CJ10" s="9"/>
       <c r="CK10" s="9"/>
     </row>
-    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -3987,7 +4060,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:106" ht="37.5" customHeight="1">
+    <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8"/>
@@ -4067,7 +4140,7 @@
       <c r="CZ12" s="8"/>
       <c r="DA12" s="4"/>
     </row>
-    <row r="13" spans="1:106" ht="37.5" customHeight="1">
+    <row r="13" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -4144,7 +4217,7 @@
       <c r="CZ13" s="7"/>
       <c r="DA13" s="15"/>
     </row>
-    <row r="14" spans="1:106" ht="37.5" customHeight="1">
+    <row r="14" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -4220,7 +4293,7 @@
       <c r="CZ14" s="7"/>
       <c r="DA14" s="15"/>
     </row>
-    <row r="15" spans="1:106" ht="37.5" customHeight="1">
+    <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>53</v>
@@ -4262,7 +4335,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:106" ht="37.5" customHeight="1">
+    <row r="16" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -4311,7 +4384,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:105" ht="37.5" customHeight="1">
+    <row r="17" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>39</v>
       </c>
@@ -4391,7 +4464,7 @@
       <c r="CZ17" s="8"/>
       <c r="DA17" s="4"/>
     </row>
-    <row r="18" spans="2:105" ht="37.5" customHeight="1">
+    <row r="18" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6" t="s">
         <v>54</v>
       </c>
@@ -4467,7 +4540,7 @@
       <c r="CZ18" s="7"/>
       <c r="DA18" s="15"/>
     </row>
-    <row r="19" spans="2:105" ht="37.5" customHeight="1">
+    <row r="19" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>56</v>
       </c>
@@ -4541,7 +4614,7 @@
       <c r="CZ19" s="7"/>
       <c r="DA19" s="15"/>
     </row>
-    <row r="20" spans="2:105" ht="37.5" customHeight="1">
+    <row r="20" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
@@ -4613,7 +4686,7 @@
       <c r="CZ20" s="7"/>
       <c r="DA20" s="15"/>
     </row>
-    <row r="21" spans="2:105" ht="37.5" customHeight="1">
+    <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>58</v>
       </c>
@@ -4651,7 +4724,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:105" ht="37.5" customHeight="1">
+    <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
         <v>59</v>
       </c>
@@ -4692,7 +4765,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:105" ht="37.5" customHeight="1">
+    <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -4768,7 +4841,7 @@
       <c r="CZ23" s="8"/>
       <c r="DA23" s="4"/>
     </row>
-    <row r="24" spans="2:105" ht="37.5" customHeight="1">
+    <row r="24" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>97</v>
       </c>
@@ -4844,7 +4917,7 @@
       <c r="CZ24" s="9"/>
       <c r="DA24" s="11"/>
     </row>
-    <row r="25" spans="2:105" ht="37.5" customHeight="1">
+    <row r="25" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5">
         <v>0</v>
       </c>
@@ -4924,7 +4997,7 @@
       <c r="CZ25" s="9"/>
       <c r="DA25" s="9"/>
     </row>
-    <row r="26" spans="2:105" ht="37.5" customHeight="1">
+    <row r="26" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
         <v>78</v>
       </c>
@@ -4936,7 +5009,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="15"/>
       <c r="J26" s="6" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -4965,7 +5038,7 @@
       <c r="AG26" s="15"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="2:105" ht="37.5" customHeight="1">
+    <row r="27" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
         <v>55</v>
       </c>
@@ -4984,63 +5057,71 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="15"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
+      <c r="R27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="15"/>
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
     </row>
-    <row r="28" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B28" s="12"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="8"/>
+    <row r="28" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="15"/>
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
     </row>
-    <row r="29" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B29" s="8"/>
+    <row r="29" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -5075,31 +5156,35 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
     </row>
-    <row r="30" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
+    <row r="30" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="15"/>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
@@ -5111,6 +5196,66 @@
       <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
     </row>
+    <row r="32" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="15"/>
+      <c r="S32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="15"/>
+      <c r="AA34" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9C9C92-FFD4-4D91-9C5C-00A063BAEBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972701DB-2CCE-4844-B0CD-779DCAA2E8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-19425" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -1412,7 +1412,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1728,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH53"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA46" sqref="AA46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3271,26 +3271,26 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="15"/>
-      <c r="J52" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="15"/>
+      <c r="J52" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="11"/>
       <c r="Z52" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="53" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -3310,25 +3310,23 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="15"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3341,8 +3339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972701DB-2CCE-4844-B0CD-779DCAA2E8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EF6A07-1ED1-4444-A2A5-58C9A1AFFEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19425" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -777,7 +777,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1411,23 +1411,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
-    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>プレイヤー座標プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>イベント返答プロトコル</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>プレイヤーインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>ブロックインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1618,7 +1618,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>8</v>
+      </c>
       <c r="B11" s="13" t="str">
         <f>'from client'!$B$45</f>
         <v>ホットバーブロックの設置プロトコル</v>
@@ -1627,7 +1630,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>9</v>
+      </c>
       <c r="B12" s="13" t="str">
         <f>'from client'!$B$50</f>
         <v>ブロックインベントリ要求プロトコル</v>
@@ -1672,13 +1678,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1728,25 +1734,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA46" sqref="AA46"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="2.875" customWidth="1"/>
-    <col min="10" max="10" width="2.875" customWidth="1"/>
-    <col min="18" max="18" width="2.875" customWidth="1"/>
-    <col min="26" max="26" width="2.875" customWidth="1"/>
-    <col min="34" max="34" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" customWidth="1"/>
+    <col min="18" max="18" width="2.83203125" customWidth="1"/>
+    <col min="26" max="26" width="2.83203125" customWidth="1"/>
+    <col min="34" max="34" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -1792,7 +1798,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -1833,7 +1839,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -1872,7 +1878,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -1911,7 +1917,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1946,7 +1952,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1981,7 +1987,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2016,7 +2022,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2050,12 +2056,12 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -2128,7 +2134,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -2166,7 +2172,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2201,7 +2207,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>50</v>
       </c>
@@ -2238,7 +2244,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -2283,7 +2289,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2321,7 +2327,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2355,7 +2361,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2389,12 +2395,12 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1">
       <c r="B22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:34" ht="37.5" customHeight="1">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2439,7 +2445,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1">
       <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
@@ -2477,7 +2483,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2511,7 +2517,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:34" ht="37.5" customHeight="1">
       <c r="B26" t="s">
         <v>67</v>
       </c>
@@ -2549,7 +2555,7 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
     </row>
-    <row r="27" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:34" ht="37.5" customHeight="1">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2594,7 +2600,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:34" ht="37.5" customHeight="1">
       <c r="B28" s="6" t="s">
         <v>68</v>
       </c>
@@ -2634,7 +2640,7 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="15"/>
     </row>
-    <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:34" ht="37.5" customHeight="1">
       <c r="B29" s="6" t="s">
         <v>79</v>
       </c>
@@ -2672,7 +2678,7 @@
       <c r="AF29" s="7"/>
       <c r="AG29" s="15"/>
     </row>
-    <row r="30" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:34" ht="37.5" customHeight="1">
       <c r="B30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2710,7 +2716,7 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="15"/>
     </row>
-    <row r="31" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:34" ht="37.5" customHeight="1">
       <c r="B31" s="6" t="s">
         <v>72</v>
       </c>
@@ -2730,12 +2736,12 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="33" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:34" ht="37.5" customHeight="1">
       <c r="B33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:34" ht="37.5" customHeight="1">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -2780,7 +2786,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:34" ht="37.5" customHeight="1">
       <c r="B35" s="6" t="s">
         <v>78</v>
       </c>
@@ -2820,7 +2826,7 @@
       <c r="AF35" s="7"/>
       <c r="AG35" s="15"/>
     </row>
-    <row r="36" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:34" ht="37.5" customHeight="1">
       <c r="B36" s="6" t="s">
         <v>80</v>
       </c>
@@ -2860,7 +2866,7 @@
       <c r="AF36" s="7"/>
       <c r="AG36" s="15"/>
     </row>
-    <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:34" ht="37.5" customHeight="1">
       <c r="B37" s="6" t="s">
         <v>72</v>
       </c>
@@ -2896,7 +2902,7 @@
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
     </row>
-    <row r="38" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:34" ht="37.5" customHeight="1">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2914,12 +2920,12 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:34" ht="37.5" customHeight="1">
       <c r="B39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:34" ht="37.5" customHeight="1">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -2964,7 +2970,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:34" ht="37.5" customHeight="1">
       <c r="B41" s="6" t="s">
         <v>82</v>
       </c>
@@ -3004,7 +3010,7 @@
       <c r="AF41" s="7"/>
       <c r="AG41" s="15"/>
     </row>
-    <row r="42" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:34" ht="37.5" customHeight="1">
       <c r="B42" s="6" t="s">
         <v>71</v>
       </c>
@@ -3044,7 +3050,7 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="15"/>
     </row>
-    <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:34" ht="37.5" customHeight="1">
       <c r="B43" s="6" t="s">
         <v>84</v>
       </c>
@@ -3082,12 +3088,12 @@
       <c r="AF43" s="9"/>
       <c r="AG43" s="9"/>
     </row>
-    <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:34" ht="37.5" customHeight="1">
       <c r="B45" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:34" ht="37.5" customHeight="1">
       <c r="B46" s="3">
         <v>0</v>
       </c>
@@ -3132,7 +3138,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:34" ht="37.5" customHeight="1">
       <c r="B47" s="6" t="s">
         <v>89</v>
       </c>
@@ -3172,7 +3178,7 @@
       <c r="AF47" s="7"/>
       <c r="AG47" s="15"/>
     </row>
-    <row r="48" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:34" ht="37.5" customHeight="1">
       <c r="B48" s="6" t="s">
         <v>71</v>
       </c>
@@ -3210,12 +3216,12 @@
       <c r="AF48" s="7"/>
       <c r="AG48" s="15"/>
     </row>
-    <row r="50" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:34" ht="37.5" customHeight="1">
       <c r="B50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:34" ht="37.5" customHeight="1">
       <c r="B51" s="5">
         <v>0</v>
       </c>
@@ -3260,7 +3266,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:34" ht="37.5" customHeight="1">
       <c r="B52" s="6" t="s">
         <v>98</v>
       </c>
@@ -3300,7 +3306,7 @@
       <c r="AF52" s="7"/>
       <c r="AG52" s="15"/>
     </row>
-    <row r="53" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:34" ht="37.5" customHeight="1">
       <c r="B53" s="6" t="s">
         <v>100</v>
       </c>
@@ -3340,15 +3346,15 @@
   <dimension ref="A2:DB34"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:106" ht="37.5" customHeight="1">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:106" ht="37.5" customHeight="1">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -3487,7 +3493,7 @@
       <c r="CZ3" s="8"/>
       <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:106" ht="37.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3604,7 +3610,7 @@
       <c r="DA4" s="9"/>
       <c r="DB4" s="8"/>
     </row>
-    <row r="5" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:106" ht="37.5" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -3695,7 +3701,7 @@
       <c r="DA5" s="8"/>
       <c r="DB5" s="8"/>
     </row>
-    <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:106" ht="37.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
@@ -3713,7 +3719,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:106" ht="37.5" customHeight="1">
       <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
@@ -3779,7 +3785,7 @@
       <c r="CZ7" s="8"/>
       <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="B8" s="8">
         <v>0</v>
       </c>
@@ -3859,7 +3865,7 @@
       <c r="CZ8" s="7"/>
       <c r="DA8" s="15"/>
     </row>
-    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -3943,7 +3949,7 @@
       <c r="CZ9" s="7"/>
       <c r="DA9" s="15"/>
     </row>
-    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -4007,7 +4013,7 @@
       <c r="CJ10" s="9"/>
       <c r="CK10" s="9"/>
     </row>
-    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -4058,7 +4064,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:106" ht="37.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8"/>
@@ -4138,7 +4144,7 @@
       <c r="CZ12" s="8"/>
       <c r="DA12" s="4"/>
     </row>
-    <row r="13" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:106" ht="37.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -4215,7 +4221,7 @@
       <c r="CZ13" s="7"/>
       <c r="DA13" s="15"/>
     </row>
-    <row r="14" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:106" ht="37.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -4291,7 +4297,7 @@
       <c r="CZ14" s="7"/>
       <c r="DA14" s="15"/>
     </row>
-    <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:106" ht="37.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>53</v>
@@ -4333,7 +4339,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:106" ht="37.5" customHeight="1">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -4382,7 +4388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:105" ht="37.5" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>39</v>
       </c>
@@ -4462,7 +4468,7 @@
       <c r="CZ17" s="8"/>
       <c r="DA17" s="4"/>
     </row>
-    <row r="18" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:105" ht="37.5" customHeight="1">
       <c r="B18" s="6" t="s">
         <v>54</v>
       </c>
@@ -4538,7 +4544,7 @@
       <c r="CZ18" s="7"/>
       <c r="DA18" s="15"/>
     </row>
-    <row r="19" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:105" ht="37.5" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>56</v>
       </c>
@@ -4612,7 +4618,7 @@
       <c r="CZ19" s="7"/>
       <c r="DA19" s="15"/>
     </row>
-    <row r="20" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:105" ht="37.5" customHeight="1">
       <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
@@ -4684,7 +4690,7 @@
       <c r="CZ20" s="7"/>
       <c r="DA20" s="15"/>
     </row>
-    <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:105" ht="37.5" customHeight="1">
       <c r="B21" s="6" t="s">
         <v>58</v>
       </c>
@@ -4722,7 +4728,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:105" ht="37.5" customHeight="1">
       <c r="B22" s="6" t="s">
         <v>59</v>
       </c>
@@ -4763,7 +4769,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:105" ht="37.5" customHeight="1">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -4839,7 +4845,7 @@
       <c r="CZ23" s="8"/>
       <c r="DA23" s="4"/>
     </row>
-    <row r="24" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:105" ht="37.5" customHeight="1">
       <c r="B24" t="s">
         <v>97</v>
       </c>
@@ -4915,7 +4921,7 @@
       <c r="CZ24" s="9"/>
       <c r="DA24" s="11"/>
     </row>
-    <row r="25" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:105" ht="37.5" customHeight="1">
       <c r="B25" s="5">
         <v>0</v>
       </c>
@@ -4995,7 +5001,7 @@
       <c r="CZ25" s="9"/>
       <c r="DA25" s="9"/>
     </row>
-    <row r="26" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:105" ht="37.5" customHeight="1">
       <c r="B26" s="6" t="s">
         <v>78</v>
       </c>
@@ -5036,7 +5042,7 @@
       <c r="AG26" s="15"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:105" ht="37.5" customHeight="1">
       <c r="B27" s="6" t="s">
         <v>55</v>
       </c>
@@ -5076,7 +5082,7 @@
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
     </row>
-    <row r="28" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:105" ht="37.5" customHeight="1">
       <c r="B28" s="6" t="s">
         <v>57</v>
       </c>
@@ -5116,7 +5122,7 @@
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
     </row>
-    <row r="29" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:105" ht="37.5" customHeight="1">
       <c r="B29" s="17" t="s">
         <v>12</v>
       </c>
@@ -5154,7 +5160,7 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
     </row>
-    <row r="30" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:105" ht="37.5" customHeight="1">
       <c r="B30" s="6" t="s">
         <v>102</v>
       </c>
@@ -5194,7 +5200,7 @@
       <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
     </row>
-    <row r="32" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:105" ht="37.5" customHeight="1">
       <c r="B32" s="6" t="s">
         <v>104</v>
       </c>
@@ -5219,7 +5225,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:27" ht="37.5" customHeight="1">
       <c r="B34" s="6" t="s">
         <v>107</v>
       </c>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frtgh\Documents\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EF6A07-1ED1-4444-A2A5-58C9A1AFFEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94002AF-9475-41FB-87AC-9044C710DEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="4155" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -770,6 +770,17 @@
   </si>
   <si>
     <t>short アイテム数 n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック削除プロトコル</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 10</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -777,7 +788,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,7 +1032,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1092,6 +1103,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1409,25 +1423,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1441,7 +1455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1461,7 +1475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1484,7 +1498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1506,7 +1520,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1529,7 +1543,7 @@
         <v>プレイヤー座標プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1549,7 +1563,7 @@
         <v>イベント返答プロトコル</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1569,7 +1583,7 @@
         <v>プレイヤーインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1587,7 +1601,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1606,7 +1620,7 @@
         <v>ブロックインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1618,7 +1632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1630,7 +1644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1641,6 +1655,18 @@
       <c r="C12" s="13" t="str">
         <f>'from server'!$B$24</f>
         <v>ブロックインベントリ応答プロトコル</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13" t="str">
+        <f>'from client'!$B$55</f>
+        <v>ブロック削除プロトコル</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1664,6 +1690,7 @@
     <hyperlink ref="B12" location="'from client'!B51" display="'from client'!B51" xr:uid="{BD44C648-ABF1-AA40-9C73-2972260DADB1}"/>
     <hyperlink ref="C12" location="'from server'!B24" display="'from server'!B24" xr:uid="{C8DE9813-B4C5-9C4E-9007-9CE50D366673}"/>
     <hyperlink ref="F9" location="'from server'!B24" display="'from server'!B24" xr:uid="{5C1752A0-9769-C548-B84F-323F4288A18F}"/>
+    <hyperlink ref="B13" location="'from client'!B55" display="ブロック削除プロトコル" xr:uid="{D7C87888-FC37-4625-B004-3CC9C31DC03F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1678,13 +1705,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1692,7 +1719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1700,7 +1727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1708,7 +1735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1716,7 +1743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1732,27 +1759,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH53"/>
+  <dimension ref="A2:AH58"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" customWidth="1"/>
-    <col min="18" max="18" width="2.83203125" customWidth="1"/>
-    <col min="26" max="26" width="2.83203125" customWidth="1"/>
-    <col min="34" max="34" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="2.875" customWidth="1"/>
+    <col min="10" max="10" width="2.875" customWidth="1"/>
+    <col min="18" max="18" width="2.875" customWidth="1"/>
+    <col min="26" max="26" width="2.875" customWidth="1"/>
+    <col min="34" max="34" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -1798,7 +1825,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -1839,7 +1866,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -1878,7 +1905,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -1917,7 +1944,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1952,7 +1979,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1987,7 +2014,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2022,7 +2049,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2056,12 +2083,12 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -2094,7 +2121,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -2134,7 +2161,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -2172,7 +2199,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2207,7 +2234,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
         <v>50</v>
       </c>
@@ -2244,7 +2271,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -2289,7 +2316,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2327,7 +2354,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2361,7 +2388,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2395,12 +2422,12 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1">
+    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2445,7 +2472,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
@@ -2483,7 +2510,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2517,7 +2544,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="37.5" customHeight="1">
+    <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>67</v>
       </c>
@@ -2555,7 +2582,7 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
     </row>
-    <row r="27" spans="2:34" ht="37.5" customHeight="1">
+    <row r="27" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2600,7 +2627,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="37.5" customHeight="1">
+    <row r="28" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
         <v>68</v>
       </c>
@@ -2640,7 +2667,7 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="15"/>
     </row>
-    <row r="29" spans="2:34" ht="37.5" customHeight="1">
+    <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
         <v>79</v>
       </c>
@@ -2678,7 +2705,7 @@
       <c r="AF29" s="7"/>
       <c r="AG29" s="15"/>
     </row>
-    <row r="30" spans="2:34" ht="37.5" customHeight="1">
+    <row r="30" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2716,7 +2743,7 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="15"/>
     </row>
-    <row r="31" spans="2:34" ht="37.5" customHeight="1">
+    <row r="31" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="6" t="s">
         <v>72</v>
       </c>
@@ -2736,12 +2763,12 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="33" spans="2:34" ht="37.5" customHeight="1">
+    <row r="33" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:34" ht="37.5" customHeight="1">
+    <row r="34" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -2786,7 +2813,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="37.5" customHeight="1">
+    <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
         <v>78</v>
       </c>
@@ -2826,7 +2853,7 @@
       <c r="AF35" s="7"/>
       <c r="AG35" s="15"/>
     </row>
-    <row r="36" spans="2:34" ht="37.5" customHeight="1">
+    <row r="36" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
         <v>80</v>
       </c>
@@ -2866,7 +2893,7 @@
       <c r="AF36" s="7"/>
       <c r="AG36" s="15"/>
     </row>
-    <row r="37" spans="2:34" ht="37.5" customHeight="1">
+    <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>72</v>
       </c>
@@ -2902,7 +2929,7 @@
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
     </row>
-    <row r="38" spans="2:34" ht="37.5" customHeight="1">
+    <row r="38" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2920,12 +2947,12 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="2:34" ht="37.5" customHeight="1">
+    <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="2:34" ht="37.5" customHeight="1">
+    <row r="40" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -2970,7 +2997,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:34" ht="37.5" customHeight="1">
+    <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
         <v>82</v>
       </c>
@@ -3010,7 +3037,7 @@
       <c r="AF41" s="7"/>
       <c r="AG41" s="15"/>
     </row>
-    <row r="42" spans="2:34" ht="37.5" customHeight="1">
+    <row r="42" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="6" t="s">
         <v>71</v>
       </c>
@@ -3050,7 +3077,7 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="15"/>
     </row>
-    <row r="43" spans="2:34" ht="37.5" customHeight="1">
+    <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6" t="s">
         <v>84</v>
       </c>
@@ -3088,12 +3115,12 @@
       <c r="AF43" s="9"/>
       <c r="AG43" s="9"/>
     </row>
-    <row r="45" spans="2:34" ht="37.5" customHeight="1">
+    <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="2:34" ht="37.5" customHeight="1">
+    <row r="46" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="3">
         <v>0</v>
       </c>
@@ -3138,7 +3165,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:34" ht="37.5" customHeight="1">
+    <row r="47" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="6" t="s">
         <v>89</v>
       </c>
@@ -3178,7 +3205,7 @@
       <c r="AF47" s="7"/>
       <c r="AG47" s="15"/>
     </row>
-    <row r="48" spans="2:34" ht="37.5" customHeight="1">
+    <row r="48" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="6" t="s">
         <v>71</v>
       </c>
@@ -3216,12 +3243,12 @@
       <c r="AF48" s="7"/>
       <c r="AG48" s="15"/>
     </row>
-    <row r="50" spans="2:34" ht="37.5" customHeight="1">
+    <row r="50" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="2:34" ht="37.5" customHeight="1">
+    <row r="51" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="5">
         <v>0</v>
       </c>
@@ -3266,7 +3293,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:34" ht="37.5" customHeight="1">
+    <row r="52" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
         <v>98</v>
       </c>
@@ -3306,7 +3333,7 @@
       <c r="AF52" s="7"/>
       <c r="AG52" s="15"/>
     </row>
-    <row r="53" spans="2:34" ht="37.5" customHeight="1">
+    <row r="53" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
         <v>100</v>
       </c>
@@ -3334,6 +3361,126 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
+    <row r="55" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="5">
+        <v>0</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="5">
+        <v>16</v>
+      </c>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="5">
+        <v>32</v>
+      </c>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="5">
+        <v>48</v>
+      </c>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="15"/>
+    </row>
+    <row r="58" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3349,12 +3496,12 @@
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:106" ht="37.5" customHeight="1">
+    <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -3365,7 +3512,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="37.5" customHeight="1">
+    <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -3493,7 +3640,7 @@
       <c r="CZ3" s="8"/>
       <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:106" ht="37.5" customHeight="1">
+    <row r="4" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3610,7 +3757,7 @@
       <c r="DA4" s="9"/>
       <c r="DB4" s="8"/>
     </row>
-    <row r="5" spans="1:106" ht="37.5" customHeight="1">
+    <row r="5" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -3701,7 +3848,7 @@
       <c r="DA5" s="8"/>
       <c r="DB5" s="8"/>
     </row>
-    <row r="6" spans="1:106" ht="37.5" customHeight="1">
+    <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
@@ -3719,7 +3866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:106" ht="37.5" customHeight="1">
+    <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
@@ -3785,7 +3932,7 @@
       <c r="CZ7" s="8"/>
       <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8">
         <v>0</v>
       </c>
@@ -3865,7 +4012,7 @@
       <c r="CZ8" s="7"/>
       <c r="DA8" s="15"/>
     </row>
-    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -3949,7 +4096,7 @@
       <c r="CZ9" s="7"/>
       <c r="DA9" s="15"/>
     </row>
-    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -4013,7 +4160,7 @@
       <c r="CJ10" s="9"/>
       <c r="CK10" s="9"/>
     </row>
-    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -4064,7 +4211,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:106" ht="37.5" customHeight="1">
+    <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8"/>
@@ -4144,7 +4291,7 @@
       <c r="CZ12" s="8"/>
       <c r="DA12" s="4"/>
     </row>
-    <row r="13" spans="1:106" ht="37.5" customHeight="1">
+    <row r="13" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -4221,7 +4368,7 @@
       <c r="CZ13" s="7"/>
       <c r="DA13" s="15"/>
     </row>
-    <row r="14" spans="1:106" ht="37.5" customHeight="1">
+    <row r="14" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -4297,7 +4444,7 @@
       <c r="CZ14" s="7"/>
       <c r="DA14" s="15"/>
     </row>
-    <row r="15" spans="1:106" ht="37.5" customHeight="1">
+    <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>53</v>
@@ -4339,7 +4486,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:106" ht="37.5" customHeight="1">
+    <row r="16" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -4388,7 +4535,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:105" ht="37.5" customHeight="1">
+    <row r="17" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>39</v>
       </c>
@@ -4468,7 +4615,7 @@
       <c r="CZ17" s="8"/>
       <c r="DA17" s="4"/>
     </row>
-    <row r="18" spans="2:105" ht="37.5" customHeight="1">
+    <row r="18" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6" t="s">
         <v>54</v>
       </c>
@@ -4544,7 +4691,7 @@
       <c r="CZ18" s="7"/>
       <c r="DA18" s="15"/>
     </row>
-    <row r="19" spans="2:105" ht="37.5" customHeight="1">
+    <row r="19" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>56</v>
       </c>
@@ -4618,7 +4765,7 @@
       <c r="CZ19" s="7"/>
       <c r="DA19" s="15"/>
     </row>
-    <row r="20" spans="2:105" ht="37.5" customHeight="1">
+    <row r="20" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
@@ -4690,7 +4837,7 @@
       <c r="CZ20" s="7"/>
       <c r="DA20" s="15"/>
     </row>
-    <row r="21" spans="2:105" ht="37.5" customHeight="1">
+    <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>58</v>
       </c>
@@ -4728,7 +4875,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:105" ht="37.5" customHeight="1">
+    <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
         <v>59</v>
       </c>
@@ -4769,7 +4916,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:105" ht="37.5" customHeight="1">
+    <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -4845,7 +4992,7 @@
       <c r="CZ23" s="8"/>
       <c r="DA23" s="4"/>
     </row>
-    <row r="24" spans="2:105" ht="37.5" customHeight="1">
+    <row r="24" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>97</v>
       </c>
@@ -4921,7 +5068,7 @@
       <c r="CZ24" s="9"/>
       <c r="DA24" s="11"/>
     </row>
-    <row r="25" spans="2:105" ht="37.5" customHeight="1">
+    <row r="25" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5">
         <v>0</v>
       </c>
@@ -5001,7 +5148,7 @@
       <c r="CZ25" s="9"/>
       <c r="DA25" s="9"/>
     </row>
-    <row r="26" spans="2:105" ht="37.5" customHeight="1">
+    <row r="26" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
         <v>78</v>
       </c>
@@ -5042,7 +5189,7 @@
       <c r="AG26" s="15"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="2:105" ht="37.5" customHeight="1">
+    <row r="27" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
         <v>55</v>
       </c>
@@ -5082,7 +5229,7 @@
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
     </row>
-    <row r="28" spans="2:105" ht="37.5" customHeight="1">
+    <row r="28" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
         <v>57</v>
       </c>
@@ -5122,7 +5269,7 @@
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
     </row>
-    <row r="29" spans="2:105" ht="37.5" customHeight="1">
+    <row r="29" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="17" t="s">
         <v>12</v>
       </c>
@@ -5160,7 +5307,7 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
     </row>
-    <row r="30" spans="2:105" ht="37.5" customHeight="1">
+    <row r="30" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
         <v>102</v>
       </c>
@@ -5200,7 +5347,7 @@
       <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
     </row>
-    <row r="32" spans="2:105" ht="37.5" customHeight="1">
+    <row r="32" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="6" t="s">
         <v>104</v>
       </c>
@@ -5225,7 +5372,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="37.5" customHeight="1">
+    <row r="34" spans="2:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="6" t="s">
         <v>107</v>
       </c>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frtgh\Documents\moorestech\Server.Protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94002AF-9475-41FB-87AC-9044C710DEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2255951-1F55-ED49-8B89-94923A044085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -781,6 +781,25 @@
   </si>
   <si>
     <t>short パケットID 10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド送信プロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string コマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short 文字数</t>
+    <rPh sb="6" eb="9">
+      <t>モジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -788,7 +807,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1423,25 +1442,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
-    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1455,7 +1474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1475,7 +1494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1498,7 +1517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1520,7 +1539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1543,7 +1562,7 @@
         <v>プレイヤー座標プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1563,7 +1582,7 @@
         <v>イベント返答プロトコル</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1583,7 +1602,7 @@
         <v>プレイヤーインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1601,7 +1620,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1620,7 +1639,7 @@
         <v>ブロックインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1632,7 +1651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1644,7 +1663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1657,7 +1676,7 @@
         <v>ブロックインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1667,6 +1686,15 @@
       </c>
       <c r="C13" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13" t="str">
+        <f>'from client'!$B$60</f>
+        <v>コマンド送信プロトコル</v>
       </c>
     </row>
   </sheetData>
@@ -1691,6 +1719,7 @@
     <hyperlink ref="C12" location="'from server'!B24" display="'from server'!B24" xr:uid="{C8DE9813-B4C5-9C4E-9007-9CE50D366673}"/>
     <hyperlink ref="F9" location="'from server'!B24" display="'from server'!B24" xr:uid="{5C1752A0-9769-C548-B84F-323F4288A18F}"/>
     <hyperlink ref="B13" location="'from client'!B55" display="ブロック削除プロトコル" xr:uid="{D7C87888-FC37-4625-B004-3CC9C31DC03F}"/>
+    <hyperlink ref="B14" location="'from client'!B60" display="'from client'!B60" xr:uid="{25534867-9881-2B4C-8C4E-BEB874797101}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1705,13 +1734,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1719,7 +1748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1727,7 +1756,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1735,7 +1764,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -1743,7 +1772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1759,27 +1788,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH58"/>
+  <dimension ref="A2:AH63"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y57" sqref="Y57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="2.875" customWidth="1"/>
-    <col min="10" max="10" width="2.875" customWidth="1"/>
-    <col min="18" max="18" width="2.875" customWidth="1"/>
-    <col min="26" max="26" width="2.875" customWidth="1"/>
-    <col min="34" max="34" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" customWidth="1"/>
+    <col min="18" max="18" width="2.83203125" customWidth="1"/>
+    <col min="26" max="26" width="2.83203125" customWidth="1"/>
+    <col min="34" max="34" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -1825,7 +1854,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -1866,7 +1895,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -1905,7 +1934,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -1944,7 +1973,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1979,7 +2008,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2014,7 +2043,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2049,7 +2078,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2083,12 +2112,12 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -2121,7 +2150,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -2161,7 +2190,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -2199,7 +2228,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2234,7 +2263,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>50</v>
       </c>
@@ -2271,7 +2300,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -2316,7 +2345,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2354,7 +2383,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2388,7 +2417,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2422,12 +2451,12 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1">
       <c r="B22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:34" ht="37.5" customHeight="1">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2472,7 +2501,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1">
       <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
@@ -2510,7 +2539,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2544,7 +2573,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:34" ht="37.5" customHeight="1">
       <c r="B26" t="s">
         <v>67</v>
       </c>
@@ -2582,7 +2611,7 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
     </row>
-    <row r="27" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:34" ht="37.5" customHeight="1">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2627,7 +2656,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:34" ht="37.5" customHeight="1">
       <c r="B28" s="6" t="s">
         <v>68</v>
       </c>
@@ -2667,7 +2696,7 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="15"/>
     </row>
-    <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:34" ht="37.5" customHeight="1">
       <c r="B29" s="6" t="s">
         <v>79</v>
       </c>
@@ -2705,7 +2734,7 @@
       <c r="AF29" s="7"/>
       <c r="AG29" s="15"/>
     </row>
-    <row r="30" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:34" ht="37.5" customHeight="1">
       <c r="B30" s="6" t="s">
         <v>71</v>
       </c>
@@ -2743,7 +2772,7 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="15"/>
     </row>
-    <row r="31" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:34" ht="37.5" customHeight="1">
       <c r="B31" s="6" t="s">
         <v>72</v>
       </c>
@@ -2763,12 +2792,12 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="33" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:34" ht="37.5" customHeight="1">
       <c r="B33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:34" ht="37.5" customHeight="1">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -2813,7 +2842,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:34" ht="37.5" customHeight="1">
       <c r="B35" s="6" t="s">
         <v>78</v>
       </c>
@@ -2853,7 +2882,7 @@
       <c r="AF35" s="7"/>
       <c r="AG35" s="15"/>
     </row>
-    <row r="36" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:34" ht="37.5" customHeight="1">
       <c r="B36" s="6" t="s">
         <v>80</v>
       </c>
@@ -2893,7 +2922,7 @@
       <c r="AF36" s="7"/>
       <c r="AG36" s="15"/>
     </row>
-    <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:34" ht="37.5" customHeight="1">
       <c r="B37" s="6" t="s">
         <v>72</v>
       </c>
@@ -2929,7 +2958,7 @@
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
     </row>
-    <row r="38" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:34" ht="37.5" customHeight="1">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2947,12 +2976,12 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:34" ht="37.5" customHeight="1">
       <c r="B39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:34" ht="37.5" customHeight="1">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -2997,7 +3026,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:34" ht="37.5" customHeight="1">
       <c r="B41" s="6" t="s">
         <v>82</v>
       </c>
@@ -3037,7 +3066,7 @@
       <c r="AF41" s="7"/>
       <c r="AG41" s="15"/>
     </row>
-    <row r="42" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:34" ht="37.5" customHeight="1">
       <c r="B42" s="6" t="s">
         <v>71</v>
       </c>
@@ -3077,7 +3106,7 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="15"/>
     </row>
-    <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:34" ht="37.5" customHeight="1">
       <c r="B43" s="6" t="s">
         <v>84</v>
       </c>
@@ -3115,12 +3144,12 @@
       <c r="AF43" s="9"/>
       <c r="AG43" s="9"/>
     </row>
-    <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:34" ht="37.5" customHeight="1">
       <c r="B45" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:34" ht="37.5" customHeight="1">
       <c r="B46" s="3">
         <v>0</v>
       </c>
@@ -3165,7 +3194,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:34" ht="37.5" customHeight="1">
       <c r="B47" s="6" t="s">
         <v>89</v>
       </c>
@@ -3205,7 +3234,7 @@
       <c r="AF47" s="7"/>
       <c r="AG47" s="15"/>
     </row>
-    <row r="48" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:34" ht="37.5" customHeight="1">
       <c r="B48" s="6" t="s">
         <v>71</v>
       </c>
@@ -3243,12 +3272,12 @@
       <c r="AF48" s="7"/>
       <c r="AG48" s="15"/>
     </row>
-    <row r="50" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:34" ht="37.5" customHeight="1">
       <c r="B50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:34" ht="37.5" customHeight="1">
       <c r="B51" s="5">
         <v>0</v>
       </c>
@@ -3293,7 +3322,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:34" ht="37.5" customHeight="1">
       <c r="B52" s="6" t="s">
         <v>98</v>
       </c>
@@ -3333,7 +3362,7 @@
       <c r="AF52" s="7"/>
       <c r="AG52" s="15"/>
     </row>
-    <row r="53" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:34" ht="37.5" customHeight="1">
       <c r="B53" s="6" t="s">
         <v>100</v>
       </c>
@@ -3361,12 +3390,12 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="55" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:34" ht="37.5" customHeight="1">
       <c r="B55" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:34" ht="37.5" customHeight="1">
       <c r="B56" s="5">
         <v>0</v>
       </c>
@@ -3411,7 +3440,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:34" ht="37.5" customHeight="1">
       <c r="B57" s="6" t="s">
         <v>113</v>
       </c>
@@ -3451,7 +3480,7 @@
       <c r="AF57" s="7"/>
       <c r="AG57" s="15"/>
     </row>
-    <row r="58" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:34" ht="37.5" customHeight="1">
       <c r="B58" s="24" t="s">
         <v>71</v>
       </c>
@@ -3481,6 +3510,122 @@
       <c r="X58" s="7"/>
       <c r="Y58" s="15"/>
     </row>
+    <row r="60" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B61" s="5">
+        <v>0</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="5">
+        <v>16</v>
+      </c>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="5">
+        <v>32</v>
+      </c>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="5">
+        <v>48</v>
+      </c>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="4"/>
+      <c r="AH61">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B62" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="15"/>
+    </row>
+    <row r="63" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B63" s="24"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3496,12 +3641,12 @@
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:106" ht="37.5" customHeight="1">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -3512,7 +3657,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:106" ht="37.5" customHeight="1">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -3640,7 +3785,7 @@
       <c r="CZ3" s="8"/>
       <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:106" ht="37.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3757,7 +3902,7 @@
       <c r="DA4" s="9"/>
       <c r="DB4" s="8"/>
     </row>
-    <row r="5" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:106" ht="37.5" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -3848,7 +3993,7 @@
       <c r="DA5" s="8"/>
       <c r="DB5" s="8"/>
     </row>
-    <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:106" ht="37.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
@@ -3866,7 +4011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:106" ht="37.5" customHeight="1">
       <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
@@ -3932,7 +4077,7 @@
       <c r="CZ7" s="8"/>
       <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="B8" s="8">
         <v>0</v>
       </c>
@@ -4012,7 +4157,7 @@
       <c r="CZ8" s="7"/>
       <c r="DA8" s="15"/>
     </row>
-    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -4096,7 +4241,7 @@
       <c r="CZ9" s="7"/>
       <c r="DA9" s="15"/>
     </row>
-    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -4160,7 +4305,7 @@
       <c r="CJ10" s="9"/>
       <c r="CK10" s="9"/>
     </row>
-    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -4211,7 +4356,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:106" ht="37.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8"/>
@@ -4291,7 +4436,7 @@
       <c r="CZ12" s="8"/>
       <c r="DA12" s="4"/>
     </row>
-    <row r="13" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:106" ht="37.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -4368,7 +4513,7 @@
       <c r="CZ13" s="7"/>
       <c r="DA13" s="15"/>
     </row>
-    <row r="14" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:106" ht="37.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -4444,7 +4589,7 @@
       <c r="CZ14" s="7"/>
       <c r="DA14" s="15"/>
     </row>
-    <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:106" ht="37.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>53</v>
@@ -4486,7 +4631,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:106" ht="37.5" customHeight="1">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -4535,7 +4680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:105" ht="37.5" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>39</v>
       </c>
@@ -4615,7 +4760,7 @@
       <c r="CZ17" s="8"/>
       <c r="DA17" s="4"/>
     </row>
-    <row r="18" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:105" ht="37.5" customHeight="1">
       <c r="B18" s="6" t="s">
         <v>54</v>
       </c>
@@ -4691,7 +4836,7 @@
       <c r="CZ18" s="7"/>
       <c r="DA18" s="15"/>
     </row>
-    <row r="19" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:105" ht="37.5" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>56</v>
       </c>
@@ -4765,7 +4910,7 @@
       <c r="CZ19" s="7"/>
       <c r="DA19" s="15"/>
     </row>
-    <row r="20" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:105" ht="37.5" customHeight="1">
       <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
@@ -4837,7 +4982,7 @@
       <c r="CZ20" s="7"/>
       <c r="DA20" s="15"/>
     </row>
-    <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:105" ht="37.5" customHeight="1">
       <c r="B21" s="6" t="s">
         <v>58</v>
       </c>
@@ -4875,7 +5020,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:105" ht="37.5" customHeight="1">
       <c r="B22" s="6" t="s">
         <v>59</v>
       </c>
@@ -4916,7 +5061,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:105" ht="37.5" customHeight="1">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -4992,7 +5137,7 @@
       <c r="CZ23" s="8"/>
       <c r="DA23" s="4"/>
     </row>
-    <row r="24" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:105" ht="37.5" customHeight="1">
       <c r="B24" t="s">
         <v>97</v>
       </c>
@@ -5068,7 +5213,7 @@
       <c r="CZ24" s="9"/>
       <c r="DA24" s="11"/>
     </row>
-    <row r="25" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:105" ht="37.5" customHeight="1">
       <c r="B25" s="5">
         <v>0</v>
       </c>
@@ -5148,7 +5293,7 @@
       <c r="CZ25" s="9"/>
       <c r="DA25" s="9"/>
     </row>
-    <row r="26" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:105" ht="37.5" customHeight="1">
       <c r="B26" s="6" t="s">
         <v>78</v>
       </c>
@@ -5189,7 +5334,7 @@
       <c r="AG26" s="15"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:105" ht="37.5" customHeight="1">
       <c r="B27" s="6" t="s">
         <v>55</v>
       </c>
@@ -5229,7 +5374,7 @@
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
     </row>
-    <row r="28" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:105" ht="37.5" customHeight="1">
       <c r="B28" s="6" t="s">
         <v>57</v>
       </c>
@@ -5269,7 +5414,7 @@
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
     </row>
-    <row r="29" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:105" ht="37.5" customHeight="1">
       <c r="B29" s="17" t="s">
         <v>12</v>
       </c>
@@ -5307,7 +5452,7 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
     </row>
-    <row r="30" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:105" ht="37.5" customHeight="1">
       <c r="B30" s="6" t="s">
         <v>102</v>
       </c>
@@ -5347,7 +5492,7 @@
       <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
     </row>
-    <row r="32" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:105" ht="37.5" customHeight="1">
       <c r="B32" s="6" t="s">
         <v>104</v>
       </c>
@@ -5372,7 +5517,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:27" ht="37.5" customHeight="1">
       <c r="B34" s="6" t="s">
         <v>107</v>
       </c>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frtgh\Documents\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94002AF-9475-41FB-87AC-9044C710DEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CCE068-538A-4D4E-BD2B-AC97E23CC82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="4155" yWindow="1575" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -773,14 +773,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロック削除プロトコル</t>
+    <t>short パケットID 10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック削除プロトコル+削除ブロックのプレイヤーインベントリへの移動</t>
     <rPh sb="4" eb="6">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>short パケットID 10</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1425,7 +1425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B13" s="13" t="str">
         <f>'from client'!$B$55</f>
-        <v>ブロック削除プロトコル</v>
+        <v>ブロック削除プロトコル+削除ブロックのプレイヤーインベントリへの移動</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1759,15 +1759,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH58"/>
+  <dimension ref="A2:AH59"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="2.875" customWidth="1"/>
+    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.875" customWidth="1"/>
     <col min="18" max="18" width="2.875" customWidth="1"/>
     <col min="26" max="26" width="2.875" customWidth="1"/>
@@ -3363,7 +3364,7 @@
     </row>
     <row r="55" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3413,7 +3414,7 @@
     </row>
     <row r="57" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3480,6 +3481,28 @@
       <c r="W58" s="7"/>
       <c r="X58" s="7"/>
       <c r="Y58" s="15"/>
+      <c r="Z58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="15"/>
+    </row>
+    <row r="59" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frtgh\Documents\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CCE068-538A-4D4E-BD2B-AC97E23CC82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94002AF-9475-41FB-87AC-9044C710DEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="1575" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="4155" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -773,14 +773,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>short パケットID 10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロック削除プロトコル+削除ブロックのプレイヤーインベントリへの移動</t>
+    <t>ブロック削除プロトコル</t>
     <rPh sb="4" eb="6">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 10</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1425,7 +1425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B13" s="13" t="str">
         <f>'from client'!$B$55</f>
-        <v>ブロック削除プロトコル+削除ブロックのプレイヤーインベントリへの移動</v>
+        <v>ブロック削除プロトコル</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1759,16 +1759,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH59"/>
+  <dimension ref="A2:AH58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="2.875" customWidth="1"/>
-    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.875" customWidth="1"/>
     <col min="18" max="18" width="2.875" customWidth="1"/>
     <col min="26" max="26" width="2.875" customWidth="1"/>
@@ -3364,7 +3363,7 @@
     </row>
     <row r="55" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3414,7 +3413,7 @@
     </row>
     <row r="57" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3481,28 +3480,6 @@
       <c r="W58" s="7"/>
       <c r="X58" s="7"/>
       <c r="Y58" s="15"/>
-      <c r="Z58" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA58" s="7"/>
-      <c r="AB58" s="7"/>
-      <c r="AC58" s="7"/>
-      <c r="AD58" s="7"/>
-      <c r="AE58" s="7"/>
-      <c r="AF58" s="7"/>
-      <c r="AG58" s="15"/>
-    </row>
-    <row r="59" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2255951-1F55-ED49-8B89-94923A044085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E721ECDF-BB4E-764F-A638-9C0E56CCD60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15580" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="138">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -431,40 +431,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int スロット47のアイテムID</t>
-    <rPh sb="14" eb="15">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int スロット48のアイテムID</t>
-    <rPh sb="14" eb="15">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int スロット47のアイテム数</t>
-    <rPh sb="14" eb="15">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int スロット48のアイテム数</t>
-    <rPh sb="14" eb="15">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーインベントリ更新イベント</t>
     <rPh sb="11" eb="13">
       <t>コウシn</t>
@@ -799,6 +765,165 @@
     <t>short 文字数</t>
     <rPh sb="6" eb="9">
       <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>int プレイヤーID</t>
+  </si>
+  <si>
+    <t>int プレイヤーインベントリスロット</t>
+  </si>
+  <si>
+    <t>クラフトインベントリ-プレイヤーインベントリアイテム移動プロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short 0ならプレイヤーインベントリからクラフトインベントリにアイテム移動 1ならその逆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int クラフトインベントリスロット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 移動元ブロックインベントリスロット</t>
+    <rPh sb="4" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int クラフトスロット1のアイテムID</t>
+    <rPh sb="17" eb="18">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int クラフトスロット1のアイテム数</t>
+    <rPh sb="17" eb="18">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int クラフトスロット0のアイテムID</t>
+    <rPh sb="17" eb="18">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int クラフトスロット0のアイテム数</t>
+    <rPh sb="17" eb="18">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int スロット44のアイテムID</t>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int スロット44のアイテム数</t>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int スロット43のアイテム数</t>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int スロット43のアイテムID</t>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int クラフトスロット8のアイテムID</t>
+    <rPh sb="17" eb="18">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int クラフトスロット9のアイテムID</t>
+    <rPh sb="17" eb="18">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int クラフトスロット8のアイテム数</t>
+    <rPh sb="17" eb="18">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int クラフトスロット9のアイテム数</t>
+    <rPh sb="17" eb="18">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int クラフト結果のアイテムID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int クラフト結果のアイテム数</t>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>byte クラフト可能か 可能なら1 不可能なら0</t>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>フカノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -807,7 +932,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,6 +972,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -856,7 +989,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1042,6 +1175,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1051,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1125,6 +1271,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1442,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1617,7 +1796,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1635,7 +1814,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="13" t="str">
-        <f>'from server'!$B$24</f>
+        <f>'from server'!$B$35</f>
         <v>ブロックインベントリ応答プロトコル</v>
       </c>
     </row>
@@ -1672,7 +1851,7 @@
         <v>ブロックインベントリ要求プロトコル</v>
       </c>
       <c r="C12" s="13" t="str">
-        <f>'from server'!$B$24</f>
+        <f>'from server'!$B$35</f>
         <v>ブロックインベントリ応答プロトコル</v>
       </c>
     </row>
@@ -1695,6 +1874,38 @@
       <c r="B14" s="13" t="str">
         <f>'from client'!$B$60</f>
         <v>コマンド送信プロトコル</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="13" t="str">
+        <f>'from client'!$B$65</f>
+        <v>クラフトインベントリ-プレイヤーインベントリアイテム移動プロトコル</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="13" t="str">
+        <f>'from client'!$B$71</f>
+        <v>プレイヤーインベントリ内アイテム移動プロトコル</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1716,10 +1927,12 @@
     <hyperlink ref="B10" location="'from client'!B39" display="'from client'!B39" xr:uid="{5A8838B1-1247-1745-A447-957E2DBF349D}"/>
     <hyperlink ref="B11" location="'from client'!B45" display="'from client'!B45" xr:uid="{46920734-A454-4530-89C1-F77469B5F187}"/>
     <hyperlink ref="B12" location="'from client'!B51" display="'from client'!B51" xr:uid="{BD44C648-ABF1-AA40-9C73-2972260DADB1}"/>
-    <hyperlink ref="C12" location="'from server'!B24" display="'from server'!B24" xr:uid="{C8DE9813-B4C5-9C4E-9007-9CE50D366673}"/>
-    <hyperlink ref="F9" location="'from server'!B24" display="'from server'!B24" xr:uid="{5C1752A0-9769-C548-B84F-323F4288A18F}"/>
+    <hyperlink ref="C12" location="'from server'!B35" display="'from server'!B35" xr:uid="{C8DE9813-B4C5-9C4E-9007-9CE50D366673}"/>
     <hyperlink ref="B13" location="'from client'!B55" display="ブロック削除プロトコル" xr:uid="{D7C87888-FC37-4625-B004-3CC9C31DC03F}"/>
     <hyperlink ref="B14" location="'from client'!B60" display="'from client'!B60" xr:uid="{25534867-9881-2B4C-8C4E-BEB874797101}"/>
+    <hyperlink ref="B15" location="'from client'!B65" display="'from client'!B65" xr:uid="{A3CF76F8-F667-834D-B827-BF1D448A7F3A}"/>
+    <hyperlink ref="B16" location="'from client'!B71" display="'from client'!B71" xr:uid="{9234CCF1-4647-9848-98F3-24F80A3BF3AA}"/>
+    <hyperlink ref="F9" location="'from server'!B35" display="'from server'!B35" xr:uid="{410E8C63-57E0-844E-B331-44511CC58F59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1788,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH63"/>
+  <dimension ref="A2:AH75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y57" sqref="Y57"/>
+    <sheetView topLeftCell="A16" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -2453,7 +2666,7 @@
     </row>
     <row r="22" spans="2:34" ht="37.5" customHeight="1">
       <c r="B22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:34" ht="37.5" customHeight="1">
@@ -2575,7 +2788,7 @@
     </row>
     <row r="26" spans="2:34" ht="37.5" customHeight="1">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2593,7 +2806,7 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
@@ -2658,7 +2871,7 @@
     </row>
     <row r="28" spans="2:34" ht="37.5" customHeight="1">
       <c r="B28" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2668,7 +2881,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2698,7 +2911,7 @@
     </row>
     <row r="29" spans="2:34" ht="37.5" customHeight="1">
       <c r="B29" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2716,7 +2929,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -2736,7 +2949,7 @@
     </row>
     <row r="30" spans="2:34" ht="37.5" customHeight="1">
       <c r="B30" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2754,7 +2967,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -2774,7 +2987,7 @@
     </row>
     <row r="31" spans="2:34" ht="37.5" customHeight="1">
       <c r="B31" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2794,7 +3007,7 @@
     </row>
     <row r="33" spans="2:34" ht="37.5" customHeight="1">
       <c r="B33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:34" ht="37.5" customHeight="1">
@@ -2844,7 +3057,7 @@
     </row>
     <row r="35" spans="2:34" ht="37.5" customHeight="1">
       <c r="B35" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2872,7 +3085,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
@@ -2884,7 +3097,7 @@
     </row>
     <row r="36" spans="2:34" ht="37.5" customHeight="1">
       <c r="B36" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2894,7 +3107,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -2912,7 +3125,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
@@ -2924,7 +3137,7 @@
     </row>
     <row r="37" spans="2:34" ht="37.5" customHeight="1">
       <c r="B37" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2978,7 +3191,7 @@
     </row>
     <row r="39" spans="2:34" ht="37.5" customHeight="1">
       <c r="B39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="2:34" ht="37.5" customHeight="1">
@@ -3028,7 +3241,7 @@
     </row>
     <row r="41" spans="2:34" ht="37.5" customHeight="1">
       <c r="B41" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -3038,7 +3251,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -3056,7 +3269,7 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="15"/>
       <c r="Z41" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
@@ -3068,7 +3281,7 @@
     </row>
     <row r="42" spans="2:34" ht="37.5" customHeight="1">
       <c r="B42" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -3078,7 +3291,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -3096,7 +3309,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="11"/>
       <c r="Z42" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
@@ -3108,7 +3321,7 @@
     </row>
     <row r="43" spans="2:34" ht="37.5" customHeight="1">
       <c r="B43" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="7"/>
@@ -3118,7 +3331,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="15"/>
       <c r="J43" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -3146,7 +3359,7 @@
     </row>
     <row r="45" spans="2:34" ht="37.5" customHeight="1">
       <c r="B45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="2:34" ht="37.5" customHeight="1">
@@ -3196,7 +3409,7 @@
     </row>
     <row r="47" spans="2:34" ht="37.5" customHeight="1">
       <c r="B47" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -3206,7 +3419,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="15"/>
       <c r="J47" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -3216,7 +3429,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -3236,7 +3449,7 @@
     </row>
     <row r="48" spans="2:34" ht="37.5" customHeight="1">
       <c r="B48" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -3254,7 +3467,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="15"/>
       <c r="R48" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -3274,7 +3487,7 @@
     </row>
     <row r="50" spans="2:34" ht="37.5" customHeight="1">
       <c r="B50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="2:34" ht="37.5" customHeight="1">
@@ -3324,7 +3537,7 @@
     </row>
     <row r="52" spans="2:34" ht="37.5" customHeight="1">
       <c r="B52" s="6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -3334,7 +3547,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="15"/>
       <c r="J52" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -3352,7 +3565,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
@@ -3364,7 +3577,7 @@
     </row>
     <row r="53" spans="2:34" ht="37.5" customHeight="1">
       <c r="B53" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -3392,7 +3605,7 @@
     </row>
     <row r="55" spans="2:34" ht="37.5" customHeight="1">
       <c r="B55" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="2:34" ht="37.5" customHeight="1">
@@ -3442,7 +3655,7 @@
     </row>
     <row r="57" spans="2:34" ht="37.5" customHeight="1">
       <c r="B57" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3452,7 +3665,7 @@
       <c r="H57" s="7"/>
       <c r="I57" s="15"/>
       <c r="J57" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
@@ -3470,7 +3683,7 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="15"/>
       <c r="Z57" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
@@ -3482,7 +3695,7 @@
     </row>
     <row r="58" spans="2:34" ht="37.5" customHeight="1">
       <c r="B58" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -3512,7 +3725,7 @@
     </row>
     <row r="60" spans="2:34" ht="37.5" customHeight="1">
       <c r="B60" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="2:34" ht="37.5" customHeight="1">
@@ -3562,7 +3775,7 @@
     </row>
     <row r="62" spans="2:34" ht="37.5" customHeight="1">
       <c r="B62" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -3572,7 +3785,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="11"/>
       <c r="J62" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -3582,7 +3795,7 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
@@ -3626,6 +3839,408 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="8"/>
     </row>
+    <row r="65" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B65" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="S65" s="25"/>
+      <c r="T65" s="25"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="25"/>
+      <c r="W65" s="25"/>
+      <c r="X65" s="25"/>
+      <c r="Y65" s="25"/>
+      <c r="Z65" s="25"/>
+      <c r="AA65" s="25"/>
+      <c r="AB65" s="25"/>
+      <c r="AC65" s="25"/>
+      <c r="AD65" s="25"/>
+      <c r="AE65" s="25"/>
+      <c r="AF65" s="25"/>
+      <c r="AG65" s="25"/>
+      <c r="AH65" s="25"/>
+    </row>
+    <row r="66" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B66" s="26">
+        <v>0</v>
+      </c>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="27">
+        <v>16</v>
+      </c>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="27">
+        <v>32</v>
+      </c>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="27">
+        <v>48</v>
+      </c>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="27"/>
+      <c r="AD66" s="27"/>
+      <c r="AE66" s="27"/>
+      <c r="AF66" s="27"/>
+      <c r="AG66" s="28"/>
+      <c r="AH66" s="25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B67" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="30"/>
+      <c r="X67" s="27"/>
+      <c r="Y67" s="27"/>
+      <c r="Z67" s="27"/>
+      <c r="AA67" s="27"/>
+      <c r="AB67" s="27"/>
+      <c r="AC67" s="27"/>
+      <c r="AD67" s="27"/>
+      <c r="AE67" s="27"/>
+      <c r="AF67" s="27"/>
+      <c r="AG67" s="28"/>
+      <c r="AH67" s="25"/>
+    </row>
+    <row r="68" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B68" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="S68" s="33"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="33"/>
+      <c r="V68" s="33"/>
+      <c r="W68" s="33"/>
+      <c r="X68" s="34"/>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="34"/>
+      <c r="AB68" s="34"/>
+      <c r="AC68" s="34"/>
+      <c r="AD68" s="34"/>
+      <c r="AE68" s="34"/>
+      <c r="AF68" s="34"/>
+      <c r="AG68" s="35"/>
+      <c r="AH68" s="25"/>
+    </row>
+    <row r="69" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B69" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="33"/>
+      <c r="AA69" s="33"/>
+      <c r="AB69" s="33"/>
+      <c r="AC69" s="33"/>
+      <c r="AD69" s="33"/>
+      <c r="AE69" s="33"/>
+      <c r="AF69" s="33"/>
+      <c r="AG69" s="33"/>
+      <c r="AH69" s="25"/>
+    </row>
+    <row r="70" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="25"/>
+      <c r="W70" s="25"/>
+      <c r="X70" s="25"/>
+      <c r="Y70" s="25"/>
+      <c r="Z70" s="25"/>
+      <c r="AA70" s="25"/>
+      <c r="AB70" s="25"/>
+      <c r="AC70" s="25"/>
+      <c r="AD70" s="25"/>
+      <c r="AE70" s="25"/>
+      <c r="AF70" s="25"/>
+      <c r="AG70" s="25"/>
+      <c r="AH70" s="25"/>
+    </row>
+    <row r="71" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="3">
+        <v>16</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="3">
+        <v>32</v>
+      </c>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="3">
+        <v>48</v>
+      </c>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="2"/>
+      <c r="AH72">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B73" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7"/>
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="7"/>
+      <c r="AG73" s="15"/>
+    </row>
+    <row r="74" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B74" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="7"/>
+      <c r="AE74" s="7"/>
+      <c r="AF74" s="7"/>
+      <c r="AG74" s="15"/>
+    </row>
+    <row r="75" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B75" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
+      <c r="AB75" s="9"/>
+      <c r="AC75" s="9"/>
+      <c r="AD75" s="9"/>
+      <c r="AE75" s="9"/>
+      <c r="AF75" s="9"/>
+      <c r="AG75" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3635,10 +4250,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
-  <dimension ref="A2:DB34"/>
+  <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -4353,7 +4968,7 @@
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
       <c r="BV11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:106" ht="37.5" customHeight="1">
@@ -4485,7 +5100,7 @@
       <c r="CB13" s="7"/>
       <c r="CC13" s="7"/>
       <c r="CD13" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="CE13" s="7"/>
       <c r="CF13" s="7"/>
@@ -4495,7 +5110,7 @@
       <c r="CJ13" s="7"/>
       <c r="CK13" s="15"/>
       <c r="CL13" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="CM13" s="7"/>
       <c r="CN13" s="7"/>
@@ -4553,7 +5168,7 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
       <c r="BV14" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="BW14" s="7"/>
       <c r="BX14" s="7"/>
@@ -4571,7 +5186,7 @@
       <c r="CJ14" s="7"/>
       <c r="CK14" s="15"/>
       <c r="CL14" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="CM14" s="7"/>
       <c r="CN14" s="7"/>
@@ -4677,7 +5292,7 @@
       </c>
       <c r="AI16" s="8"/>
       <c r="BV16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:105" ht="37.5" customHeight="1">
@@ -4808,7 +5423,7 @@
       <c r="CB18" s="7"/>
       <c r="CC18" s="7"/>
       <c r="CD18" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="CE18" s="7"/>
       <c r="CF18" s="7"/>
@@ -4818,7 +5433,7 @@
       <c r="CJ18" s="7"/>
       <c r="CK18" s="15"/>
       <c r="CL18" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="CM18" s="7"/>
       <c r="CN18" s="7"/>
@@ -4874,7 +5489,7 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="15"/>
       <c r="BV19" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="BW19" s="7"/>
       <c r="BX19" s="7"/>
@@ -4892,7 +5507,7 @@
       <c r="CJ19" s="7"/>
       <c r="CK19" s="15"/>
       <c r="CL19" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="CM19" s="7"/>
       <c r="CN19" s="7"/>
@@ -4946,7 +5561,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="BV20" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="BW20" s="7"/>
       <c r="BX20" s="7"/>
@@ -4964,7 +5579,7 @@
       <c r="CJ20" s="7"/>
       <c r="CK20" s="15"/>
       <c r="CL20" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="CM20" s="7"/>
       <c r="CN20" s="7"/>
@@ -4984,7 +5599,7 @@
     </row>
     <row r="21" spans="2:105" ht="37.5" customHeight="1">
       <c r="B21" s="6" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5002,7 +5617,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="6" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -5022,7 +5637,7 @@
     </row>
     <row r="22" spans="2:105" ht="37.5" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5040,7 +5655,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="6" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -5058,42 +5673,46 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="15"/>
       <c r="BV22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
+      <c r="B23" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="15"/>
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
       <c r="BV23" s="3">
@@ -5138,41 +5757,42 @@
       <c r="DA23" s="4"/>
     </row>
     <row r="24" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
+      <c r="B24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="15"/>
       <c r="AI24" s="8"/>
       <c r="BV24" s="6" t="s">
         <v>14</v>
@@ -5185,7 +5805,7 @@
       <c r="CB24" s="7"/>
       <c r="CC24" s="7"/>
       <c r="CD24" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="CE24" s="7"/>
       <c r="CF24" s="7"/>
@@ -5214,48 +5834,8 @@
       <c r="DA24" s="11"/>
     </row>
     <row r="25" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B25" s="5">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5">
-        <v>16</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="5">
-        <v>32</v>
-      </c>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="5">
-        <v>48</v>
-      </c>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25">
-        <v>64</v>
+      <c r="B25" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="AI25" s="8"/>
       <c r="BV25" s="6" t="s">
@@ -5295,7 +5875,7 @@
     </row>
     <row r="26" spans="2:105" ht="37.5" customHeight="1">
       <c r="B26" s="6" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -5303,10 +5883,8 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="6" t="s">
-        <v>111</v>
-      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -5315,7 +5893,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="6" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -5336,7 +5914,7 @@
     </row>
     <row r="27" spans="2:105" ht="37.5" customHeight="1">
       <c r="B27" s="6" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -5354,7 +5932,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="6" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -5371,12 +5949,11 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="15"/>
-      <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
     </row>
     <row r="28" spans="2:105" ht="37.5" customHeight="1">
       <c r="B28" s="6" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -5394,7 +5971,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="6" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -5411,145 +5988,357 @@
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="15"/>
-      <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
     </row>
     <row r="29" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="15"/>
+      <c r="AI29" s="8"/>
+    </row>
+    <row r="30" spans="2:105" ht="37.5" customHeight="1">
+      <c r="AI30" s="8"/>
+    </row>
+    <row r="35" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+    </row>
+    <row r="36" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5">
+        <v>16</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="5">
+        <v>32</v>
+      </c>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="5">
+        <v>48</v>
+      </c>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="15"/>
+    </row>
+    <row r="38" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="8"/>
+    </row>
+    <row r="39" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="8"/>
+    </row>
+    <row r="40" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B40" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="8"/>
-    </row>
-    <row r="30" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B30" s="6" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+    </row>
+    <row r="41" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B41" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+    </row>
+    <row r="43" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B43" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="15"/>
+      <c r="S43" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="6" t="s">
+    </row>
+    <row r="45" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B45" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-      <c r="AG30" s="8"/>
-      <c r="AH30" s="8"/>
-      <c r="AI30" s="8"/>
-    </row>
-    <row r="32" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B32" s="6" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="6" t="s">
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="15"/>
-      <c r="S32" t="s">
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="15"/>
+      <c r="AA45" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" ht="37.5" customHeight="1">
-      <c r="B34" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="15"/>
-      <c r="AA34" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E721ECDF-BB4E-764F-A638-9C0E56CCD60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B8729F-8C9D-9F4F-8C8C-B300BFC21280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15580" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="137">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -431,13 +431,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーインベントリ更新イベント</t>
-    <rPh sb="11" eb="13">
-      <t>コウシn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>short イベントID  1</t>
     <rPh sb="13" eb="14">
       <t>ザヒョウ</t>
@@ -460,24 +453,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロックインベントリ-プレイヤーインベントリアイテム移動プロトコル</t>
-    <rPh sb="26" eb="28">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>short パケットID 5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>short 0ならプレイヤーインベントリからブロックインベントリにアイテム移動 1ならその逆</t>
-    <rPh sb="37" eb="39">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ギャク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -527,35 +503,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーインベントリ内アイテム移動プロトコル</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">プレイヤーインベントリナイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>short パケットID 6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int プレイヤーインベントリスロット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int 移動元プレイヤーインベントリスロット</t>
-    <rPh sb="4" eb="7">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int 移動先プレイヤーインベントリスロット</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">サキ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -779,17 +727,6 @@
     <t>int プレイヤーID</t>
   </si>
   <si>
-    <t>int プレイヤーインベントリスロット</t>
-  </si>
-  <si>
-    <t>クラフトインベントリ-プレイヤーインベントリアイテム移動プロトコル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>short 0ならプレイヤーインベントリからクラフトインベントリにアイテム移動 1ならその逆</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int クラフトインベントリスロット</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -924,6 +861,63 @@
     </rPh>
     <rPh sb="19" eb="22">
       <t>フカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトインベントリ-メインインベントリアイテム移動プロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short 0ならメインインベントリからクラフトインベントリにアイテム移動 1ならその逆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインインベントリ内アイテム移動プロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックインベントリ-メインインベントリアイテム移動プロトコル</t>
+    <rPh sb="24" eb="26">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short 0ならメインインベントリからブロックインベントリにアイテム移動 1ならその逆</t>
+    <rPh sb="35" eb="37">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ギャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int メインインベントリスロット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 移動元メインインベントリスロット</t>
+    <rPh sb="4" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 移動先メインインベントリスロット</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">サキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインインベントリ更新イベント</t>
+    <rPh sb="9" eb="11">
+      <t>コウシn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1623,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1787,7 +1781,7 @@
       </c>
       <c r="B8" s="13" t="str">
         <f>'from client'!$B$26</f>
-        <v>ブロックインベントリ-プレイヤーインベントリアイテム移動プロトコル</v>
+        <v>ブロックインベントリ-メインインベントリアイテム移動プロトコル</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1796,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1805,7 +1799,7 @@
       </c>
       <c r="B9" s="13" t="str">
         <f>'from client'!$B$33</f>
-        <v>プレイヤーインベントリ内アイテム移動プロトコル</v>
+        <v>メインインベントリ内アイテム移動プロトコル</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1885,7 +1879,7 @@
       </c>
       <c r="B15" s="13" t="str">
         <f>'from client'!$B$65</f>
-        <v>クラフトインベントリ-プレイヤーインベントリアイテム移動プロトコル</v>
+        <v>クラフトインベントリ-メインインベントリアイテム移動プロトコル</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1897,7 +1891,7 @@
       </c>
       <c r="B16" s="13" t="str">
         <f>'from client'!$B$71</f>
-        <v>プレイヤーインベントリ内アイテム移動プロトコル</v>
+        <v>メインインベントリ内アイテム移動プロトコル</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -2003,7 +1997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH75"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2666,7 +2660,7 @@
     </row>
     <row r="22" spans="2:34" ht="37.5" customHeight="1">
       <c r="B22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:34" ht="37.5" customHeight="1">
@@ -2788,7 +2782,7 @@
     </row>
     <row r="26" spans="2:34" ht="37.5" customHeight="1">
       <c r="B26" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2806,7 +2800,7 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
@@ -2871,7 +2865,7 @@
     </row>
     <row r="28" spans="2:34" ht="37.5" customHeight="1">
       <c r="B28" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2881,7 +2875,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="6" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2911,7 +2905,7 @@
     </row>
     <row r="29" spans="2:34" ht="37.5" customHeight="1">
       <c r="B29" s="6" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2929,7 +2923,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -2949,7 +2943,7 @@
     </row>
     <row r="30" spans="2:34" ht="37.5" customHeight="1">
       <c r="B30" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2967,7 +2961,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -2987,7 +2981,7 @@
     </row>
     <row r="31" spans="2:34" ht="37.5" customHeight="1">
       <c r="B31" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3007,7 +3001,7 @@
     </row>
     <row r="33" spans="2:34" ht="37.5" customHeight="1">
       <c r="B33" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="2:34" ht="37.5" customHeight="1">
@@ -3057,7 +3051,7 @@
     </row>
     <row r="35" spans="2:34" ht="37.5" customHeight="1">
       <c r="B35" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -3085,7 +3079,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="6" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
@@ -3097,7 +3091,7 @@
     </row>
     <row r="36" spans="2:34" ht="37.5" customHeight="1">
       <c r="B36" s="6" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -3107,7 +3101,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="10" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -3125,7 +3119,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
@@ -3137,7 +3131,7 @@
     </row>
     <row r="37" spans="2:34" ht="37.5" customHeight="1">
       <c r="B37" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -3191,7 +3185,7 @@
     </row>
     <row r="39" spans="2:34" ht="37.5" customHeight="1">
       <c r="B39" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="2:34" ht="37.5" customHeight="1">
@@ -3241,7 +3235,7 @@
     </row>
     <row r="41" spans="2:34" ht="37.5" customHeight="1">
       <c r="B41" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -3251,7 +3245,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -3269,7 +3263,7 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="15"/>
       <c r="Z41" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
@@ -3281,7 +3275,7 @@
     </row>
     <row r="42" spans="2:34" ht="37.5" customHeight="1">
       <c r="B42" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -3291,7 +3285,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -3309,7 +3303,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="11"/>
       <c r="Z42" s="10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
@@ -3321,7 +3315,7 @@
     </row>
     <row r="43" spans="2:34" ht="37.5" customHeight="1">
       <c r="B43" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="7"/>
@@ -3331,7 +3325,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="15"/>
       <c r="J43" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -3359,7 +3353,7 @@
     </row>
     <row r="45" spans="2:34" ht="37.5" customHeight="1">
       <c r="B45" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="2:34" ht="37.5" customHeight="1">
@@ -3409,7 +3403,7 @@
     </row>
     <row r="47" spans="2:34" ht="37.5" customHeight="1">
       <c r="B47" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -3419,7 +3413,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="15"/>
       <c r="J47" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -3429,7 +3423,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -3449,7 +3443,7 @@
     </row>
     <row r="48" spans="2:34" ht="37.5" customHeight="1">
       <c r="B48" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -3467,7 +3461,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="15"/>
       <c r="R48" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -3487,7 +3481,7 @@
     </row>
     <row r="50" spans="2:34" ht="37.5" customHeight="1">
       <c r="B50" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="2:34" ht="37.5" customHeight="1">
@@ -3537,7 +3531,7 @@
     </row>
     <row r="52" spans="2:34" ht="37.5" customHeight="1">
       <c r="B52" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -3547,7 +3541,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="15"/>
       <c r="J52" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -3565,7 +3559,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
@@ -3577,7 +3571,7 @@
     </row>
     <row r="53" spans="2:34" ht="37.5" customHeight="1">
       <c r="B53" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -3605,7 +3599,7 @@
     </row>
     <row r="55" spans="2:34" ht="37.5" customHeight="1">
       <c r="B55" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="2:34" ht="37.5" customHeight="1">
@@ -3655,7 +3649,7 @@
     </row>
     <row r="57" spans="2:34" ht="37.5" customHeight="1">
       <c r="B57" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3665,7 +3659,7 @@
       <c r="H57" s="7"/>
       <c r="I57" s="15"/>
       <c r="J57" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
@@ -3683,7 +3677,7 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="15"/>
       <c r="Z57" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
@@ -3695,7 +3689,7 @@
     </row>
     <row r="58" spans="2:34" ht="37.5" customHeight="1">
       <c r="B58" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -3725,7 +3719,7 @@
     </row>
     <row r="60" spans="2:34" ht="37.5" customHeight="1">
       <c r="B60" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="2:34" ht="37.5" customHeight="1">
@@ -3775,7 +3769,7 @@
     </row>
     <row r="62" spans="2:34" ht="37.5" customHeight="1">
       <c r="B62" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -3785,7 +3779,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="11"/>
       <c r="J62" s="10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -3795,7 +3789,7 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
@@ -3841,7 +3835,7 @@
     </row>
     <row r="65" spans="2:34" ht="37.5" customHeight="1">
       <c r="B65" s="25" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -3859,7 +3853,7 @@
       <c r="P65" s="25"/>
       <c r="Q65" s="25"/>
       <c r="R65" s="25" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S65" s="25"/>
       <c r="T65" s="25"/>
@@ -3925,7 +3919,7 @@
     </row>
     <row r="67" spans="2:34" ht="37.5" customHeight="1">
       <c r="B67" s="29" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
@@ -3935,7 +3929,7 @@
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
       <c r="J67" s="29" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K67" s="30"/>
       <c r="L67" s="30"/>
@@ -3945,7 +3939,7 @@
       <c r="P67" s="30"/>
       <c r="Q67" s="31"/>
       <c r="R67" s="29" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="S67" s="30"/>
       <c r="T67" s="30"/>
@@ -3966,7 +3960,7 @@
     </row>
     <row r="68" spans="2:34" ht="37.5" customHeight="1">
       <c r="B68" s="29" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -3984,7 +3978,7 @@
       <c r="P68" s="27"/>
       <c r="Q68" s="28"/>
       <c r="R68" s="32" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="S68" s="33"/>
       <c r="T68" s="33"/>
@@ -4005,7 +3999,7 @@
     </row>
     <row r="69" spans="2:34" ht="37.5" customHeight="1">
       <c r="B69" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -4077,7 +4071,7 @@
     </row>
     <row r="71" spans="2:34" ht="37.5" customHeight="1">
       <c r="B71" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="2:34" ht="37.5" customHeight="1">
@@ -4127,7 +4121,7 @@
     </row>
     <row r="73" spans="2:34" ht="37.5" customHeight="1">
       <c r="B73" s="6" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -4155,7 +4149,7 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="15"/>
       <c r="Z73" s="6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
@@ -4167,7 +4161,7 @@
     </row>
     <row r="74" spans="2:34" ht="37.5" customHeight="1">
       <c r="B74" s="6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -4177,7 +4171,7 @@
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
@@ -4195,7 +4189,7 @@
       <c r="X74" s="9"/>
       <c r="Y74" s="11"/>
       <c r="Z74" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
@@ -4207,7 +4201,7 @@
     </row>
     <row r="75" spans="2:34" ht="37.5" customHeight="1">
       <c r="B75" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -4252,8 +4246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="AQ4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BV11" sqref="BV11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -4968,7 +4962,7 @@
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
       <c r="BV11" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:106" ht="37.5" customHeight="1">
@@ -5100,7 +5094,7 @@
       <c r="CB13" s="7"/>
       <c r="CC13" s="7"/>
       <c r="CD13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CE13" s="7"/>
       <c r="CF13" s="7"/>
@@ -5110,7 +5104,7 @@
       <c r="CJ13" s="7"/>
       <c r="CK13" s="15"/>
       <c r="CL13" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CM13" s="7"/>
       <c r="CN13" s="7"/>
@@ -5168,7 +5162,7 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
       <c r="BV14" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BW14" s="7"/>
       <c r="BX14" s="7"/>
@@ -5186,7 +5180,7 @@
       <c r="CJ14" s="7"/>
       <c r="CK14" s="15"/>
       <c r="CL14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CM14" s="7"/>
       <c r="CN14" s="7"/>
@@ -5292,7 +5286,7 @@
       </c>
       <c r="AI16" s="8"/>
       <c r="BV16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:105" ht="37.5" customHeight="1">
@@ -5423,7 +5417,7 @@
       <c r="CB18" s="7"/>
       <c r="CC18" s="7"/>
       <c r="CD18" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="CE18" s="7"/>
       <c r="CF18" s="7"/>
@@ -5433,7 +5427,7 @@
       <c r="CJ18" s="7"/>
       <c r="CK18" s="15"/>
       <c r="CL18" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CM18" s="7"/>
       <c r="CN18" s="7"/>
@@ -5489,7 +5483,7 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="15"/>
       <c r="BV19" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BW19" s="7"/>
       <c r="BX19" s="7"/>
@@ -5507,7 +5501,7 @@
       <c r="CJ19" s="7"/>
       <c r="CK19" s="15"/>
       <c r="CL19" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CM19" s="7"/>
       <c r="CN19" s="7"/>
@@ -5561,7 +5555,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="BV20" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="BW20" s="7"/>
       <c r="BX20" s="7"/>
@@ -5579,7 +5573,7 @@
       <c r="CJ20" s="7"/>
       <c r="CK20" s="15"/>
       <c r="CL20" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="CM20" s="7"/>
       <c r="CN20" s="7"/>
@@ -5599,7 +5593,7 @@
     </row>
     <row r="21" spans="2:105" ht="37.5" customHeight="1">
       <c r="B21" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -5617,7 +5611,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -5637,7 +5631,7 @@
     </row>
     <row r="22" spans="2:105" ht="37.5" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -5655,7 +5649,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="6" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -5673,12 +5667,12 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="15"/>
       <c r="BV22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:105" ht="37.5" customHeight="1">
       <c r="B23" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -5696,7 +5690,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -5758,7 +5752,7 @@
     </row>
     <row r="24" spans="2:105" ht="37.5" customHeight="1">
       <c r="B24" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -5776,7 +5770,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -5805,7 +5799,7 @@
       <c r="CB24" s="7"/>
       <c r="CC24" s="7"/>
       <c r="CD24" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="CE24" s="7"/>
       <c r="CF24" s="7"/>
@@ -5875,7 +5869,7 @@
     </row>
     <row r="26" spans="2:105" ht="37.5" customHeight="1">
       <c r="B26" s="6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -5893,7 +5887,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -5914,7 +5908,7 @@
     </row>
     <row r="27" spans="2:105" ht="37.5" customHeight="1">
       <c r="B27" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -5932,7 +5926,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="6" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -5953,7 +5947,7 @@
     </row>
     <row r="28" spans="2:105" ht="37.5" customHeight="1">
       <c r="B28" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -5971,7 +5965,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -5992,7 +5986,7 @@
     </row>
     <row r="29" spans="2:105" ht="37.5" customHeight="1">
       <c r="B29" s="24" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -6007,7 +6001,7 @@
     </row>
     <row r="35" spans="2:34" ht="37.5" customHeight="1">
       <c r="B35" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -6089,7 +6083,7 @@
     </row>
     <row r="37" spans="2:34" ht="37.5" customHeight="1">
       <c r="B37" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -6099,7 +6093,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="15"/>
       <c r="J37" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -6186,7 +6180,7 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
@@ -6244,7 +6238,7 @@
     </row>
     <row r="41" spans="2:34" ht="37.5" customHeight="1">
       <c r="B41" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -6262,7 +6256,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
@@ -6283,7 +6277,7 @@
     </row>
     <row r="43" spans="2:34" ht="37.5" customHeight="1">
       <c r="B43" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -6293,7 +6287,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="15"/>
       <c r="J43" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -6303,12 +6297,12 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="15"/>
       <c r="S43" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="2:34" ht="37.5" customHeight="1">
       <c r="B45" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -6318,7 +6312,7 @@
       <c r="H45" s="7"/>
       <c r="I45" s="15"/>
       <c r="J45" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -6328,7 +6322,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="15"/>
       <c r="R45" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -6338,7 +6332,7 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="15"/>
       <c r="AA45" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B8729F-8C9D-9F4F-8C8C-B300BFC21280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B8B484-8BC2-9846-BF02-125FCB291E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
@@ -1997,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH75"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A62" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -4246,8 +4246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BV11" sqref="BV11"/>
+    <sheetView tabSelected="1" topLeftCell="AG13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BV16" sqref="BV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B8B484-8BC2-9846-BF02-125FCB291E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2AB028-7D54-2442-8461-1ACB7D6E9811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="138">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -919,6 +919,10 @@
     <rPh sb="9" eb="11">
       <t>コウシn</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトインベントリ内アイテム移動プロトコル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1618,7 +1622,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1891,7 +1895,7 @@
       </c>
       <c r="B16" s="13" t="str">
         <f>'from client'!$B$71</f>
-        <v>メインインベントリ内アイテム移動プロトコル</v>
+        <v>クラフトインベントリ内アイテム移動プロトコル</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1997,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH75"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -4071,7 +4075,7 @@
     </row>
     <row r="71" spans="2:34" ht="37.5" customHeight="1">
       <c r="B71" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="2:34" ht="37.5" customHeight="1">
@@ -4246,7 +4250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BV16" sqref="BV16"/>
     </sheetView>
   </sheetViews>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2AB028-7D54-2442-8461-1ACB7D6E9811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6D67AA-EC38-1749-AD1D-B2032EF5725F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="140">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -923,6 +923,14 @@
   </si>
   <si>
     <t>クラフトインベントリ内アイテム移動プロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフト実行プロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 14</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1622,7 +1630,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1901,9 +1909,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>14</v>
+      </c>
+      <c r="B17" s="13" t="str">
+        <f>'from client'!$B$77</f>
+        <v>クラフト実行プロトコル</v>
       </c>
     </row>
   </sheetData>
@@ -1931,6 +1943,7 @@
     <hyperlink ref="B15" location="'from client'!B65" display="'from client'!B65" xr:uid="{A3CF76F8-F667-834D-B827-BF1D448A7F3A}"/>
     <hyperlink ref="B16" location="'from client'!B71" display="'from client'!B71" xr:uid="{9234CCF1-4647-9848-98F3-24F80A3BF3AA}"/>
     <hyperlink ref="F9" location="'from server'!B35" display="'from server'!B35" xr:uid="{410E8C63-57E0-844E-B331-44511CC58F59}"/>
+    <hyperlink ref="B17" location="'from client'!B77" display="'from client'!B77" xr:uid="{FF7597BB-5D2C-4342-9E7D-8C8A10685B07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1999,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH75"/>
+  <dimension ref="A2:AH79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -4238,6 +4251,94 @@
       <c r="AE75" s="9"/>
       <c r="AF75" s="9"/>
       <c r="AG75" s="9"/>
+    </row>
+    <row r="77" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="3">
+        <v>16</v>
+      </c>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="3">
+        <v>32</v>
+      </c>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="5">
+        <v>48</v>
+      </c>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="8"/>
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="8"/>
+      <c r="AG78" s="4"/>
+      <c r="AH78">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B79" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="10"/>
+      <c r="AA79" s="9"/>
+      <c r="AB79" s="9"/>
+      <c r="AC79" s="9"/>
+      <c r="AD79" s="9"/>
+      <c r="AE79" s="9"/>
+      <c r="AF79" s="9"/>
+      <c r="AG79" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6D67AA-EC38-1749-AD1D-B2032EF5725F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7F616D-6186-0346-9FB5-2C91ABDB5A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="143">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -931,6 +931,24 @@
   </si>
   <si>
     <t>short パケットID 14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトインベントリ更新イベント</t>
+    <rPh sb="10" eb="12">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short イベントID  4</t>
+    <rPh sb="13" eb="14">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int インベントリスロット</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2014,7 +2032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
@@ -4351,8 +4369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BV16" sqref="BV16"/>
+    <sheetView tabSelected="1" topLeftCell="AN18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BV31" sqref="BV31:DA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -6049,6 +6067,9 @@
       <c r="AF27" s="7"/>
       <c r="AG27" s="15"/>
       <c r="AI27" s="8"/>
+      <c r="BV27" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="28" spans="2:105" ht="37.5" customHeight="1">
       <c r="B28" s="6" t="s">
@@ -6088,6 +6109,46 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="15"/>
       <c r="AI28" s="8"/>
+      <c r="BV28" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW28" s="1"/>
+      <c r="BX28" s="1"/>
+      <c r="BY28" s="1"/>
+      <c r="BZ28" s="1"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
+      <c r="CC28" s="2"/>
+      <c r="CD28" s="3">
+        <v>16</v>
+      </c>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="1"/>
+      <c r="CH28" s="1"/>
+      <c r="CI28" s="1"/>
+      <c r="CJ28" s="1"/>
+      <c r="CK28" s="2"/>
+      <c r="CL28" s="5">
+        <v>32</v>
+      </c>
+      <c r="CM28" s="8"/>
+      <c r="CN28" s="8"/>
+      <c r="CO28" s="8"/>
+      <c r="CP28" s="8"/>
+      <c r="CQ28" s="8"/>
+      <c r="CR28" s="8"/>
+      <c r="CS28" s="4"/>
+      <c r="CT28" s="5">
+        <v>48</v>
+      </c>
+      <c r="CU28" s="8"/>
+      <c r="CV28" s="8"/>
+      <c r="CW28" s="8"/>
+      <c r="CX28" s="8"/>
+      <c r="CY28" s="8"/>
+      <c r="CZ28" s="8"/>
+      <c r="DA28" s="4"/>
     </row>
     <row r="29" spans="2:105" ht="37.5" customHeight="1">
       <c r="B29" s="24" t="s">
@@ -6100,9 +6161,132 @@
       <c r="G29" s="7"/>
       <c r="H29" s="15"/>
       <c r="AI29" s="8"/>
+      <c r="BV29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW29" s="7"/>
+      <c r="BX29" s="7"/>
+      <c r="BY29" s="7"/>
+      <c r="BZ29" s="7"/>
+      <c r="CA29" s="7"/>
+      <c r="CB29" s="7"/>
+      <c r="CC29" s="7"/>
+      <c r="CD29" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="CE29" s="7"/>
+      <c r="CF29" s="7"/>
+      <c r="CG29" s="7"/>
+      <c r="CH29" s="7"/>
+      <c r="CI29" s="7"/>
+      <c r="CJ29" s="7"/>
+      <c r="CK29" s="15"/>
+      <c r="CL29" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="CM29" s="7"/>
+      <c r="CN29" s="7"/>
+      <c r="CO29" s="7"/>
+      <c r="CP29" s="7"/>
+      <c r="CQ29" s="7"/>
+      <c r="CR29" s="7"/>
+      <c r="CS29" s="7"/>
+      <c r="CT29" s="7"/>
+      <c r="CU29" s="7"/>
+      <c r="CV29" s="7"/>
+      <c r="CW29" s="7"/>
+      <c r="CX29" s="7"/>
+      <c r="CY29" s="7"/>
+      <c r="CZ29" s="7"/>
+      <c r="DA29" s="15"/>
     </row>
     <row r="30" spans="2:105" ht="37.5" customHeight="1">
       <c r="AI30" s="8"/>
+      <c r="BV30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BW30" s="7"/>
+      <c r="BX30" s="7"/>
+      <c r="BY30" s="7"/>
+      <c r="BZ30" s="7"/>
+      <c r="CA30" s="7"/>
+      <c r="CB30" s="7"/>
+      <c r="CC30" s="7"/>
+      <c r="CD30" s="7"/>
+      <c r="CE30" s="7"/>
+      <c r="CF30" s="7"/>
+      <c r="CG30" s="7"/>
+      <c r="CH30" s="7"/>
+      <c r="CI30" s="7"/>
+      <c r="CJ30" s="7"/>
+      <c r="CK30" s="15"/>
+      <c r="CL30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CM30" s="7"/>
+      <c r="CN30" s="7"/>
+      <c r="CO30" s="7"/>
+      <c r="CP30" s="7"/>
+      <c r="CQ30" s="7"/>
+      <c r="CR30" s="7"/>
+      <c r="CS30" s="7"/>
+      <c r="CT30" s="7"/>
+      <c r="CU30" s="7"/>
+      <c r="CV30" s="7"/>
+      <c r="CW30" s="7"/>
+      <c r="CX30" s="7"/>
+      <c r="CY30" s="7"/>
+      <c r="CZ30" s="7"/>
+      <c r="DA30" s="15"/>
+    </row>
+    <row r="31" spans="2:105" ht="37.5" customHeight="1">
+      <c r="BV31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW31" s="7"/>
+      <c r="BX31" s="7"/>
+      <c r="BY31" s="7"/>
+      <c r="BZ31" s="7"/>
+      <c r="CA31" s="7"/>
+      <c r="CB31" s="7"/>
+      <c r="CC31" s="7"/>
+      <c r="CD31" s="7"/>
+      <c r="CE31" s="7"/>
+      <c r="CF31" s="7"/>
+      <c r="CG31" s="7"/>
+      <c r="CH31" s="7"/>
+      <c r="CI31" s="7"/>
+      <c r="CJ31" s="7"/>
+      <c r="CK31" s="15"/>
+      <c r="CL31" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="CM31" s="7"/>
+      <c r="CN31" s="7"/>
+      <c r="CO31" s="7"/>
+      <c r="CP31" s="7"/>
+      <c r="CQ31" s="7"/>
+      <c r="CR31" s="7"/>
+      <c r="CS31" s="7"/>
+      <c r="CT31" s="7"/>
+      <c r="CU31" s="7"/>
+      <c r="CV31" s="7"/>
+      <c r="CW31" s="7"/>
+      <c r="CX31" s="7"/>
+      <c r="CY31" s="7"/>
+      <c r="CZ31" s="7"/>
+      <c r="DA31" s="15"/>
+    </row>
+    <row r="32" spans="2:105" ht="37.5" customHeight="1">
+      <c r="BV32" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW32" s="7"/>
+      <c r="BX32" s="7"/>
+      <c r="BY32" s="7"/>
+      <c r="BZ32" s="7"/>
+      <c r="CA32" s="7"/>
+      <c r="CB32" s="15"/>
     </row>
     <row r="35" spans="2:34" ht="37.5" customHeight="1">
       <c r="B35" t="s">

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7F616D-6186-0346-9FB5-2C91ABDB5A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793A9238-F5E2-2141-9782-A7F34D76B459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
@@ -4370,7 +4370,7 @@
   <dimension ref="A2:DB45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AN18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BV31" sqref="BV31:DA32"/>
+      <selection activeCell="BV27" sqref="BV27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frtgh\Documents\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793A9238-F5E2-2141-9782-A7F34D76B459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1374BEDF-62BF-4871-B91F-A27E2805128F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="7350" yWindow="1245" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="145">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -949,6 +949,20 @@
   </si>
   <si>
     <t>int インベントリスロット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採掘実行プロトコル</t>
+    <rPh sb="0" eb="2">
+      <t>サイクツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 15</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -956,7 +970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1645,25 +1659,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1677,7 +1691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1697,7 +1711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1720,7 +1734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1742,7 +1756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1765,7 +1779,7 @@
         <v>プレイヤー座標プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1785,7 +1799,7 @@
         <v>イベント返答プロトコル</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1805,7 +1819,7 @@
         <v>プレイヤーインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1823,7 +1837,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1842,7 +1856,7 @@
         <v>ブロックインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1854,7 +1868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1866,7 +1880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1879,7 +1893,7 @@
         <v>ブロックインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1891,7 +1905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1903,7 +1917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1915,7 +1929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1927,13 +1941,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" s="13" t="str">
         <f>'from client'!$B$77</f>
         <v>クラフト実行プロトコル</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="13" t="str">
+        <f>'from client'!$B$81</f>
+        <v>採掘実行プロトコル</v>
       </c>
     </row>
   </sheetData>
@@ -1962,6 +1985,7 @@
     <hyperlink ref="B16" location="'from client'!B71" display="'from client'!B71" xr:uid="{9234CCF1-4647-9848-98F3-24F80A3BF3AA}"/>
     <hyperlink ref="F9" location="'from server'!B35" display="'from server'!B35" xr:uid="{410E8C63-57E0-844E-B331-44511CC58F59}"/>
     <hyperlink ref="B17" location="'from client'!B77" display="'from client'!B77" xr:uid="{FF7597BB-5D2C-4342-9E7D-8C8A10685B07}"/>
+    <hyperlink ref="B18" location="'from client'!B81" display="'from client'!B81" xr:uid="{3588C674-A0D8-4A55-B492-1972286E9506}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1976,13 +2000,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1990,7 +2014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1998,7 +2022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2006,7 +2030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2014,7 +2038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -2030,27 +2054,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH79"/>
+  <dimension ref="A2:AH84"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" customWidth="1"/>
-    <col min="18" max="18" width="2.83203125" customWidth="1"/>
-    <col min="26" max="26" width="2.83203125" customWidth="1"/>
-    <col min="34" max="34" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="2.875" customWidth="1"/>
+    <col min="10" max="10" width="2.875" customWidth="1"/>
+    <col min="18" max="18" width="2.875" customWidth="1"/>
+    <col min="26" max="26" width="2.875" customWidth="1"/>
+    <col min="34" max="34" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -2096,7 +2120,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -2137,7 +2161,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -2176,7 +2200,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -2215,7 +2239,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2250,7 +2274,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2285,7 +2309,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2320,7 +2344,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2354,12 +2378,12 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -2392,7 +2416,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -2432,7 +2456,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -2470,7 +2494,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2505,7 +2529,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
         <v>50</v>
       </c>
@@ -2542,7 +2566,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -2587,7 +2611,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2625,7 +2649,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2659,7 +2683,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2693,12 +2717,12 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1">
+    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2743,7 +2767,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
@@ -2781,7 +2805,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2815,7 +2839,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="37.5" customHeight="1">
+    <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>131</v>
       </c>
@@ -2853,7 +2877,7 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
     </row>
-    <row r="27" spans="2:34" ht="37.5" customHeight="1">
+    <row r="27" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2898,7 +2922,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="37.5" customHeight="1">
+    <row r="28" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
         <v>62</v>
       </c>
@@ -2938,7 +2962,7 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="15"/>
     </row>
-    <row r="29" spans="2:34" ht="37.5" customHeight="1">
+    <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
         <v>133</v>
       </c>
@@ -2976,7 +3000,7 @@
       <c r="AF29" s="7"/>
       <c r="AG29" s="15"/>
     </row>
-    <row r="30" spans="2:34" ht="37.5" customHeight="1">
+    <row r="30" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
         <v>64</v>
       </c>
@@ -3014,7 +3038,7 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="15"/>
     </row>
-    <row r="31" spans="2:34" ht="37.5" customHeight="1">
+    <row r="31" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="6" t="s">
         <v>65</v>
       </c>
@@ -3034,12 +3058,12 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="33" spans="2:34" ht="37.5" customHeight="1">
+    <row r="33" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="2:34" ht="37.5" customHeight="1">
+    <row r="34" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -3084,7 +3108,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="37.5" customHeight="1">
+    <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
         <v>70</v>
       </c>
@@ -3124,7 +3148,7 @@
       <c r="AF35" s="7"/>
       <c r="AG35" s="15"/>
     </row>
-    <row r="36" spans="2:34" ht="37.5" customHeight="1">
+    <row r="36" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
         <v>134</v>
       </c>
@@ -3164,7 +3188,7 @@
       <c r="AF36" s="7"/>
       <c r="AG36" s="15"/>
     </row>
-    <row r="37" spans="2:34" ht="37.5" customHeight="1">
+    <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>65</v>
       </c>
@@ -3200,7 +3224,7 @@
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
     </row>
-    <row r="38" spans="2:34" ht="37.5" customHeight="1">
+    <row r="38" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -3218,12 +3242,12 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="2:34" ht="37.5" customHeight="1">
+    <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="2:34" ht="37.5" customHeight="1">
+    <row r="40" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -3268,7 +3292,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:34" ht="37.5" customHeight="1">
+    <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
         <v>71</v>
       </c>
@@ -3308,7 +3332,7 @@
       <c r="AF41" s="7"/>
       <c r="AG41" s="15"/>
     </row>
-    <row r="42" spans="2:34" ht="37.5" customHeight="1">
+    <row r="42" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="6" t="s">
         <v>64</v>
       </c>
@@ -3348,7 +3372,7 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="15"/>
     </row>
-    <row r="43" spans="2:34" ht="37.5" customHeight="1">
+    <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6" t="s">
         <v>73</v>
       </c>
@@ -3386,12 +3410,12 @@
       <c r="AF43" s="9"/>
       <c r="AG43" s="9"/>
     </row>
-    <row r="45" spans="2:34" ht="37.5" customHeight="1">
+    <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="2:34" ht="37.5" customHeight="1">
+    <row r="46" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="3">
         <v>0</v>
       </c>
@@ -3436,7 +3460,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:34" ht="37.5" customHeight="1">
+    <row r="47" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="6" t="s">
         <v>78</v>
       </c>
@@ -3476,7 +3500,7 @@
       <c r="AF47" s="7"/>
       <c r="AG47" s="15"/>
     </row>
-    <row r="48" spans="2:34" ht="37.5" customHeight="1">
+    <row r="48" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="6" t="s">
         <v>64</v>
       </c>
@@ -3514,12 +3538,12 @@
       <c r="AF48" s="7"/>
       <c r="AG48" s="15"/>
     </row>
-    <row r="50" spans="2:34" ht="37.5" customHeight="1">
+    <row r="50" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="2:34" ht="37.5" customHeight="1">
+    <row r="51" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="5">
         <v>0</v>
       </c>
@@ -3564,7 +3588,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:34" ht="37.5" customHeight="1">
+    <row r="52" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
         <v>107</v>
       </c>
@@ -3604,7 +3628,7 @@
       <c r="AF52" s="7"/>
       <c r="AG52" s="15"/>
     </row>
-    <row r="53" spans="2:34" ht="37.5" customHeight="1">
+    <row r="53" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
         <v>89</v>
       </c>
@@ -3632,12 +3656,12 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="55" spans="2:34" ht="37.5" customHeight="1">
+    <row r="55" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="2:34" ht="37.5" customHeight="1">
+    <row r="56" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="5">
         <v>0</v>
       </c>
@@ -3682,7 +3706,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:34" ht="37.5" customHeight="1">
+    <row r="57" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="6" t="s">
         <v>102</v>
       </c>
@@ -3722,7 +3746,7 @@
       <c r="AF57" s="7"/>
       <c r="AG57" s="15"/>
     </row>
-    <row r="58" spans="2:34" ht="37.5" customHeight="1">
+    <row r="58" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="24" t="s">
         <v>64</v>
       </c>
@@ -3752,12 +3776,12 @@
       <c r="X58" s="7"/>
       <c r="Y58" s="15"/>
     </row>
-    <row r="60" spans="2:34" ht="37.5" customHeight="1">
+    <row r="60" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="2:34" ht="37.5" customHeight="1">
+    <row r="61" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="5">
         <v>0</v>
       </c>
@@ -3802,7 +3826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="2:34" ht="37.5" customHeight="1">
+    <row r="62" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="10" t="s">
         <v>104</v>
       </c>
@@ -3842,7 +3866,7 @@
       <c r="AF62" s="7"/>
       <c r="AG62" s="15"/>
     </row>
-    <row r="63" spans="2:34" ht="37.5" customHeight="1">
+    <row r="63" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="24"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -3868,7 +3892,7 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="65" spans="2:34" ht="37.5" customHeight="1">
+    <row r="65" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="25" t="s">
         <v>128</v>
       </c>
@@ -3907,7 +3931,7 @@
       <c r="AG65" s="25"/>
       <c r="AH65" s="25"/>
     </row>
-    <row r="66" spans="2:34" ht="37.5" customHeight="1">
+    <row r="66" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="26">
         <v>0</v>
       </c>
@@ -3952,7 +3976,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:34" ht="37.5" customHeight="1">
+    <row r="67" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="29" t="s">
         <v>87</v>
       </c>
@@ -3993,7 +4017,7 @@
       <c r="AG67" s="28"/>
       <c r="AH67" s="25"/>
     </row>
-    <row r="68" spans="2:34" ht="37.5" customHeight="1">
+    <row r="68" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="29" t="s">
         <v>133</v>
       </c>
@@ -4032,7 +4056,7 @@
       <c r="AG68" s="35"/>
       <c r="AH68" s="25"/>
     </row>
-    <row r="69" spans="2:34" ht="37.5" customHeight="1">
+    <row r="69" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="10" t="s">
         <v>65</v>
       </c>
@@ -4069,7 +4093,7 @@
       <c r="AG69" s="33"/>
       <c r="AH69" s="25"/>
     </row>
-    <row r="70" spans="2:34" ht="37.5" customHeight="1">
+    <row r="70" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
@@ -4104,12 +4128,12 @@
       <c r="AG70" s="25"/>
       <c r="AH70" s="25"/>
     </row>
-    <row r="71" spans="2:34" ht="37.5" customHeight="1">
+    <row r="71" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="2:34" ht="37.5" customHeight="1">
+    <row r="72" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="3">
         <v>0</v>
       </c>
@@ -4154,7 +4178,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="2:34" ht="37.5" customHeight="1">
+    <row r="73" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="6" t="s">
         <v>111</v>
       </c>
@@ -4194,7 +4218,7 @@
       <c r="AF73" s="7"/>
       <c r="AG73" s="15"/>
     </row>
-    <row r="74" spans="2:34" ht="37.5" customHeight="1">
+    <row r="74" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="6" t="s">
         <v>112</v>
       </c>
@@ -4234,7 +4258,7 @@
       <c r="AF74" s="7"/>
       <c r="AG74" s="15"/>
     </row>
-    <row r="75" spans="2:34" ht="37.5" customHeight="1">
+    <row r="75" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="6" t="s">
         <v>65</v>
       </c>
@@ -4270,12 +4294,12 @@
       <c r="AF75" s="9"/>
       <c r="AG75" s="9"/>
     </row>
-    <row r="77" spans="2:34" ht="37.5" customHeight="1">
+    <row r="77" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="2:34" ht="37.5" customHeight="1">
+    <row r="78" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3">
         <v>0</v>
       </c>
@@ -4320,7 +4344,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="2:34" ht="37.5" customHeight="1">
+    <row r="79" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="6" t="s">
         <v>139</v>
       </c>
@@ -4358,6 +4382,126 @@
       <c r="AF79" s="9"/>
       <c r="AG79" s="9"/>
     </row>
+    <row r="81" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B81" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="3">
+        <v>16</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="3">
+        <v>32</v>
+      </c>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="5">
+        <v>48</v>
+      </c>
+      <c r="AA82" s="8"/>
+      <c r="AB82" s="8"/>
+      <c r="AC82" s="8"/>
+      <c r="AD82" s="8"/>
+      <c r="AE82" s="8"/>
+      <c r="AF82" s="8"/>
+      <c r="AG82" s="4"/>
+      <c r="AH82">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="15"/>
+      <c r="Z83" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
+      <c r="AC83" s="7"/>
+      <c r="AD83" s="7"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="7"/>
+      <c r="AG83" s="15"/>
+    </row>
+    <row r="84" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4369,16 +4513,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AN18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BV27" sqref="BV27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:106" ht="37.5" customHeight="1">
+    <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -4389,7 +4533,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="37.5" customHeight="1">
+    <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -4517,7 +4661,7 @@
       <c r="CZ3" s="8"/>
       <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:106" ht="37.5" customHeight="1">
+    <row r="4" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -4634,7 +4778,7 @@
       <c r="DA4" s="9"/>
       <c r="DB4" s="8"/>
     </row>
-    <row r="5" spans="1:106" ht="37.5" customHeight="1">
+    <row r="5" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -4725,7 +4869,7 @@
       <c r="DA5" s="8"/>
       <c r="DB5" s="8"/>
     </row>
-    <row r="6" spans="1:106" ht="37.5" customHeight="1">
+    <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
@@ -4743,7 +4887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:106" ht="37.5" customHeight="1">
+    <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
@@ -4809,7 +4953,7 @@
       <c r="CZ7" s="8"/>
       <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8">
         <v>0</v>
       </c>
@@ -4889,7 +5033,7 @@
       <c r="CZ8" s="7"/>
       <c r="DA8" s="15"/>
     </row>
-    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -4973,7 +5117,7 @@
       <c r="CZ9" s="7"/>
       <c r="DA9" s="15"/>
     </row>
-    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -5037,7 +5181,7 @@
       <c r="CJ10" s="9"/>
       <c r="CK10" s="9"/>
     </row>
-    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -5088,7 +5232,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:106" ht="37.5" customHeight="1">
+    <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8"/>
@@ -5168,7 +5312,7 @@
       <c r="CZ12" s="8"/>
       <c r="DA12" s="4"/>
     </row>
-    <row r="13" spans="1:106" ht="37.5" customHeight="1">
+    <row r="13" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -5245,7 +5389,7 @@
       <c r="CZ13" s="7"/>
       <c r="DA13" s="15"/>
     </row>
-    <row r="14" spans="1:106" ht="37.5" customHeight="1">
+    <row r="14" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -5321,7 +5465,7 @@
       <c r="CZ14" s="7"/>
       <c r="DA14" s="15"/>
     </row>
-    <row r="15" spans="1:106" ht="37.5" customHeight="1">
+    <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>53</v>
@@ -5363,7 +5507,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:106" ht="37.5" customHeight="1">
+    <row r="16" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -5412,7 +5556,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:105" ht="37.5" customHeight="1">
+    <row r="17" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>39</v>
       </c>
@@ -5492,7 +5636,7 @@
       <c r="CZ17" s="8"/>
       <c r="DA17" s="4"/>
     </row>
-    <row r="18" spans="2:105" ht="37.5" customHeight="1">
+    <row r="18" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6" t="s">
         <v>54</v>
       </c>
@@ -5568,7 +5712,7 @@
       <c r="CZ18" s="7"/>
       <c r="DA18" s="15"/>
     </row>
-    <row r="19" spans="2:105" ht="37.5" customHeight="1">
+    <row r="19" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>56</v>
       </c>
@@ -5642,7 +5786,7 @@
       <c r="CZ19" s="7"/>
       <c r="DA19" s="15"/>
     </row>
-    <row r="20" spans="2:105" ht="37.5" customHeight="1">
+    <row r="20" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
@@ -5714,7 +5858,7 @@
       <c r="CZ20" s="7"/>
       <c r="DA20" s="15"/>
     </row>
-    <row r="21" spans="2:105" ht="37.5" customHeight="1">
+    <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>120</v>
       </c>
@@ -5752,7 +5896,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:105" ht="37.5" customHeight="1">
+    <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
         <v>117</v>
       </c>
@@ -5793,7 +5937,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="2:105" ht="37.5" customHeight="1">
+    <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>115</v>
       </c>
@@ -5873,7 +6017,7 @@
       <c r="CZ23" s="8"/>
       <c r="DA23" s="4"/>
     </row>
-    <row r="24" spans="2:105" ht="37.5" customHeight="1">
+    <row r="24" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>113</v>
       </c>
@@ -5950,7 +6094,7 @@
       <c r="CZ24" s="9"/>
       <c r="DA24" s="11"/>
     </row>
-    <row r="25" spans="2:105" ht="37.5" customHeight="1">
+    <row r="25" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="17" t="s">
         <v>12</v>
       </c>
@@ -5990,7 +6134,7 @@
       <c r="CZ25" s="9"/>
       <c r="DA25" s="9"/>
     </row>
-    <row r="26" spans="2:105" ht="37.5" customHeight="1">
+    <row r="26" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
         <v>121</v>
       </c>
@@ -6029,7 +6173,7 @@
       <c r="AG26" s="15"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="2:105" ht="37.5" customHeight="1">
+    <row r="27" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
         <v>122</v>
       </c>
@@ -6071,7 +6215,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="2:105" ht="37.5" customHeight="1">
+    <row r="28" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
         <v>125</v>
       </c>
@@ -6150,7 +6294,7 @@
       <c r="CZ28" s="8"/>
       <c r="DA28" s="4"/>
     </row>
-    <row r="29" spans="2:105" ht="37.5" customHeight="1">
+    <row r="29" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="24" t="s">
         <v>127</v>
       </c>
@@ -6200,7 +6344,7 @@
       <c r="CZ29" s="7"/>
       <c r="DA29" s="15"/>
     </row>
-    <row r="30" spans="2:105" ht="37.5" customHeight="1">
+    <row r="30" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI30" s="8"/>
       <c r="BV30" s="6" t="s">
         <v>60</v>
@@ -6239,7 +6383,7 @@
       <c r="CZ30" s="7"/>
       <c r="DA30" s="15"/>
     </row>
-    <row r="31" spans="2:105" ht="37.5" customHeight="1">
+    <row r="31" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BV31" s="6" t="s">
         <v>125</v>
       </c>
@@ -6277,7 +6421,7 @@
       <c r="CZ31" s="7"/>
       <c r="DA31" s="15"/>
     </row>
-    <row r="32" spans="2:105" ht="37.5" customHeight="1">
+    <row r="32" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BV32" s="24" t="s">
         <v>127</v>
       </c>
@@ -6288,7 +6432,7 @@
       <c r="CA32" s="7"/>
       <c r="CB32" s="15"/>
     </row>
-    <row r="35" spans="2:34" ht="37.5" customHeight="1">
+    <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>86</v>
       </c>
@@ -6325,7 +6469,7 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
     </row>
-    <row r="36" spans="2:34" ht="37.5" customHeight="1">
+    <row r="36" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="5">
         <v>0</v>
       </c>
@@ -6370,7 +6514,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:34" ht="37.5" customHeight="1">
+    <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>70</v>
       </c>
@@ -6410,7 +6554,7 @@
       <c r="AF37" s="7"/>
       <c r="AG37" s="15"/>
     </row>
-    <row r="38" spans="2:34" ht="37.5" customHeight="1">
+    <row r="38" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
         <v>55</v>
       </c>
@@ -6449,7 +6593,7 @@
       <c r="AG38" s="15"/>
       <c r="AH38" s="8"/>
     </row>
-    <row r="39" spans="2:34" ht="37.5" customHeight="1">
+    <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="6" t="s">
         <v>57</v>
       </c>
@@ -6488,7 +6632,7 @@
       <c r="AG39" s="15"/>
       <c r="AH39" s="8"/>
     </row>
-    <row r="40" spans="2:34" ht="37.5" customHeight="1">
+    <row r="40" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="17" t="s">
         <v>12</v>
       </c>
@@ -6525,7 +6669,7 @@
       <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
     </row>
-    <row r="41" spans="2:34" ht="37.5" customHeight="1">
+    <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
         <v>91</v>
       </c>
@@ -6564,7 +6708,7 @@
       <c r="AG41" s="8"/>
       <c r="AH41" s="8"/>
     </row>
-    <row r="43" spans="2:34" ht="37.5" customHeight="1">
+    <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6" t="s">
         <v>93</v>
       </c>
@@ -6589,7 +6733,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="2:34" ht="37.5" customHeight="1">
+    <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="6" t="s">
         <v>96</v>
       </c>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frtgh\Documents\moorestech\Server.Protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1374BEDF-62BF-4871-B91F-A27E2805128F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83FEC2C-757B-4A3F-8CDD-7309A454D72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="1245" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="148">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -963,6 +963,27 @@
   </si>
   <si>
     <t>short パケットID 15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックインベントリ開閉プロトコル</t>
+    <rPh sb="10" eb="12">
+      <t>カイヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>byte 1なら開く 0閉じる</t>
+    <rPh sb="8" eb="9">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1659,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1957,6 +1978,15 @@
       <c r="B18" s="13" t="str">
         <f>'from client'!$B$81</f>
         <v>採掘実行プロトコル</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="13" t="str">
+        <f>'from client'!$B$86</f>
+        <v>ブロックインベントリ開閉プロトコル</v>
       </c>
     </row>
   </sheetData>
@@ -1986,6 +2016,7 @@
     <hyperlink ref="F9" location="'from server'!B35" display="'from server'!B35" xr:uid="{410E8C63-57E0-844E-B331-44511CC58F59}"/>
     <hyperlink ref="B17" location="'from client'!B77" display="'from client'!B77" xr:uid="{FF7597BB-5D2C-4342-9E7D-8C8A10685B07}"/>
     <hyperlink ref="B18" location="'from client'!B81" display="'from client'!B81" xr:uid="{3588C674-A0D8-4A55-B492-1972286E9506}"/>
+    <hyperlink ref="B19" location="'from client'!B86" display="'from client'!B86" xr:uid="{4A48064D-DE6A-40EA-92E4-E5087A451E3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2054,10 +2085,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH84"/>
+  <dimension ref="A2:AH89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA82" sqref="AA82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4502,6 +4533,132 @@
       <c r="X84" s="7"/>
       <c r="Y84" s="15"/>
     </row>
+    <row r="86" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B86" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="3">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="3">
+        <v>16</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="3">
+        <v>32</v>
+      </c>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="5">
+        <v>48</v>
+      </c>
+      <c r="AA87" s="8"/>
+      <c r="AB87" s="8"/>
+      <c r="AC87" s="8"/>
+      <c r="AD87" s="8"/>
+      <c r="AE87" s="8"/>
+      <c r="AF87" s="8"/>
+      <c r="AG87" s="4"/>
+      <c r="AH87">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="15"/>
+    </row>
+    <row r="89" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="7"/>
+      <c r="AC89" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4513,8 +4670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView topLeftCell="AN18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BV27" sqref="BV27"/>
+    <sheetView topLeftCell="AN27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BP29" sqref="BP29:BQ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6384,15 +6541,15 @@
       <c r="DA30" s="15"/>
     </row>
     <row r="31" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BV31" s="6" t="s">
+      <c r="BV31" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="BW31" s="7"/>
-      <c r="BX31" s="7"/>
-      <c r="BY31" s="7"/>
-      <c r="BZ31" s="7"/>
-      <c r="CA31" s="7"/>
-      <c r="CB31" s="7"/>
+      <c r="BW31" s="9"/>
+      <c r="BX31" s="9"/>
+      <c r="BY31" s="9"/>
+      <c r="BZ31" s="9"/>
+      <c r="CA31" s="9"/>
+      <c r="CB31" s="9"/>
       <c r="CC31" s="7"/>
       <c r="CD31" s="7"/>
       <c r="CE31" s="7"/>
@@ -6427,10 +6584,10 @@
       </c>
       <c r="BW32" s="7"/>
       <c r="BX32" s="7"/>
-      <c r="BY32" s="7"/>
-      <c r="BZ32" s="7"/>
-      <c r="CA32" s="7"/>
-      <c r="CB32" s="15"/>
+      <c r="BY32" s="15"/>
+      <c r="BZ32" s="9"/>
+      <c r="CA32" s="9"/>
+      <c r="CB32" s="9"/>
     </row>
     <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" t="s">

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83FEC2C-757B-4A3F-8CDD-7309A454D72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16180414-CED6-48C7-A6CA-B7601A1F7A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="148">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -1682,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1962,7 +1962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1970,8 +1970,11 @@
         <f>'from client'!$B$77</f>
         <v>クラフト実行プロトコル</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1979,14 +1982,20 @@
         <f>'from client'!$B$81</f>
         <v>採掘実行プロトコル</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" s="13" t="str">
         <f>'from client'!$B$86</f>
         <v>ブロックインベントリ開閉プロトコル</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2087,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA82" sqref="AA82"/>
+    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4670,8 +4679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView topLeftCell="AN27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BP29" sqref="BP29:BQ29"/>
+    <sheetView topLeftCell="AN15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BV16" sqref="BV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16180414-CED6-48C7-A6CA-B7601A1F7A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323F1503-D705-4BB7-B0D2-E94D6856AC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-19425" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="149">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -983,6 +983,22 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>byte 北 0 東 1 南 2 西 3</t>
+    <rPh sb="5" eb="6">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ニシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1682,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2096,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH89"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3577,6 +3593,14 @@
       <c r="AE48" s="7"/>
       <c r="AF48" s="7"/>
       <c r="AG48" s="15"/>
+    </row>
+    <row r="49" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" t="s">

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323F1503-D705-4BB7-B0D2-E94D6856AC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15960559-5AE6-4041-9138-C2B9D4AD5DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19425" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-19425" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -194,13 +194,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>→ これ以降ブロックデータ</t>
-    <rPh sb="4" eb="6">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>byte 整数</t>
     <rPh sb="5" eb="7">
       <t>セイスウ</t>
@@ -999,6 +992,13 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>ニシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ これ以降ブロックデータ、マップのデータ</t>
+    <rPh sb="4" eb="6">
+      <t>イコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1696,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1759,7 +1759,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>チャンクデータプロトコル</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1806,7 +1806,7 @@
         <v>チャンクデータプロトコル</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1871,7 +1871,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2012,6 +2012,11 @@
       </c>
       <c r="C19" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2064,7 +2069,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1">
         <v>20</v>
@@ -2072,23 +2077,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -2096,7 +2101,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -2112,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2524,7 +2529,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -2587,7 +2592,7 @@
     </row>
     <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2679,7 +2684,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="15"/>
       <c r="J19" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -2775,7 +2780,7 @@
     </row>
     <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2825,7 +2830,7 @@
     </row>
     <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2835,7 +2840,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -2897,7 +2902,7 @@
     </row>
     <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2915,7 +2920,7 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
@@ -2980,7 +2985,7 @@
     </row>
     <row r="28" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2990,7 +2995,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -3000,7 +3005,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -3020,7 +3025,7 @@
     </row>
     <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3038,7 +3043,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -3058,7 +3063,7 @@
     </row>
     <row r="30" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -3076,7 +3081,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -3096,7 +3101,7 @@
     </row>
     <row r="31" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3116,7 +3121,7 @@
     </row>
     <row r="33" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3166,7 +3171,7 @@
     </row>
     <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -3176,7 +3181,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -3194,7 +3199,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
@@ -3206,7 +3211,7 @@
     </row>
     <row r="36" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -3216,7 +3221,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -3234,7 +3239,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
@@ -3246,7 +3251,7 @@
     </row>
     <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -3300,7 +3305,7 @@
     </row>
     <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3350,7 +3355,7 @@
     </row>
     <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -3360,7 +3365,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -3378,7 +3383,7 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="15"/>
       <c r="Z41" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
@@ -3390,7 +3395,7 @@
     </row>
     <row r="42" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -3400,7 +3405,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -3418,7 +3423,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="11"/>
       <c r="Z42" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
@@ -3430,7 +3435,7 @@
     </row>
     <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="7"/>
@@ -3440,7 +3445,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="15"/>
       <c r="J43" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -3468,7 +3473,7 @@
     </row>
     <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3518,7 +3523,7 @@
     </row>
     <row r="47" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -3528,7 +3533,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="15"/>
       <c r="J47" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -3538,7 +3543,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -3558,7 +3563,7 @@
     </row>
     <row r="48" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -3576,7 +3581,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="15"/>
       <c r="R48" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -3596,7 +3601,7 @@
     </row>
     <row r="49" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -3604,7 +3609,7 @@
     </row>
     <row r="50" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3654,7 +3659,7 @@
     </row>
     <row r="52" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -3664,7 +3669,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="15"/>
       <c r="J52" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -3682,7 +3687,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
@@ -3694,7 +3699,7 @@
     </row>
     <row r="53" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -3722,7 +3727,7 @@
     </row>
     <row r="55" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3772,7 +3777,7 @@
     </row>
     <row r="57" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3782,7 +3787,7 @@
       <c r="H57" s="7"/>
       <c r="I57" s="15"/>
       <c r="J57" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
@@ -3800,7 +3805,7 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="15"/>
       <c r="Z57" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
@@ -3812,7 +3817,7 @@
     </row>
     <row r="58" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -3822,7 +3827,7 @@
       <c r="H58" s="7"/>
       <c r="I58" s="15"/>
       <c r="J58" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -3842,7 +3847,7 @@
     </row>
     <row r="60" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3892,7 +3897,7 @@
     </row>
     <row r="62" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -3902,7 +3907,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="11"/>
       <c r="J62" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -3912,7 +3917,7 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
@@ -3958,7 +3963,7 @@
     </row>
     <row r="65" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -3976,7 +3981,7 @@
       <c r="P65" s="25"/>
       <c r="Q65" s="25"/>
       <c r="R65" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S65" s="25"/>
       <c r="T65" s="25"/>
@@ -4042,7 +4047,7 @@
     </row>
     <row r="67" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
@@ -4052,7 +4057,7 @@
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
       <c r="J67" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K67" s="30"/>
       <c r="L67" s="30"/>
@@ -4062,7 +4067,7 @@
       <c r="P67" s="30"/>
       <c r="Q67" s="31"/>
       <c r="R67" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S67" s="30"/>
       <c r="T67" s="30"/>
@@ -4083,7 +4088,7 @@
     </row>
     <row r="68" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -4101,7 +4106,7 @@
       <c r="P68" s="27"/>
       <c r="Q68" s="28"/>
       <c r="R68" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S68" s="33"/>
       <c r="T68" s="33"/>
@@ -4122,7 +4127,7 @@
     </row>
     <row r="69" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -4194,7 +4199,7 @@
     </row>
     <row r="71" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4244,7 +4249,7 @@
     </row>
     <row r="73" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -4254,7 +4259,7 @@
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
@@ -4272,7 +4277,7 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="15"/>
       <c r="Z73" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
@@ -4284,7 +4289,7 @@
     </row>
     <row r="74" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -4294,7 +4299,7 @@
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
@@ -4312,7 +4317,7 @@
       <c r="X74" s="9"/>
       <c r="Y74" s="11"/>
       <c r="Z74" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
@@ -4324,7 +4329,7 @@
     </row>
     <row r="75" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -4360,7 +4365,7 @@
     </row>
     <row r="77" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4410,7 +4415,7 @@
     </row>
     <row r="79" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -4420,7 +4425,7 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
@@ -4448,7 +4453,7 @@
     </row>
     <row r="81" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4498,7 +4503,7 @@
     </row>
     <row r="83" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -4508,7 +4513,7 @@
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
@@ -4526,7 +4531,7 @@
       <c r="X83" s="7"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA83" s="7"/>
       <c r="AB83" s="7"/>
@@ -4538,7 +4543,7 @@
     </row>
     <row r="84" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -4548,7 +4553,7 @@
       <c r="H84" s="7"/>
       <c r="I84" s="15"/>
       <c r="J84" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
@@ -4568,7 +4573,7 @@
     </row>
     <row r="86" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4618,7 +4623,7 @@
     </row>
     <row r="88" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -4628,7 +4633,7 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
@@ -4646,7 +4651,7 @@
       <c r="X88" s="7"/>
       <c r="Y88" s="15"/>
       <c r="Z88" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA88" s="7"/>
       <c r="AB88" s="7"/>
@@ -4658,7 +4663,7 @@
     </row>
     <row r="89" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -4668,7 +4673,7 @@
       <c r="H89" s="7"/>
       <c r="I89" s="15"/>
       <c r="J89" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
@@ -4686,7 +4691,7 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="15"/>
       <c r="Z89" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA89" s="7"/>
       <c r="AB89" s="7"/>
@@ -4703,8 +4708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView topLeftCell="AN15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BV16" sqref="BV16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4714,13 +4719,13 @@
   <sheetData>
     <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="s">
         <v>21</v>
       </c>
       <c r="BV2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4939,7 +4944,7 @@
       <c r="CB4" s="7"/>
       <c r="CC4" s="7"/>
       <c r="CD4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CE4" s="7"/>
       <c r="CF4" s="7"/>
@@ -4949,7 +4954,7 @@
       <c r="CJ4" s="7"/>
       <c r="CK4" s="15"/>
       <c r="CL4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CM4" s="9"/>
       <c r="CN4" s="9"/>
@@ -4980,7 +4985,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="15"/>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -5008,7 +5013,7 @@
       <c r="AR5" s="7"/>
       <c r="AS5" s="7"/>
       <c r="AT5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7"/>
@@ -5061,7 +5066,7 @@
     </row>
     <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -5074,12 +5079,12 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="BV6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -5148,13 +5153,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>29</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -5195,7 +5200,7 @@
       <c r="CB8" s="7"/>
       <c r="CC8" s="7"/>
       <c r="CD8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CE8" s="7"/>
       <c r="CF8" s="7"/>
@@ -5235,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -5289,7 +5294,7 @@
       <c r="CJ9" s="7"/>
       <c r="CK9" s="15"/>
       <c r="CL9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CM9" s="7"/>
       <c r="CN9" s="7"/>
@@ -5319,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -5383,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -5419,7 +5424,7 @@
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
       <c r="BV11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5551,7 +5556,7 @@
       <c r="CB13" s="7"/>
       <c r="CC13" s="7"/>
       <c r="CD13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CE13" s="7"/>
       <c r="CF13" s="7"/>
@@ -5561,7 +5566,7 @@
       <c r="CJ13" s="7"/>
       <c r="CK13" s="15"/>
       <c r="CL13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CM13" s="7"/>
       <c r="CN13" s="7"/>
@@ -5619,7 +5624,7 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
       <c r="BV14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BW14" s="7"/>
       <c r="BX14" s="7"/>
@@ -5637,7 +5642,7 @@
       <c r="CJ14" s="7"/>
       <c r="CK14" s="15"/>
       <c r="CL14" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="CM14" s="7"/>
       <c r="CN14" s="7"/>
@@ -5658,7 +5663,7 @@
     <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -5743,12 +5748,12 @@
       </c>
       <c r="AI16" s="8"/>
       <c r="BV16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5758,7 +5763,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="15"/>
       <c r="J17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -5828,7 +5833,7 @@
     </row>
     <row r="18" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5846,7 +5851,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
@@ -5874,7 +5879,7 @@
       <c r="CB18" s="7"/>
       <c r="CC18" s="7"/>
       <c r="CD18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CE18" s="7"/>
       <c r="CF18" s="7"/>
@@ -5884,7 +5889,7 @@
       <c r="CJ18" s="7"/>
       <c r="CK18" s="15"/>
       <c r="CL18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CM18" s="7"/>
       <c r="CN18" s="7"/>
@@ -5904,7 +5909,7 @@
     </row>
     <row r="19" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5922,7 +5927,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
@@ -5940,7 +5945,7 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="15"/>
       <c r="BV19" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BW19" s="7"/>
       <c r="BX19" s="7"/>
@@ -5958,7 +5963,7 @@
       <c r="CJ19" s="7"/>
       <c r="CK19" s="15"/>
       <c r="CL19" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="CM19" s="7"/>
       <c r="CN19" s="7"/>
@@ -6012,7 +6017,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="BV20" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BW20" s="7"/>
       <c r="BX20" s="7"/>
@@ -6030,7 +6035,7 @@
       <c r="CJ20" s="7"/>
       <c r="CK20" s="15"/>
       <c r="CL20" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="CM20" s="7"/>
       <c r="CN20" s="7"/>
@@ -6050,7 +6055,7 @@
     </row>
     <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6068,7 +6073,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -6088,7 +6093,7 @@
     </row>
     <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6106,7 +6111,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -6124,12 +6129,12 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="15"/>
       <c r="BV22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -6147,7 +6152,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -6209,7 +6214,7 @@
     </row>
     <row r="24" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -6227,7 +6232,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -6256,7 +6261,7 @@
       <c r="CB24" s="7"/>
       <c r="CC24" s="7"/>
       <c r="CD24" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CE24" s="7"/>
       <c r="CF24" s="7"/>
@@ -6326,7 +6331,7 @@
     </row>
     <row r="26" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -6344,7 +6349,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -6365,7 +6370,7 @@
     </row>
     <row r="27" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -6383,7 +6388,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -6402,12 +6407,12 @@
       <c r="AG27" s="15"/>
       <c r="AI27" s="8"/>
       <c r="BV27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -6425,7 +6430,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -6486,7 +6491,7 @@
     </row>
     <row r="29" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -6506,7 +6511,7 @@
       <c r="CB29" s="7"/>
       <c r="CC29" s="7"/>
       <c r="CD29" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CE29" s="7"/>
       <c r="CF29" s="7"/>
@@ -6516,7 +6521,7 @@
       <c r="CJ29" s="7"/>
       <c r="CK29" s="15"/>
       <c r="CL29" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CM29" s="7"/>
       <c r="CN29" s="7"/>
@@ -6537,7 +6542,7 @@
     <row r="30" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI30" s="8"/>
       <c r="BV30" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BW30" s="7"/>
       <c r="BX30" s="7"/>
@@ -6555,7 +6560,7 @@
       <c r="CJ30" s="7"/>
       <c r="CK30" s="15"/>
       <c r="CL30" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="CM30" s="7"/>
       <c r="CN30" s="7"/>
@@ -6575,7 +6580,7 @@
     </row>
     <row r="31" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BV31" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BW31" s="9"/>
       <c r="BX31" s="9"/>
@@ -6593,7 +6598,7 @@
       <c r="CJ31" s="7"/>
       <c r="CK31" s="15"/>
       <c r="CL31" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CM31" s="7"/>
       <c r="CN31" s="7"/>
@@ -6613,7 +6618,7 @@
     </row>
     <row r="32" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BV32" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BW32" s="7"/>
       <c r="BX32" s="7"/>
@@ -6624,7 +6629,7 @@
     </row>
     <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -6706,7 +6711,7 @@
     </row>
     <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -6716,7 +6721,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="15"/>
       <c r="J37" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -6726,7 +6731,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="15"/>
       <c r="R37" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -6746,7 +6751,7 @@
     </row>
     <row r="38" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -6764,7 +6769,7 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="15"/>
       <c r="R38" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
@@ -6785,7 +6790,7 @@
     </row>
     <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -6803,7 +6808,7 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
@@ -6861,7 +6866,7 @@
     </row>
     <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -6879,7 +6884,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
@@ -6900,7 +6905,7 @@
     </row>
     <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -6910,7 +6915,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="15"/>
       <c r="J43" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -6920,12 +6925,12 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="15"/>
       <c r="S43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -6935,7 +6940,7 @@
       <c r="H45" s="7"/>
       <c r="I45" s="15"/>
       <c r="J45" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -6945,7 +6950,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="15"/>
       <c r="R45" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -6955,7 +6960,7 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="15"/>
       <c r="AA45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15960559-5AE6-4041-9138-C2B9D4AD5DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C940CD39-D53C-427D-AC48-B951DD96DB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19425" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="152">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -999,6 +999,45 @@
     <t>→ これ以降ブロックデータ、マップのデータ</t>
     <rPh sb="4" eb="6">
       <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>← 方向を表す</t>
+    <rPh sb="2" eb="4">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>← 方向を表す 00 北 01 東 10 南 11西</t>
+    <rPh sb="2" eb="4">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ニシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>byte 方向</t>
+    <rPh sb="5" eb="7">
+      <t>ホウコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2117,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH89"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4708,13 +4747,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BV11" sqref="BV11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5249,9 +5289,15 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
@@ -5341,9 +5387,15 @@
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="20"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
+      <c r="U10" s="8">
+        <v>0</v>
+      </c>
+      <c r="V10" s="8">
+        <v>1</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
@@ -5359,10 +5411,12 @@
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
-      <c r="BV10" s="9"/>
-      <c r="BW10" s="9"/>
-      <c r="BX10" s="9"/>
-      <c r="BY10" s="9"/>
+      <c r="BV10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="BW10" s="7"/>
+      <c r="BX10" s="7"/>
+      <c r="BY10" s="15"/>
       <c r="BZ10" s="9"/>
       <c r="CA10" s="9"/>
       <c r="CB10" s="9"/>
@@ -5421,8 +5475,15 @@
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
       <c r="AJ11" s="20"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
+      <c r="AK11" s="8">
+        <v>10</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="BV11" t="s">
         <v>135</v>
       </c>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C940CD39-D53C-427D-AC48-B951DD96DB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CA8F92-1C51-4C9D-8CCB-BF0E666E93F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-20595" yWindow="1230" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="152">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -211,10 +211,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>↓</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブロックIDがどの整数型か表す</t>
     <rPh sb="9" eb="11">
       <t>セイスウ</t>
@@ -1039,6 +1035,10 @@
     <rPh sb="5" eb="7">
       <t>ホウコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1103,7 +1103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1302,6 +1302,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1311,7 +1320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1418,6 +1427,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1798,7 +1810,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1829,7 +1841,7 @@
         <v>チャンクデータプロトコル</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1845,7 +1857,7 @@
         <v>チャンクデータプロトコル</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1910,7 +1922,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2108,7 +2120,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1">
         <v>20</v>
@@ -2116,23 +2128,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -2140,7 +2152,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -2568,7 +2580,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -2631,7 +2643,7 @@
     </row>
     <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2723,7 +2735,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="15"/>
       <c r="J19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -2819,7 +2831,7 @@
     </row>
     <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2869,7 +2881,7 @@
     </row>
     <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2879,7 +2891,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -2941,7 +2953,7 @@
     </row>
     <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2959,7 +2971,7 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
@@ -3024,7 +3036,7 @@
     </row>
     <row r="28" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3034,7 +3046,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -3044,7 +3056,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -3064,7 +3076,7 @@
     </row>
     <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3082,7 +3094,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -3102,7 +3114,7 @@
     </row>
     <row r="30" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -3120,7 +3132,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -3140,7 +3152,7 @@
     </row>
     <row r="31" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3160,7 +3172,7 @@
     </row>
     <row r="33" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3210,7 +3222,7 @@
     </row>
     <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -3220,7 +3232,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -3238,7 +3250,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
@@ -3250,7 +3262,7 @@
     </row>
     <row r="36" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -3260,7 +3272,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -3278,7 +3290,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
@@ -3290,7 +3302,7 @@
     </row>
     <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -3344,7 +3356,7 @@
     </row>
     <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3394,7 +3406,7 @@
     </row>
     <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -3404,7 +3416,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -3422,7 +3434,7 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="15"/>
       <c r="Z41" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
@@ -3434,7 +3446,7 @@
     </row>
     <row r="42" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -3444,7 +3456,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -3462,7 +3474,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="11"/>
       <c r="Z42" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
@@ -3474,7 +3486,7 @@
     </row>
     <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="7"/>
@@ -3484,7 +3496,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="15"/>
       <c r="J43" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -3512,7 +3524,7 @@
     </row>
     <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3562,7 +3574,7 @@
     </row>
     <row r="47" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -3572,7 +3584,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="15"/>
       <c r="J47" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -3582,7 +3594,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -3602,7 +3614,7 @@
     </row>
     <row r="48" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -3620,7 +3632,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="15"/>
       <c r="R48" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -3640,7 +3652,7 @@
     </row>
     <row r="49" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -3648,7 +3660,7 @@
     </row>
     <row r="50" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3698,7 +3710,7 @@
     </row>
     <row r="52" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -3708,7 +3720,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="15"/>
       <c r="J52" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -3726,7 +3738,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
@@ -3738,7 +3750,7 @@
     </row>
     <row r="53" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -3766,7 +3778,7 @@
     </row>
     <row r="55" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3816,7 +3828,7 @@
     </row>
     <row r="57" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3826,7 +3838,7 @@
       <c r="H57" s="7"/>
       <c r="I57" s="15"/>
       <c r="J57" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
@@ -3844,7 +3856,7 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="15"/>
       <c r="Z57" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
@@ -3856,7 +3868,7 @@
     </row>
     <row r="58" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -3866,7 +3878,7 @@
       <c r="H58" s="7"/>
       <c r="I58" s="15"/>
       <c r="J58" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -3886,7 +3898,7 @@
     </row>
     <row r="60" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3936,7 +3948,7 @@
     </row>
     <row r="62" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -3946,7 +3958,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="11"/>
       <c r="J62" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -3956,7 +3968,7 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
@@ -4002,7 +4014,7 @@
     </row>
     <row r="65" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4020,7 +4032,7 @@
       <c r="P65" s="25"/>
       <c r="Q65" s="25"/>
       <c r="R65" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S65" s="25"/>
       <c r="T65" s="25"/>
@@ -4086,7 +4098,7 @@
     </row>
     <row r="67" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
@@ -4096,7 +4108,7 @@
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
       <c r="J67" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K67" s="30"/>
       <c r="L67" s="30"/>
@@ -4106,7 +4118,7 @@
       <c r="P67" s="30"/>
       <c r="Q67" s="31"/>
       <c r="R67" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S67" s="30"/>
       <c r="T67" s="30"/>
@@ -4127,7 +4139,7 @@
     </row>
     <row r="68" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -4145,7 +4157,7 @@
       <c r="P68" s="27"/>
       <c r="Q68" s="28"/>
       <c r="R68" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S68" s="33"/>
       <c r="T68" s="33"/>
@@ -4166,7 +4178,7 @@
     </row>
     <row r="69" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -4238,7 +4250,7 @@
     </row>
     <row r="71" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4288,7 +4300,7 @@
     </row>
     <row r="73" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -4298,7 +4310,7 @@
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
@@ -4316,7 +4328,7 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="15"/>
       <c r="Z73" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
@@ -4328,7 +4340,7 @@
     </row>
     <row r="74" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -4338,7 +4350,7 @@
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
@@ -4356,7 +4368,7 @@
       <c r="X74" s="9"/>
       <c r="Y74" s="11"/>
       <c r="Z74" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
@@ -4368,7 +4380,7 @@
     </row>
     <row r="75" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -4404,7 +4416,7 @@
     </row>
     <row r="77" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4454,7 +4466,7 @@
     </row>
     <row r="79" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -4464,7 +4476,7 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
@@ -4492,7 +4504,7 @@
     </row>
     <row r="81" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4542,7 +4554,7 @@
     </row>
     <row r="83" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -4552,7 +4564,7 @@
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
@@ -4570,7 +4582,7 @@
       <c r="X83" s="7"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA83" s="7"/>
       <c r="AB83" s="7"/>
@@ -4582,7 +4594,7 @@
     </row>
     <row r="84" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -4592,7 +4604,7 @@
       <c r="H84" s="7"/>
       <c r="I84" s="15"/>
       <c r="J84" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
@@ -4612,7 +4624,7 @@
     </row>
     <row r="86" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4662,7 +4674,7 @@
     </row>
     <row r="88" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -4672,7 +4684,7 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
@@ -4690,7 +4702,7 @@
       <c r="X88" s="7"/>
       <c r="Y88" s="15"/>
       <c r="Z88" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA88" s="7"/>
       <c r="AB88" s="7"/>
@@ -4702,7 +4714,7 @@
     </row>
     <row r="89" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -4712,7 +4724,7 @@
       <c r="H89" s="7"/>
       <c r="I89" s="15"/>
       <c r="J89" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
@@ -4730,7 +4742,7 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="15"/>
       <c r="Z89" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA89" s="7"/>
       <c r="AB89" s="7"/>
@@ -4747,8 +4759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BV11" sqref="BV11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4759,13 +4771,13 @@
   <sheetData>
     <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL2" t="s">
         <v>21</v>
       </c>
       <c r="BV2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4984,7 +4996,7 @@
       <c r="CB4" s="7"/>
       <c r="CC4" s="7"/>
       <c r="CD4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="CE4" s="7"/>
       <c r="CF4" s="7"/>
@@ -4994,7 +5006,7 @@
       <c r="CJ4" s="7"/>
       <c r="CK4" s="15"/>
       <c r="CL4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CM4" s="9"/>
       <c r="CN4" s="9"/>
@@ -5025,7 +5037,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="15"/>
       <c r="J5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -5053,7 +5065,7 @@
       <c r="AR5" s="7"/>
       <c r="AS5" s="7"/>
       <c r="AT5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7"/>
@@ -5106,7 +5118,7 @@
     </row>
     <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -5119,7 +5131,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="BV6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5192,14 +5204,14 @@
       <c r="B8" s="8">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>28</v>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -5240,7 +5252,7 @@
       <c r="CB8" s="7"/>
       <c r="CC8" s="7"/>
       <c r="CD8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE8" s="7"/>
       <c r="CF8" s="7"/>
@@ -5296,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
@@ -5340,7 +5352,7 @@
       <c r="CJ9" s="7"/>
       <c r="CK9" s="15"/>
       <c r="CL9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CM9" s="7"/>
       <c r="CN9" s="7"/>
@@ -5370,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -5394,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
@@ -5412,7 +5424,7 @@
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
       <c r="BV10" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BW10" s="7"/>
       <c r="BX10" s="7"/>
@@ -5442,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -5482,18 +5494,24 @@
         <v>0</v>
       </c>
       <c r="AM11" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BV11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -5617,7 +5635,7 @@
       <c r="CB13" s="7"/>
       <c r="CC13" s="7"/>
       <c r="CD13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="CE13" s="7"/>
       <c r="CF13" s="7"/>
@@ -5627,7 +5645,7 @@
       <c r="CJ13" s="7"/>
       <c r="CK13" s="15"/>
       <c r="CL13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CM13" s="7"/>
       <c r="CN13" s="7"/>
@@ -5685,7 +5703,7 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
       <c r="BV14" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BW14" s="7"/>
       <c r="BX14" s="7"/>
@@ -5703,7 +5721,7 @@
       <c r="CJ14" s="7"/>
       <c r="CK14" s="15"/>
       <c r="CL14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CM14" s="7"/>
       <c r="CN14" s="7"/>
@@ -5724,7 +5742,7 @@
     <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -5809,12 +5827,12 @@
       </c>
       <c r="AI16" s="8"/>
       <c r="BV16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -5824,7 +5842,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="15"/>
       <c r="J17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -5894,7 +5912,7 @@
     </row>
     <row r="18" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5912,7 +5930,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
@@ -5940,7 +5958,7 @@
       <c r="CB18" s="7"/>
       <c r="CC18" s="7"/>
       <c r="CD18" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CE18" s="7"/>
       <c r="CF18" s="7"/>
@@ -5950,7 +5968,7 @@
       <c r="CJ18" s="7"/>
       <c r="CK18" s="15"/>
       <c r="CL18" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CM18" s="7"/>
       <c r="CN18" s="7"/>
@@ -5970,7 +5988,7 @@
     </row>
     <row r="19" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -5988,7 +6006,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
@@ -6006,7 +6024,7 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="15"/>
       <c r="BV19" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BW19" s="7"/>
       <c r="BX19" s="7"/>
@@ -6024,7 +6042,7 @@
       <c r="CJ19" s="7"/>
       <c r="CK19" s="15"/>
       <c r="CL19" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CM19" s="7"/>
       <c r="CN19" s="7"/>
@@ -6078,7 +6096,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="BV20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BW20" s="7"/>
       <c r="BX20" s="7"/>
@@ -6096,7 +6114,7 @@
       <c r="CJ20" s="7"/>
       <c r="CK20" s="15"/>
       <c r="CL20" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="CM20" s="7"/>
       <c r="CN20" s="7"/>
@@ -6116,7 +6134,7 @@
     </row>
     <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6134,7 +6152,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -6154,7 +6172,7 @@
     </row>
     <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6172,7 +6190,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -6190,12 +6208,12 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="15"/>
       <c r="BV22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -6213,7 +6231,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -6275,7 +6293,7 @@
     </row>
     <row r="24" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -6293,7 +6311,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -6322,7 +6340,7 @@
       <c r="CB24" s="7"/>
       <c r="CC24" s="7"/>
       <c r="CD24" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE24" s="7"/>
       <c r="CF24" s="7"/>
@@ -6392,7 +6410,7 @@
     </row>
     <row r="26" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -6410,7 +6428,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -6431,7 +6449,7 @@
     </row>
     <row r="27" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -6449,7 +6467,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -6468,12 +6486,12 @@
       <c r="AG27" s="15"/>
       <c r="AI27" s="8"/>
       <c r="BV27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -6491,7 +6509,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -6552,7 +6570,7 @@
     </row>
     <row r="29" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -6572,7 +6590,7 @@
       <c r="CB29" s="7"/>
       <c r="CC29" s="7"/>
       <c r="CD29" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CE29" s="7"/>
       <c r="CF29" s="7"/>
@@ -6582,7 +6600,7 @@
       <c r="CJ29" s="7"/>
       <c r="CK29" s="15"/>
       <c r="CL29" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CM29" s="7"/>
       <c r="CN29" s="7"/>
@@ -6603,7 +6621,7 @@
     <row r="30" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI30" s="8"/>
       <c r="BV30" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BW30" s="7"/>
       <c r="BX30" s="7"/>
@@ -6621,7 +6639,7 @@
       <c r="CJ30" s="7"/>
       <c r="CK30" s="15"/>
       <c r="CL30" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CM30" s="7"/>
       <c r="CN30" s="7"/>
@@ -6641,7 +6659,7 @@
     </row>
     <row r="31" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BV31" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BW31" s="9"/>
       <c r="BX31" s="9"/>
@@ -6659,7 +6677,7 @@
       <c r="CJ31" s="7"/>
       <c r="CK31" s="15"/>
       <c r="CL31" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CM31" s="7"/>
       <c r="CN31" s="7"/>
@@ -6679,7 +6697,7 @@
     </row>
     <row r="32" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BV32" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BW32" s="7"/>
       <c r="BX32" s="7"/>
@@ -6690,7 +6708,7 @@
     </row>
     <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -6772,7 +6790,7 @@
     </row>
     <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -6782,7 +6800,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="15"/>
       <c r="J37" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -6792,7 +6810,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="15"/>
       <c r="R37" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -6812,7 +6830,7 @@
     </row>
     <row r="38" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -6830,7 +6848,7 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="15"/>
       <c r="R38" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
@@ -6851,7 +6869,7 @@
     </row>
     <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -6869,7 +6887,7 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
@@ -6927,7 +6945,7 @@
     </row>
     <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -6945,7 +6963,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
@@ -6966,7 +6984,7 @@
     </row>
     <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -6976,7 +6994,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="15"/>
       <c r="J43" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -6986,12 +7004,12 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="15"/>
       <c r="S43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -7001,7 +7019,7 @@
       <c r="H45" s="7"/>
       <c r="I45" s="15"/>
       <c r="J45" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -7011,7 +7029,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="15"/>
       <c r="R45" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -7021,7 +7039,7 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="15"/>
       <c r="AA45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CA8F92-1C51-4C9D-8CCB-BF0E666E93F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66037D8F-DF05-4CD0-92E8-3EC456A02B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20595" yWindow="1230" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="154">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -1039,6 +1039,17 @@
   </si>
   <si>
     <t>↑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブ実行プロトコル</t>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 17</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1749,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2068,6 +2079,13 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>17</v>
+      </c>
+      <c r="B20" s="13" t="str">
+        <f>'from client'!$B$91</f>
+        <v>セーブ実行プロトコル</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2098,6 +2116,7 @@
     <hyperlink ref="B17" location="'from client'!B77" display="'from client'!B77" xr:uid="{FF7597BB-5D2C-4342-9E7D-8C8A10685B07}"/>
     <hyperlink ref="B18" location="'from client'!B81" display="'from client'!B81" xr:uid="{3588C674-A0D8-4A55-B492-1972286E9506}"/>
     <hyperlink ref="B19" location="'from client'!B86" display="'from client'!B86" xr:uid="{4A48064D-DE6A-40EA-92E4-E5087A451E3F}"/>
+    <hyperlink ref="B20" location="'from client'!B91" display="'from client'!B91" xr:uid="{7ECB1F80-BE19-4F91-AF96-7E7D194BC439}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2166,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH89"/>
+  <dimension ref="A2:AH93"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X86" sqref="X86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4748,6 +4767,69 @@
       <c r="AB89" s="7"/>
       <c r="AC89" s="15"/>
     </row>
+    <row r="91" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="5">
+        <v>16</v>
+      </c>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="3">
+        <v>32</v>
+      </c>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="3">
+        <v>48</v>
+      </c>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="2"/>
+      <c r="AH92">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B93" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4759,7 +4841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66037D8F-DF05-4CD0-92E8-3EC456A02B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED0F647-8B63-4C75-AC4A-4A7506C58D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -1760,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2187,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH93"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X86" sqref="X86"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED0F647-8B63-4C75-AC4A-4A7506C58D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C696D223-1076-4A1D-A958-9C3754F08B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -599,13 +599,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int スロット2のアイテムID</t>
-    <rPh sb="13" eb="14">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int スロットnのアイテム数</t>
     <rPh sb="13" eb="14">
       <t>スウ</t>
@@ -1050,6 +1043,10 @@
   </si>
   <si>
     <t>short パケットID 17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int ブロックのID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1761,7 +1758,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2187,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2972,7 +2969,7 @@
     </row>
     <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -3065,7 +3062,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -3095,7 +3092,7 @@
     </row>
     <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3191,7 +3188,7 @@
     </row>
     <row r="33" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3269,7 +3266,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
@@ -3281,7 +3278,7 @@
     </row>
     <row r="36" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -3291,7 +3288,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -3671,7 +3668,7 @@
     </row>
     <row r="49" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -3729,7 +3726,7 @@
     </row>
     <row r="52" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -3797,7 +3794,7 @@
     </row>
     <row r="55" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3847,7 +3844,7 @@
     </row>
     <row r="57" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3917,7 +3914,7 @@
     </row>
     <row r="60" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3967,7 +3964,7 @@
     </row>
     <row r="62" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -3977,7 +3974,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="11"/>
       <c r="J62" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -3987,7 +3984,7 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
@@ -4033,7 +4030,7 @@
     </row>
     <row r="65" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4051,7 +4048,7 @@
       <c r="P65" s="25"/>
       <c r="Q65" s="25"/>
       <c r="R65" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S65" s="25"/>
       <c r="T65" s="25"/>
@@ -4127,7 +4124,7 @@
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
       <c r="J67" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K67" s="30"/>
       <c r="L67" s="30"/>
@@ -4137,7 +4134,7 @@
       <c r="P67" s="30"/>
       <c r="Q67" s="31"/>
       <c r="R67" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S67" s="30"/>
       <c r="T67" s="30"/>
@@ -4158,7 +4155,7 @@
     </row>
     <row r="68" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -4176,7 +4173,7 @@
       <c r="P68" s="27"/>
       <c r="Q68" s="28"/>
       <c r="R68" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S68" s="33"/>
       <c r="T68" s="33"/>
@@ -4269,7 +4266,7 @@
     </row>
     <row r="71" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4319,7 +4316,7 @@
     </row>
     <row r="73" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -4347,7 +4344,7 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="15"/>
       <c r="Z73" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
@@ -4359,7 +4356,7 @@
     </row>
     <row r="74" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -4435,7 +4432,7 @@
     </row>
     <row r="77" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4485,7 +4482,7 @@
     </row>
     <row r="79" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -4523,7 +4520,7 @@
     </row>
     <row r="81" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4573,7 +4570,7 @@
     </row>
     <row r="83" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -4643,7 +4640,7 @@
     </row>
     <row r="86" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4693,7 +4690,7 @@
     </row>
     <row r="88" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -4761,7 +4758,7 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="15"/>
       <c r="Z89" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA89" s="7"/>
       <c r="AB89" s="7"/>
@@ -4769,7 +4766,7 @@
     </row>
     <row r="91" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4819,7 +4816,7 @@
     </row>
     <row r="93" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -4841,8 +4838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5119,7 +5116,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="15"/>
       <c r="J5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -5293,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -5390,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
@@ -5488,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
@@ -5506,7 +5503,7 @@
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
       <c r="BV10" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BW10" s="7"/>
       <c r="BX10" s="7"/>
@@ -5576,20 +5573,20 @@
         <v>0</v>
       </c>
       <c r="AM11" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BV11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" s="36" t="s">
         <v>27</v>
@@ -6216,7 +6213,7 @@
     </row>
     <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6234,7 +6231,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -6254,7 +6251,7 @@
     </row>
     <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6272,7 +6269,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -6295,7 +6292,7 @@
     </row>
     <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -6313,7 +6310,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -6375,7 +6372,7 @@
     </row>
     <row r="24" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -6393,7 +6390,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -6492,7 +6489,7 @@
     </row>
     <row r="26" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -6510,7 +6507,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -6531,7 +6528,7 @@
     </row>
     <row r="27" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -6549,7 +6546,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -6568,12 +6565,12 @@
       <c r="AG27" s="15"/>
       <c r="AI27" s="8"/>
       <c r="BV27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -6591,7 +6588,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -6652,7 +6649,7 @@
     </row>
     <row r="29" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -6672,7 +6669,7 @@
       <c r="CB29" s="7"/>
       <c r="CC29" s="7"/>
       <c r="CD29" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CE29" s="7"/>
       <c r="CF29" s="7"/>
@@ -6682,7 +6679,7 @@
       <c r="CJ29" s="7"/>
       <c r="CK29" s="15"/>
       <c r="CL29" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CM29" s="7"/>
       <c r="CN29" s="7"/>
@@ -6741,7 +6738,7 @@
     </row>
     <row r="31" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BV31" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BW31" s="9"/>
       <c r="BX31" s="9"/>
@@ -6759,7 +6756,7 @@
       <c r="CJ31" s="7"/>
       <c r="CK31" s="15"/>
       <c r="CL31" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CM31" s="7"/>
       <c r="CN31" s="7"/>
@@ -6779,7 +6776,7 @@
     </row>
     <row r="32" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BV32" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BW32" s="7"/>
       <c r="BX32" s="7"/>
@@ -6882,7 +6879,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="15"/>
       <c r="J37" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -6892,7 +6889,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="15"/>
       <c r="R37" s="6" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -6912,7 +6909,7 @@
     </row>
     <row r="38" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -6930,7 +6927,7 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="15"/>
       <c r="R38" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
@@ -6951,7 +6948,7 @@
     </row>
     <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -6969,7 +6966,7 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="6" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
@@ -7027,7 +7024,7 @@
     </row>
     <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -7045,7 +7042,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
@@ -7066,7 +7063,7 @@
     </row>
     <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -7076,7 +7073,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="15"/>
       <c r="J43" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -7086,12 +7083,12 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="15"/>
       <c r="S43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -7101,7 +7098,7 @@
       <c r="H45" s="7"/>
       <c r="I45" s="15"/>
       <c r="J45" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -7111,7 +7108,7 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="15"/>
       <c r="R45" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -7121,7 +7118,7 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="15"/>
       <c r="AA45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C696D223-1076-4A1D-A958-9C3754F08B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFE24AB-9FCA-BD40-A087-FA29E13B7322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-40" yWindow="520" windowWidth="28800" windowHeight="15600" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="150">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -553,19 +553,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロックインベントリ内アイテム移動プロトコル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int プレイヤーId</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>イベント要求プロトコル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int ブロックインベントリスロット</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -580,13 +572,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロックインベントリ応答プロトコル</t>
-    <rPh sb="10" eb="12">
-      <t>オウトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>short パケットID 12</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -613,58 +598,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>short UIタイプID 0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>short スロット数</t>
-    <rPh sb="10" eb="11">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェストなど、一つのスロットしかないブロック</t>
-    <rPh sb="7" eb="8">
-      <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>short UIタイプID 1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>short 入力スロット数</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>short 出力スロット数</t>
-    <rPh sb="6" eb="8">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通常の入出力があるブロック</t>
-    <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ニュウシュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>short アイテム数 n</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -847,32 +780,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クラフトインベントリ-メインインベントリアイテム移動プロトコル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>short 0ならメインインベントリからクラフトインベントリにアイテム移動 1ならその逆</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メインインベントリ内アイテム移動プロトコル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックインベントリ-メインインベントリアイテム移動プロトコル</t>
-    <rPh sb="24" eb="26">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>short 0ならメインインベントリからブロックインベントリにアイテム移動 1ならその逆</t>
-    <rPh sb="35" eb="37">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ギャク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -904,10 +812,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クラフトインベントリ内アイテム移動プロトコル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クラフト実行プロトコル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1047,6 +951,92 @@
   </si>
   <si>
     <t>int ブロックのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除　メインインベントリ内アイテム移動プロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除　ブロックインベントリ内アイテム移動プロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除　クラフトインベントリ-メインインベントリアイテム移動プロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除　クラフトインベントリ内アイテム移動プロトコル</t>
+    <rPh sb="0" eb="2">
+      <t>サクジヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>byte 0ならインベントリから所持中アイテムへ（アイテムを持ち上げる）1ならアイテムを置く</t>
+    <rPh sb="16" eb="19">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t xml:space="preserve">オク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">byte 移動元or移動先インベントリID 　0 メイン　1 クラフト 2 ブロック </t>
+    <rPh sb="5" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 移動元or移動先インベントリスロット</t>
+    <rPh sb="4" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int ブロックの場合、ブロックの座標X</t>
+    <rPh sb="17" eb="19">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int ブロックの場合、ブロックの座標Y</t>
+    <rPh sb="8" eb="10">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未実装　インベントリアイテム移動プロトコル</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジヨ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要修正　ブロックインベントリ応答プロトコル</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウシュウセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウトウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1054,7 +1044,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1761,19 +1751,19 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
-    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1787,7 +1777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +1797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1830,7 +1820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1852,7 +1842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1875,7 +1865,7 @@
         <v>プレイヤー座標プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1895,7 +1885,7 @@
         <v>イベント返答プロトコル</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1915,13 +1905,13 @@
         <v>プレイヤーインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="13" t="str">
         <f>'from client'!$B$26</f>
-        <v>ブロックインベントリ-メインインベントリアイテム移動プロトコル</v>
+        <v>未実装　インベントリアイテム移動プロトコル</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1933,13 +1923,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="13" t="str">
         <f>'from client'!$B$33</f>
-        <v>メインインベントリ内アイテム移動プロトコル</v>
+        <v>削除　メインインベントリ内アイテム移動プロトコル</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1949,22 +1939,22 @@
       </c>
       <c r="F9" s="13" t="str">
         <f>'from server'!$B$35</f>
-        <v>ブロックインベントリ応答プロトコル</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+        <v>要修正　ブロックインベントリ応答プロトコル</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="13" t="str">
         <f>'from client'!$B$39</f>
-        <v>ブロックインベントリ内アイテム移動プロトコル</v>
+        <v>削除　ブロックインベントリ内アイテム移動プロトコル</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1976,7 +1966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1986,10 +1976,10 @@
       </c>
       <c r="C12" s="13" t="str">
         <f>'from server'!$B$35</f>
-        <v>ブロックインベントリ応答プロトコル</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+        <v>要修正　ブロックインベントリ応答プロトコル</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2001,7 +1991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2013,31 +2003,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="13" t="str">
         <f>'from client'!$B$65</f>
-        <v>クラフトインベントリ-メインインベントリアイテム移動プロトコル</v>
+        <v>削除　クラフトインベントリ-メインインベントリアイテム移動プロトコル</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" s="13" t="str">
         <f>'from client'!$B$71</f>
-        <v>クラフトインベントリ内アイテム移動プロトコル</v>
+        <v>削除　クラフトインベントリ内アイテム移動プロトコル</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2049,7 +2039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2061,7 +2051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2073,7 +2063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2128,13 +2118,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2142,7 +2132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2150,7 +2140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -2158,7 +2148,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2166,7 +2156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2184,25 +2174,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH93"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="2.875" customWidth="1"/>
-    <col min="10" max="10" width="2.875" customWidth="1"/>
-    <col min="18" max="18" width="2.875" customWidth="1"/>
-    <col min="26" max="26" width="2.875" customWidth="1"/>
-    <col min="34" max="34" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" customWidth="1"/>
+    <col min="18" max="18" width="2.83203125" customWidth="1"/>
+    <col min="26" max="26" width="2.83203125" customWidth="1"/>
+    <col min="34" max="34" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -2248,7 +2238,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -2289,7 +2279,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -2328,7 +2318,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -2367,7 +2357,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2402,7 +2392,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2437,7 +2427,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2472,7 +2462,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2506,12 +2496,12 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -2544,7 +2534,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -2584,7 +2574,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -2622,7 +2612,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2657,8 +2647,8 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B17" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="8"/>
@@ -2694,7 +2684,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -2739,7 +2729,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2777,7 +2767,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2811,7 +2801,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2845,12 +2835,12 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1">
       <c r="B22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" ht="37.5" customHeight="1">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2895,7 +2885,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1">
       <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
@@ -2933,7 +2923,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2967,9 +2957,9 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:34" ht="37.5" customHeight="1">
       <c r="B26" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2987,7 +2977,7 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
@@ -3005,7 +2995,7 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
     </row>
-    <row r="27" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:34" ht="37.5" customHeight="1">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -3050,7 +3040,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:34" ht="37.5" customHeight="1">
       <c r="B28" s="6" t="s">
         <v>60</v>
       </c>
@@ -3062,12 +3052,14 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="6" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="15"/>
@@ -3090,9 +3082,9 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="15"/>
     </row>
-    <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:34" ht="37.5" customHeight="1">
       <c r="B29" s="6" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3110,7 +3102,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -3128,27 +3120,27 @@
       <c r="AF29" s="7"/>
       <c r="AG29" s="15"/>
     </row>
-    <row r="30" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="15"/>
+    <row r="30" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B30" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="11"/>
       <c r="R30" s="6" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -3166,32 +3158,30 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="15"/>
     </row>
-    <row r="31" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="15"/>
-    </row>
-    <row r="33" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+    </row>
+    <row r="33" spans="2:34" ht="37.5" customHeight="1">
       <c r="B33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="2:34" ht="37.5" customHeight="1">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -3236,7 +3226,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:34" ht="37.5" customHeight="1">
       <c r="B35" s="6" t="s">
         <v>68</v>
       </c>
@@ -3266,7 +3256,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="6" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
@@ -3276,9 +3266,9 @@
       <c r="AF35" s="7"/>
       <c r="AG35" s="15"/>
     </row>
-    <row r="36" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:34" ht="37.5" customHeight="1">
       <c r="B36" s="6" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -3288,7 +3278,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="10" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -3316,7 +3306,7 @@
       <c r="AF36" s="7"/>
       <c r="AG36" s="15"/>
     </row>
-    <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:34" ht="37.5" customHeight="1">
       <c r="B37" s="6" t="s">
         <v>63</v>
       </c>
@@ -3352,7 +3342,7 @@
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
     </row>
-    <row r="38" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:34" ht="37.5" customHeight="1">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -3370,12 +3360,12 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:34" ht="37.5" customHeight="1">
       <c r="B39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="2:34" ht="37.5" customHeight="1">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -3420,7 +3410,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:34" ht="37.5" customHeight="1">
       <c r="B41" s="6" t="s">
         <v>69</v>
       </c>
@@ -3460,7 +3450,7 @@
       <c r="AF41" s="7"/>
       <c r="AG41" s="15"/>
     </row>
-    <row r="42" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:34" ht="37.5" customHeight="1">
       <c r="B42" s="6" t="s">
         <v>62</v>
       </c>
@@ -3500,7 +3490,7 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="15"/>
     </row>
-    <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:34" ht="37.5" customHeight="1">
       <c r="B43" s="6" t="s">
         <v>71</v>
       </c>
@@ -3538,12 +3528,12 @@
       <c r="AF43" s="9"/>
       <c r="AG43" s="9"/>
     </row>
-    <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:34" ht="37.5" customHeight="1">
       <c r="B45" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:34" ht="37.5" customHeight="1">
       <c r="B46" s="3">
         <v>0</v>
       </c>
@@ -3588,7 +3578,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:34" ht="37.5" customHeight="1">
       <c r="B47" s="6" t="s">
         <v>76</v>
       </c>
@@ -3628,7 +3618,7 @@
       <c r="AF47" s="7"/>
       <c r="AG47" s="15"/>
     </row>
-    <row r="48" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:34" ht="37.5" customHeight="1">
       <c r="B48" s="6" t="s">
         <v>62</v>
       </c>
@@ -3648,7 +3638,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="15"/>
       <c r="R48" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -3666,20 +3656,20 @@
       <c r="AF48" s="7"/>
       <c r="AG48" s="15"/>
     </row>
-    <row r="49" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:34" ht="37.5" customHeight="1">
       <c r="B49" s="6" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:34" ht="37.5" customHeight="1">
       <c r="B50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="2:34" ht="37.5" customHeight="1">
       <c r="B51" s="5">
         <v>0</v>
       </c>
@@ -3724,9 +3714,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:34" ht="37.5" customHeight="1">
       <c r="B52" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -3736,7 +3726,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="15"/>
       <c r="J52" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -3754,7 +3744,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
@@ -3764,9 +3754,9 @@
       <c r="AF52" s="7"/>
       <c r="AG52" s="15"/>
     </row>
-    <row r="53" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:34" ht="37.5" customHeight="1">
       <c r="B53" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -3792,12 +3782,12 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="55" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:34" ht="37.5" customHeight="1">
       <c r="B55" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:34" ht="37.5" customHeight="1">
       <c r="B56" s="5">
         <v>0</v>
       </c>
@@ -3842,9 +3832,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:34" ht="37.5" customHeight="1">
       <c r="B57" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3882,7 +3872,7 @@
       <c r="AF57" s="7"/>
       <c r="AG57" s="15"/>
     </row>
-    <row r="58" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:34" ht="37.5" customHeight="1">
       <c r="B58" s="24" t="s">
         <v>62</v>
       </c>
@@ -3912,12 +3902,12 @@
       <c r="X58" s="7"/>
       <c r="Y58" s="15"/>
     </row>
-    <row r="60" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:34" ht="37.5" customHeight="1">
       <c r="B60" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="2:34" ht="37.5" customHeight="1">
       <c r="B61" s="5">
         <v>0</v>
       </c>
@@ -3962,9 +3952,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:34" ht="37.5" customHeight="1">
       <c r="B62" s="10" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -3974,7 +3964,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="11"/>
       <c r="J62" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -3984,7 +3974,7 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
@@ -4002,7 +3992,7 @@
       <c r="AF62" s="7"/>
       <c r="AG62" s="15"/>
     </row>
-    <row r="63" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:34" ht="37.5" customHeight="1">
       <c r="B63" s="24"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -4028,9 +4018,9 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="65" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:34" ht="37.5" customHeight="1">
       <c r="B65" s="25" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4048,7 +4038,7 @@
       <c r="P65" s="25"/>
       <c r="Q65" s="25"/>
       <c r="R65" s="25" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="S65" s="25"/>
       <c r="T65" s="25"/>
@@ -4067,7 +4057,7 @@
       <c r="AG65" s="25"/>
       <c r="AH65" s="25"/>
     </row>
-    <row r="66" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:34" ht="37.5" customHeight="1">
       <c r="B66" s="26">
         <v>0</v>
       </c>
@@ -4112,9 +4102,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:34" ht="37.5" customHeight="1">
       <c r="B67" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
@@ -4124,7 +4114,7 @@
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
       <c r="J67" s="29" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="K67" s="30"/>
       <c r="L67" s="30"/>
@@ -4134,7 +4124,7 @@
       <c r="P67" s="30"/>
       <c r="Q67" s="31"/>
       <c r="R67" s="29" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="S67" s="30"/>
       <c r="T67" s="30"/>
@@ -4153,9 +4143,9 @@
       <c r="AG67" s="28"/>
       <c r="AH67" s="25"/>
     </row>
-    <row r="68" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:34" ht="37.5" customHeight="1">
       <c r="B68" s="29" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -4173,7 +4163,7 @@
       <c r="P68" s="27"/>
       <c r="Q68" s="28"/>
       <c r="R68" s="32" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="S68" s="33"/>
       <c r="T68" s="33"/>
@@ -4192,7 +4182,7 @@
       <c r="AG68" s="35"/>
       <c r="AH68" s="25"/>
     </row>
-    <row r="69" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:34" ht="37.5" customHeight="1">
       <c r="B69" s="10" t="s">
         <v>63</v>
       </c>
@@ -4229,7 +4219,7 @@
       <c r="AG69" s="33"/>
       <c r="AH69" s="25"/>
     </row>
-    <row r="70" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:34" ht="37.5" customHeight="1">
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
@@ -4264,12 +4254,12 @@
       <c r="AG70" s="25"/>
       <c r="AH70" s="25"/>
     </row>
-    <row r="71" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:34" ht="37.5" customHeight="1">
       <c r="B71" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="2:34" ht="37.5" customHeight="1">
       <c r="B72" s="3">
         <v>0</v>
       </c>
@@ -4314,9 +4304,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:34" ht="37.5" customHeight="1">
       <c r="B73" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -4344,7 +4334,7 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="15"/>
       <c r="Z73" s="6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
@@ -4354,9 +4344,9 @@
       <c r="AF73" s="7"/>
       <c r="AG73" s="15"/>
     </row>
-    <row r="74" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:34" ht="37.5" customHeight="1">
       <c r="B74" s="6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -4394,7 +4384,7 @@
       <c r="AF74" s="7"/>
       <c r="AG74" s="15"/>
     </row>
-    <row r="75" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:34" ht="37.5" customHeight="1">
       <c r="B75" s="6" t="s">
         <v>63</v>
       </c>
@@ -4430,12 +4420,12 @@
       <c r="AF75" s="9"/>
       <c r="AG75" s="9"/>
     </row>
-    <row r="77" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:34" ht="37.5" customHeight="1">
       <c r="B77" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="78" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="2:34" ht="37.5" customHeight="1">
       <c r="B78" s="3">
         <v>0</v>
       </c>
@@ -4480,9 +4470,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:34" ht="37.5" customHeight="1">
       <c r="B79" s="6" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -4518,12 +4508,12 @@
       <c r="AF79" s="9"/>
       <c r="AG79" s="9"/>
     </row>
-    <row r="81" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:34" ht="37.5" customHeight="1">
       <c r="B81" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="2:34" ht="37.5" customHeight="1">
       <c r="B82" s="3">
         <v>0</v>
       </c>
@@ -4568,9 +4558,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:34" ht="37.5" customHeight="1">
       <c r="B83" s="6" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -4608,7 +4598,7 @@
       <c r="AF83" s="7"/>
       <c r="AG83" s="15"/>
     </row>
-    <row r="84" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:34" ht="37.5" customHeight="1">
       <c r="B84" s="24" t="s">
         <v>62</v>
       </c>
@@ -4638,12 +4628,12 @@
       <c r="X84" s="7"/>
       <c r="Y84" s="15"/>
     </row>
-    <row r="86" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:34" ht="37.5" customHeight="1">
       <c r="B86" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="2:34" ht="37.5" customHeight="1">
       <c r="B87" s="3">
         <v>0</v>
       </c>
@@ -4688,9 +4678,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:34" ht="37.5" customHeight="1">
       <c r="B88" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -4728,7 +4718,7 @@
       <c r="AF88" s="7"/>
       <c r="AG88" s="15"/>
     </row>
-    <row r="89" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:34" ht="37.5" customHeight="1">
       <c r="B89" s="24" t="s">
         <v>62</v>
       </c>
@@ -4758,18 +4748,18 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="15"/>
       <c r="Z89" s="6" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="AA89" s="7"/>
       <c r="AB89" s="7"/>
       <c r="AC89" s="15"/>
     </row>
-    <row r="91" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:34" ht="37.5" customHeight="1">
       <c r="B91" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="92" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="2:34" ht="37.5" customHeight="1">
       <c r="B92" s="3">
         <v>0</v>
       </c>
@@ -4814,9 +4804,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:34" ht="37.5" customHeight="1">
       <c r="B93" s="6" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -4839,16 +4829,16 @@
   <dimension ref="A2:DB45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:106" ht="37.5" customHeight="1">
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -4859,7 +4849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:106" ht="37.5" customHeight="1">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -4987,7 +4977,7 @@
       <c r="CZ3" s="8"/>
       <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:106" ht="37.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -5104,7 +5094,7 @@
       <c r="DA4" s="9"/>
       <c r="DB4" s="8"/>
     </row>
-    <row r="5" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:106" ht="37.5" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -5116,7 +5106,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="15"/>
       <c r="J5" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -5195,7 +5185,7 @@
       <c r="DA5" s="8"/>
       <c r="DB5" s="8"/>
     </row>
-    <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:106" ht="37.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>30</v>
       </c>
@@ -5213,7 +5203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:106" ht="37.5" customHeight="1">
       <c r="B7" s="12" t="s">
         <v>26</v>
       </c>
@@ -5279,7 +5269,7 @@
       <c r="CZ7" s="8"/>
       <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="B8" s="8">
         <v>0</v>
       </c>
@@ -5290,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -5359,7 +5349,7 @@
       <c r="CZ8" s="7"/>
       <c r="DA8" s="15"/>
     </row>
-    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -5387,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
@@ -5449,7 +5439,7 @@
       <c r="CZ9" s="7"/>
       <c r="DA9" s="15"/>
     </row>
-    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -5485,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
@@ -5503,7 +5493,7 @@
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
       <c r="BV10" s="6" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="BW10" s="7"/>
       <c r="BX10" s="7"/>
@@ -5521,7 +5511,7 @@
       <c r="CJ10" s="9"/>
       <c r="CK10" s="9"/>
     </row>
-    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -5573,20 +5563,20 @@
         <v>0</v>
       </c>
       <c r="AM11" s="8" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="BV11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:106" ht="37.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E12" s="36" t="s">
         <v>27</v>
@@ -5665,7 +5655,7 @@
       <c r="CZ12" s="8"/>
       <c r="DA12" s="4"/>
     </row>
-    <row r="13" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:106" ht="37.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -5742,7 +5732,7 @@
       <c r="CZ13" s="7"/>
       <c r="DA13" s="15"/>
     </row>
-    <row r="14" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:106" ht="37.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -5818,7 +5808,7 @@
       <c r="CZ14" s="7"/>
       <c r="DA14" s="15"/>
     </row>
-    <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:106" ht="37.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>51</v>
@@ -5860,7 +5850,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:106" ht="37.5" customHeight="1">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -5909,7 +5899,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:105" ht="37.5" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
@@ -5989,7 +5979,7 @@
       <c r="CZ17" s="8"/>
       <c r="DA17" s="4"/>
     </row>
-    <row r="18" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:105" ht="37.5" customHeight="1">
       <c r="B18" s="6" t="s">
         <v>52</v>
       </c>
@@ -6065,7 +6055,7 @@
       <c r="CZ18" s="7"/>
       <c r="DA18" s="15"/>
     </row>
-    <row r="19" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:105" ht="37.5" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>54</v>
       </c>
@@ -6139,7 +6129,7 @@
       <c r="CZ19" s="7"/>
       <c r="DA19" s="15"/>
     </row>
-    <row r="20" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:105" ht="37.5" customHeight="1">
       <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
@@ -6211,9 +6201,9 @@
       <c r="CZ20" s="7"/>
       <c r="DA20" s="15"/>
     </row>
-    <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:105" ht="37.5" customHeight="1">
       <c r="B21" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6231,7 +6221,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -6249,9 +6239,9 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:105" ht="37.5" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6269,7 +6259,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -6290,9 +6280,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:105" ht="37.5" customHeight="1">
       <c r="B23" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -6310,7 +6300,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -6370,9 +6360,9 @@
       <c r="CZ23" s="8"/>
       <c r="DA23" s="4"/>
     </row>
-    <row r="24" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:105" ht="37.5" customHeight="1">
       <c r="B24" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -6390,7 +6380,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -6447,7 +6437,7 @@
       <c r="CZ24" s="9"/>
       <c r="DA24" s="11"/>
     </row>
-    <row r="25" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:105" ht="37.5" customHeight="1">
       <c r="B25" s="17" t="s">
         <v>12</v>
       </c>
@@ -6487,9 +6477,9 @@
       <c r="CZ25" s="9"/>
       <c r="DA25" s="9"/>
     </row>
-    <row r="26" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:105" ht="37.5" customHeight="1">
       <c r="B26" s="6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -6507,7 +6497,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -6526,9 +6516,9 @@
       <c r="AG26" s="15"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:105" ht="37.5" customHeight="1">
       <c r="B27" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -6546,7 +6536,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="6" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -6565,12 +6555,12 @@
       <c r="AG27" s="15"/>
       <c r="AI27" s="8"/>
       <c r="BV27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:105" ht="37.5" customHeight="1">
       <c r="B28" s="6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -6588,7 +6578,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -6647,9 +6637,9 @@
       <c r="CZ28" s="8"/>
       <c r="DA28" s="4"/>
     </row>
-    <row r="29" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:105" ht="37.5" customHeight="1">
       <c r="B29" s="24" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -6669,7 +6659,7 @@
       <c r="CB29" s="7"/>
       <c r="CC29" s="7"/>
       <c r="CD29" s="6" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="CE29" s="7"/>
       <c r="CF29" s="7"/>
@@ -6679,7 +6669,7 @@
       <c r="CJ29" s="7"/>
       <c r="CK29" s="15"/>
       <c r="CL29" s="6" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="CM29" s="7"/>
       <c r="CN29" s="7"/>
@@ -6697,7 +6687,7 @@
       <c r="CZ29" s="7"/>
       <c r="DA29" s="15"/>
     </row>
-    <row r="30" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:105" ht="37.5" customHeight="1">
       <c r="AI30" s="8"/>
       <c r="BV30" s="6" t="s">
         <v>58</v>
@@ -6736,9 +6726,9 @@
       <c r="CZ30" s="7"/>
       <c r="DA30" s="15"/>
     </row>
-    <row r="31" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:105" ht="37.5" customHeight="1">
       <c r="BV31" s="10" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="BW31" s="9"/>
       <c r="BX31" s="9"/>
@@ -6756,7 +6746,7 @@
       <c r="CJ31" s="7"/>
       <c r="CK31" s="15"/>
       <c r="CL31" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="CM31" s="7"/>
       <c r="CN31" s="7"/>
@@ -6774,9 +6764,9 @@
       <c r="CZ31" s="7"/>
       <c r="DA31" s="15"/>
     </row>
-    <row r="32" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:105" ht="37.5" customHeight="1">
       <c r="BV32" s="24" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="BW32" s="7"/>
       <c r="BX32" s="7"/>
@@ -6785,9 +6775,9 @@
       <c r="CA32" s="9"/>
       <c r="CB32" s="9"/>
     </row>
-    <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:34" ht="37.5" customHeight="1">
       <c r="B35" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -6822,7 +6812,7 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
     </row>
-    <row r="36" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:34" ht="37.5" customHeight="1">
       <c r="B36" s="5">
         <v>0</v>
       </c>
@@ -6867,7 +6857,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:34" ht="37.5" customHeight="1">
       <c r="B37" s="6" t="s">
         <v>68</v>
       </c>
@@ -6879,7 +6869,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="15"/>
       <c r="J37" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -6889,7 +6879,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="15"/>
       <c r="R37" s="6" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -6907,7 +6897,7 @@
       <c r="AF37" s="7"/>
       <c r="AG37" s="15"/>
     </row>
-    <row r="38" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:34" ht="37.5" customHeight="1">
       <c r="B38" s="6" t="s">
         <v>52</v>
       </c>
@@ -6946,7 +6936,7 @@
       <c r="AG38" s="15"/>
       <c r="AH38" s="8"/>
     </row>
-    <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:34" ht="37.5" customHeight="1">
       <c r="B39" s="6" t="s">
         <v>54</v>
       </c>
@@ -6985,7 +6975,7 @@
       <c r="AG39" s="15"/>
       <c r="AH39" s="8"/>
     </row>
-    <row r="40" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:34" ht="37.5" customHeight="1">
       <c r="B40" s="17" t="s">
         <v>12</v>
       </c>
@@ -7022,9 +7012,9 @@
       <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
     </row>
-    <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:34" ht="37.5" customHeight="1">
       <c r="B41" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -7042,7 +7032,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
@@ -7061,65 +7051,57 @@
       <c r="AG41" s="8"/>
       <c r="AH41" s="8"/>
     </row>
-    <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="15"/>
-      <c r="S43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="15"/>
-      <c r="AA45" t="s">
-        <v>96</v>
-      </c>
+    <row r="43" spans="1:34" ht="37.5" customHeight="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+    </row>
+    <row r="45" spans="1:34" ht="37.5" customHeight="1">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFE24AB-9FCA-BD40-A087-FA29E13B7322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADE4C63-BBDA-8543-9ACE-03C5C6365C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="520" windowWidth="28800" windowHeight="15600" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-40" yWindow="520" windowWidth="28800" windowHeight="15600" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -1748,7 +1748,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2174,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH93"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -4828,8 +4828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADE4C63-BBDA-8543-9ACE-03C5C6365C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C3EFF8-816E-4770-9C44-2FE9CA31B7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="520" windowWidth="28800" windowHeight="15600" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="from server" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="149">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -561,10 +562,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>i</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブロックインベントリ要求プロトコル</t>
     <rPh sb="10" eb="12">
       <t>ヨウキュウ</t>
@@ -1019,13 +1016,7 @@
   <si>
     <t>未実装　インベントリアイテム移動プロトコル</t>
     <rPh sb="0" eb="3">
-      <t>ミジッソウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクジヨ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>イドウ</t>
+      <t>ミジッソウサクジヨイドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1044,7 +1035,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1751,19 +1742,19 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1777,7 +1768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1797,7 +1788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1820,7 +1811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1842,7 +1833,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1865,7 +1856,7 @@
         <v>プレイヤー座標プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1885,7 +1876,7 @@
         <v>イベント返答プロトコル</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1905,7 +1896,7 @@
         <v>プレイヤーインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1923,7 +1914,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1942,7 +1933,7 @@
         <v>要修正　ブロックインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1954,7 +1945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1966,7 +1957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1979,7 +1970,7 @@
         <v>要修正　ブロックインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1991,7 +1982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2003,7 +1994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2015,7 +2006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2027,7 +2018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2039,7 +2030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2051,7 +2042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2063,7 +2054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2118,13 +2109,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2132,7 +2123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2140,7 +2131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -2148,7 +2139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2156,7 +2147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2174,25 +2165,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF23" sqref="AF23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" customWidth="1"/>
-    <col min="18" max="18" width="2.83203125" customWidth="1"/>
-    <col min="26" max="26" width="2.83203125" customWidth="1"/>
-    <col min="34" max="34" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="2.875" customWidth="1"/>
+    <col min="10" max="10" width="2.875" customWidth="1"/>
+    <col min="18" max="18" width="2.875" customWidth="1"/>
+    <col min="26" max="26" width="2.875" customWidth="1"/>
+    <col min="34" max="34" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -2238,7 +2229,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -2279,7 +2270,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -2318,7 +2309,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -2357,7 +2348,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2392,7 +2383,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2427,7 +2418,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2462,7 +2453,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2496,12 +2487,12 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -2534,7 +2525,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -2574,7 +2565,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -2612,7 +2603,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2647,7 +2638,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="8" t="s">
         <v>48</v>
       </c>
@@ -2684,7 +2675,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -2729,7 +2720,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2767,7 +2758,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2801,7 +2792,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2835,12 +2826,12 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1">
+    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2885,7 +2876,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
@@ -2923,7 +2914,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2957,9 +2948,9 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="37.5" customHeight="1">
+    <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2976,9 +2967,7 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="R26" s="8"/>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
@@ -2995,7 +2984,7 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
     </row>
-    <row r="27" spans="2:34" ht="37.5" customHeight="1">
+    <row r="27" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -3040,7 +3029,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="37.5" customHeight="1">
+    <row r="28" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
         <v>60</v>
       </c>
@@ -3052,13 +3041,13 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -3082,9 +3071,9 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="15"/>
     </row>
-    <row r="29" spans="2:34" ht="37.5" customHeight="1">
+    <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3120,9 +3109,9 @@
       <c r="AF29" s="7"/>
       <c r="AG29" s="15"/>
     </row>
-    <row r="30" spans="2:34" ht="37.5" customHeight="1">
+    <row r="30" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -3140,7 +3129,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -3158,7 +3147,7 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="15"/>
     </row>
-    <row r="31" spans="2:34" ht="37.5" customHeight="1">
+    <row r="31" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -3176,12 +3165,12 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="33" spans="2:34" ht="37.5" customHeight="1">
+    <row r="33" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="2:34" ht="37.5" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -3226,7 +3215,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="37.5" customHeight="1">
+    <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="6" t="s">
         <v>68</v>
       </c>
@@ -3256,7 +3245,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
@@ -3266,9 +3255,9 @@
       <c r="AF35" s="7"/>
       <c r="AG35" s="15"/>
     </row>
-    <row r="36" spans="2:34" ht="37.5" customHeight="1">
+    <row r="36" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -3278,7 +3267,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -3306,7 +3295,7 @@
       <c r="AF36" s="7"/>
       <c r="AG36" s="15"/>
     </row>
-    <row r="37" spans="2:34" ht="37.5" customHeight="1">
+    <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>63</v>
       </c>
@@ -3342,7 +3331,7 @@
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
     </row>
-    <row r="38" spans="2:34" ht="37.5" customHeight="1">
+    <row r="38" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -3360,12 +3349,12 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="2:34" ht="37.5" customHeight="1">
+    <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="2:34" ht="37.5" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -3410,7 +3399,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:34" ht="37.5" customHeight="1">
+    <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
         <v>69</v>
       </c>
@@ -3450,7 +3439,7 @@
       <c r="AF41" s="7"/>
       <c r="AG41" s="15"/>
     </row>
-    <row r="42" spans="2:34" ht="37.5" customHeight="1">
+    <row r="42" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="6" t="s">
         <v>62</v>
       </c>
@@ -3490,7 +3479,7 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="15"/>
     </row>
-    <row r="43" spans="2:34" ht="37.5" customHeight="1">
+    <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="6" t="s">
         <v>71</v>
       </c>
@@ -3528,12 +3517,12 @@
       <c r="AF43" s="9"/>
       <c r="AG43" s="9"/>
     </row>
-    <row r="45" spans="2:34" ht="37.5" customHeight="1">
+    <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="2:34" ht="37.5" customHeight="1">
+    <row r="46" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="3">
         <v>0</v>
       </c>
@@ -3578,7 +3567,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:34" ht="37.5" customHeight="1">
+    <row r="47" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="6" t="s">
         <v>76</v>
       </c>
@@ -3618,7 +3607,7 @@
       <c r="AF47" s="7"/>
       <c r="AG47" s="15"/>
     </row>
-    <row r="48" spans="2:34" ht="37.5" customHeight="1">
+    <row r="48" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="6" t="s">
         <v>62</v>
       </c>
@@ -3656,20 +3645,20 @@
       <c r="AF48" s="7"/>
       <c r="AG48" s="15"/>
     </row>
-    <row r="49" spans="2:34" ht="37.5" customHeight="1">
+    <row r="49" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="2:34" ht="37.5" customHeight="1">
+    <row r="50" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="2:34" ht="37.5" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="5">
         <v>0</v>
       </c>
@@ -3714,9 +3703,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:34" ht="37.5" customHeight="1">
+    <row r="52" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -3726,7 +3715,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="15"/>
       <c r="J52" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -3744,7 +3733,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
@@ -3754,9 +3743,9 @@
       <c r="AF52" s="7"/>
       <c r="AG52" s="15"/>
     </row>
-    <row r="53" spans="2:34" ht="37.5" customHeight="1">
+    <row r="53" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -3782,12 +3771,12 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="55" spans="2:34" ht="37.5" customHeight="1">
+    <row r="55" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="2:34" ht="37.5" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="5">
         <v>0</v>
       </c>
@@ -3832,9 +3821,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:34" ht="37.5" customHeight="1">
+    <row r="57" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3872,7 +3861,7 @@
       <c r="AF57" s="7"/>
       <c r="AG57" s="15"/>
     </row>
-    <row r="58" spans="2:34" ht="37.5" customHeight="1">
+    <row r="58" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="24" t="s">
         <v>62</v>
       </c>
@@ -3902,12 +3891,12 @@
       <c r="X58" s="7"/>
       <c r="Y58" s="15"/>
     </row>
-    <row r="60" spans="2:34" ht="37.5" customHeight="1">
+    <row r="60" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="2:34" ht="37.5" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="5">
         <v>0</v>
       </c>
@@ -3952,9 +3941,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="2:34" ht="37.5" customHeight="1">
+    <row r="62" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -3964,7 +3953,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="11"/>
       <c r="J62" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -3974,7 +3963,7 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
@@ -3992,7 +3981,7 @@
       <c r="AF62" s="7"/>
       <c r="AG62" s="15"/>
     </row>
-    <row r="63" spans="2:34" ht="37.5" customHeight="1">
+    <row r="63" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="24"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -4018,9 +4007,9 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="65" spans="2:34" ht="37.5" customHeight="1">
+    <row r="65" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4038,7 +4027,7 @@
       <c r="P65" s="25"/>
       <c r="Q65" s="25"/>
       <c r="R65" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S65" s="25"/>
       <c r="T65" s="25"/>
@@ -4057,7 +4046,7 @@
       <c r="AG65" s="25"/>
       <c r="AH65" s="25"/>
     </row>
-    <row r="66" spans="2:34" ht="37.5" customHeight="1">
+    <row r="66" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="26">
         <v>0</v>
       </c>
@@ -4102,9 +4091,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:34" ht="37.5" customHeight="1">
+    <row r="67" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
@@ -4114,7 +4103,7 @@
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
       <c r="J67" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K67" s="30"/>
       <c r="L67" s="30"/>
@@ -4124,7 +4113,7 @@
       <c r="P67" s="30"/>
       <c r="Q67" s="31"/>
       <c r="R67" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S67" s="30"/>
       <c r="T67" s="30"/>
@@ -4143,9 +4132,9 @@
       <c r="AG67" s="28"/>
       <c r="AH67" s="25"/>
     </row>
-    <row r="68" spans="2:34" ht="37.5" customHeight="1">
+    <row r="68" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -4163,7 +4152,7 @@
       <c r="P68" s="27"/>
       <c r="Q68" s="28"/>
       <c r="R68" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S68" s="33"/>
       <c r="T68" s="33"/>
@@ -4182,7 +4171,7 @@
       <c r="AG68" s="35"/>
       <c r="AH68" s="25"/>
     </row>
-    <row r="69" spans="2:34" ht="37.5" customHeight="1">
+    <row r="69" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="10" t="s">
         <v>63</v>
       </c>
@@ -4219,7 +4208,7 @@
       <c r="AG69" s="33"/>
       <c r="AH69" s="25"/>
     </row>
-    <row r="70" spans="2:34" ht="37.5" customHeight="1">
+    <row r="70" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
@@ -4254,12 +4243,12 @@
       <c r="AG70" s="25"/>
       <c r="AH70" s="25"/>
     </row>
-    <row r="71" spans="2:34" ht="37.5" customHeight="1">
+    <row r="71" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" spans="2:34" ht="37.5" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="3">
         <v>0</v>
       </c>
@@ -4304,9 +4293,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="2:34" ht="37.5" customHeight="1">
+    <row r="73" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -4334,7 +4323,7 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="15"/>
       <c r="Z73" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
@@ -4344,9 +4333,9 @@
       <c r="AF73" s="7"/>
       <c r="AG73" s="15"/>
     </row>
-    <row r="74" spans="2:34" ht="37.5" customHeight="1">
+    <row r="74" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -4384,7 +4373,7 @@
       <c r="AF74" s="7"/>
       <c r="AG74" s="15"/>
     </row>
-    <row r="75" spans="2:34" ht="37.5" customHeight="1">
+    <row r="75" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="6" t="s">
         <v>63</v>
       </c>
@@ -4420,12 +4409,12 @@
       <c r="AF75" s="9"/>
       <c r="AG75" s="9"/>
     </row>
-    <row r="77" spans="2:34" ht="37.5" customHeight="1">
+    <row r="77" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="2:34" ht="37.5" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3">
         <v>0</v>
       </c>
@@ -4470,9 +4459,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="2:34" ht="37.5" customHeight="1">
+    <row r="79" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -4508,12 +4497,12 @@
       <c r="AF79" s="9"/>
       <c r="AG79" s="9"/>
     </row>
-    <row r="81" spans="2:34" ht="37.5" customHeight="1">
+    <row r="81" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="2:34" ht="37.5" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="3">
         <v>0</v>
       </c>
@@ -4558,9 +4547,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="2:34" ht="37.5" customHeight="1">
+    <row r="83" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -4598,7 +4587,7 @@
       <c r="AF83" s="7"/>
       <c r="AG83" s="15"/>
     </row>
-    <row r="84" spans="2:34" ht="37.5" customHeight="1">
+    <row r="84" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="24" t="s">
         <v>62</v>
       </c>
@@ -4628,12 +4617,12 @@
       <c r="X84" s="7"/>
       <c r="Y84" s="15"/>
     </row>
-    <row r="86" spans="2:34" ht="37.5" customHeight="1">
+    <row r="86" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="87" spans="2:34" ht="37.5" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="3">
         <v>0</v>
       </c>
@@ -4678,9 +4667,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="2:34" ht="37.5" customHeight="1">
+    <row r="88" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -4718,7 +4707,7 @@
       <c r="AF88" s="7"/>
       <c r="AG88" s="15"/>
     </row>
-    <row r="89" spans="2:34" ht="37.5" customHeight="1">
+    <row r="89" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="24" t="s">
         <v>62</v>
       </c>
@@ -4748,18 +4737,18 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="15"/>
       <c r="Z89" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA89" s="7"/>
       <c r="AB89" s="7"/>
       <c r="AC89" s="15"/>
     </row>
-    <row r="91" spans="2:34" ht="37.5" customHeight="1">
+    <row r="91" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="2:34" ht="37.5" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="3">
         <v>0</v>
       </c>
@@ -4804,9 +4793,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="2:34" ht="37.5" customHeight="1">
+    <row r="93" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -4832,13 +4821,13 @@
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:106" ht="37.5" customHeight="1">
+    <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -4849,7 +4838,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="37.5" customHeight="1">
+    <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -4977,7 +4966,7 @@
       <c r="CZ3" s="8"/>
       <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:106" ht="37.5" customHeight="1">
+    <row r="4" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -5094,7 +5083,7 @@
       <c r="DA4" s="9"/>
       <c r="DB4" s="8"/>
     </row>
-    <row r="5" spans="1:106" ht="37.5" customHeight="1">
+    <row r="5" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -5106,7 +5095,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="15"/>
       <c r="J5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -5185,7 +5174,7 @@
       <c r="DA5" s="8"/>
       <c r="DB5" s="8"/>
     </row>
-    <row r="6" spans="1:106" ht="37.5" customHeight="1">
+    <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>30</v>
       </c>
@@ -5203,7 +5192,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:106" ht="37.5" customHeight="1">
+    <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>26</v>
       </c>
@@ -5269,7 +5258,7 @@
       <c r="CZ7" s="8"/>
       <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8">
         <v>0</v>
       </c>
@@ -5280,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -5349,7 +5338,7 @@
       <c r="CZ8" s="7"/>
       <c r="DA8" s="15"/>
     </row>
-    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -5377,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
@@ -5439,7 +5428,7 @@
       <c r="CZ9" s="7"/>
       <c r="DA9" s="15"/>
     </row>
-    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -5475,7 +5464,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
@@ -5493,7 +5482,7 @@
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
       <c r="BV10" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BW10" s="7"/>
       <c r="BX10" s="7"/>
@@ -5511,7 +5500,7 @@
       <c r="CJ10" s="9"/>
       <c r="CK10" s="9"/>
     </row>
-    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -5563,20 +5552,20 @@
         <v>0</v>
       </c>
       <c r="AM11" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BV11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:106" ht="37.5" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" s="36" t="s">
         <v>27</v>
@@ -5655,7 +5644,7 @@
       <c r="CZ12" s="8"/>
       <c r="DA12" s="4"/>
     </row>
-    <row r="13" spans="1:106" ht="37.5" customHeight="1">
+    <row r="13" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -5732,7 +5721,7 @@
       <c r="CZ13" s="7"/>
       <c r="DA13" s="15"/>
     </row>
-    <row r="14" spans="1:106" ht="37.5" customHeight="1">
+    <row r="14" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -5808,7 +5797,7 @@
       <c r="CZ14" s="7"/>
       <c r="DA14" s="15"/>
     </row>
-    <row r="15" spans="1:106" ht="37.5" customHeight="1">
+    <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>51</v>
@@ -5850,7 +5839,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:106" ht="37.5" customHeight="1">
+    <row r="16" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -5899,7 +5888,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:105" ht="37.5" customHeight="1">
+    <row r="17" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
@@ -5979,7 +5968,7 @@
       <c r="CZ17" s="8"/>
       <c r="DA17" s="4"/>
     </row>
-    <row r="18" spans="2:105" ht="37.5" customHeight="1">
+    <row r="18" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6" t="s">
         <v>52</v>
       </c>
@@ -6055,7 +6044,7 @@
       <c r="CZ18" s="7"/>
       <c r="DA18" s="15"/>
     </row>
-    <row r="19" spans="2:105" ht="37.5" customHeight="1">
+    <row r="19" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>54</v>
       </c>
@@ -6129,7 +6118,7 @@
       <c r="CZ19" s="7"/>
       <c r="DA19" s="15"/>
     </row>
-    <row r="20" spans="2:105" ht="37.5" customHeight="1">
+    <row r="20" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
@@ -6201,9 +6190,9 @@
       <c r="CZ20" s="7"/>
       <c r="DA20" s="15"/>
     </row>
-    <row r="21" spans="2:105" ht="37.5" customHeight="1">
+    <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6221,7 +6210,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -6239,9 +6228,9 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:105" ht="37.5" customHeight="1">
+    <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6259,7 +6248,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -6280,9 +6269,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:105" ht="37.5" customHeight="1">
+    <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -6300,7 +6289,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -6360,9 +6349,9 @@
       <c r="CZ23" s="8"/>
       <c r="DA23" s="4"/>
     </row>
-    <row r="24" spans="2:105" ht="37.5" customHeight="1">
+    <row r="24" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -6380,7 +6369,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -6437,7 +6426,7 @@
       <c r="CZ24" s="9"/>
       <c r="DA24" s="11"/>
     </row>
-    <row r="25" spans="2:105" ht="37.5" customHeight="1">
+    <row r="25" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="17" t="s">
         <v>12</v>
       </c>
@@ -6477,9 +6466,9 @@
       <c r="CZ25" s="9"/>
       <c r="DA25" s="9"/>
     </row>
-    <row r="26" spans="2:105" ht="37.5" customHeight="1">
+    <row r="26" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -6497,7 +6486,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -6516,9 +6505,9 @@
       <c r="AG26" s="15"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="2:105" ht="37.5" customHeight="1">
+    <row r="27" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -6536,7 +6525,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -6555,12 +6544,12 @@
       <c r="AG27" s="15"/>
       <c r="AI27" s="8"/>
       <c r="BV27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="2:105" ht="37.5" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -6578,7 +6567,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -6637,9 +6626,9 @@
       <c r="CZ28" s="8"/>
       <c r="DA28" s="4"/>
     </row>
-    <row r="29" spans="2:105" ht="37.5" customHeight="1">
+    <row r="29" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -6659,7 +6648,7 @@
       <c r="CB29" s="7"/>
       <c r="CC29" s="7"/>
       <c r="CD29" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CE29" s="7"/>
       <c r="CF29" s="7"/>
@@ -6669,7 +6658,7 @@
       <c r="CJ29" s="7"/>
       <c r="CK29" s="15"/>
       <c r="CL29" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CM29" s="7"/>
       <c r="CN29" s="7"/>
@@ -6687,7 +6676,7 @@
       <c r="CZ29" s="7"/>
       <c r="DA29" s="15"/>
     </row>
-    <row r="30" spans="2:105" ht="37.5" customHeight="1">
+    <row r="30" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI30" s="8"/>
       <c r="BV30" s="6" t="s">
         <v>58</v>
@@ -6726,9 +6715,9 @@
       <c r="CZ30" s="7"/>
       <c r="DA30" s="15"/>
     </row>
-    <row r="31" spans="2:105" ht="37.5" customHeight="1">
+    <row r="31" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BV31" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BW31" s="9"/>
       <c r="BX31" s="9"/>
@@ -6746,7 +6735,7 @@
       <c r="CJ31" s="7"/>
       <c r="CK31" s="15"/>
       <c r="CL31" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CM31" s="7"/>
       <c r="CN31" s="7"/>
@@ -6764,9 +6753,9 @@
       <c r="CZ31" s="7"/>
       <c r="DA31" s="15"/>
     </row>
-    <row r="32" spans="2:105" ht="37.5" customHeight="1">
+    <row r="32" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BV32" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BW32" s="7"/>
       <c r="BX32" s="7"/>
@@ -6775,9 +6764,9 @@
       <c r="CA32" s="9"/>
       <c r="CB32" s="9"/>
     </row>
-    <row r="35" spans="1:34" ht="37.5" customHeight="1">
+    <row r="35" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -6812,7 +6801,7 @@
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
     </row>
-    <row r="36" spans="1:34" ht="37.5" customHeight="1">
+    <row r="36" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="5">
         <v>0</v>
       </c>
@@ -6857,7 +6846,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="37.5" customHeight="1">
+    <row r="37" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>68</v>
       </c>
@@ -6869,7 +6858,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="15"/>
       <c r="J37" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -6879,7 +6868,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="15"/>
       <c r="R37" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -6897,7 +6886,7 @@
       <c r="AF37" s="7"/>
       <c r="AG37" s="15"/>
     </row>
-    <row r="38" spans="1:34" ht="37.5" customHeight="1">
+    <row r="38" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
         <v>52</v>
       </c>
@@ -6936,7 +6925,7 @@
       <c r="AG38" s="15"/>
       <c r="AH38" s="8"/>
     </row>
-    <row r="39" spans="1:34" ht="37.5" customHeight="1">
+    <row r="39" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="6" t="s">
         <v>54</v>
       </c>
@@ -6975,7 +6964,7 @@
       <c r="AG39" s="15"/>
       <c r="AH39" s="8"/>
     </row>
-    <row r="40" spans="1:34" ht="37.5" customHeight="1">
+    <row r="40" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="17" t="s">
         <v>12</v>
       </c>
@@ -7012,9 +7001,9 @@
       <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
     </row>
-    <row r="41" spans="1:34" ht="37.5" customHeight="1">
+    <row r="41" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -7032,7 +7021,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
@@ -7051,7 +7040,7 @@
       <c r="AG41" s="8"/>
       <c r="AH41" s="8"/>
     </row>
-    <row r="43" spans="1:34" ht="37.5" customHeight="1">
+    <row r="43" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -7070,7 +7059,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="45" spans="1:34" ht="37.5" customHeight="1">
+    <row r="45" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C3EFF8-816E-4770-9C44-2FE9CA31B7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{D4718A0A-6F4B-47C9-AE68-88D4BBF96410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-21600" yWindow="2835" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -2165,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF23" sqref="AF23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{D4718A0A-6F4B-47C9-AE68-88D4BBF96410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6869FC-5636-954B-9B35-C027CA651D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="2835" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="from server" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="151">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -1027,6 +1026,20 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つかみインベントリ更新イベント</t>
+    <rPh sb="5" eb="7">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short イベントID  5</t>
+    <rPh sb="13" eb="14">
+      <t>ザヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1035,7 +1048,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1739,22 +1752,22 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
-    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1768,7 +1781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1788,7 +1801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1811,7 +1824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1833,7 +1846,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1856,7 +1869,7 @@
         <v>プレイヤー座標プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1876,7 +1889,7 @@
         <v>イベント返答プロトコル</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1896,7 +1909,7 @@
         <v>プレイヤーインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1914,7 +1927,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1933,7 +1946,7 @@
         <v>要修正　ブロックインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1945,7 +1958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1957,7 +1970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1970,7 +1983,7 @@
         <v>要修正　ブロックインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1982,7 +1995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1994,7 +2007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2006,7 +2019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2018,7 +2031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2030,7 +2043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2042,7 +2055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2054,7 +2067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2109,13 +2122,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2123,7 +2136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2131,7 +2144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -2139,7 +2152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2147,7 +2160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2165,25 +2178,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="2.875" customWidth="1"/>
-    <col min="10" max="10" width="2.875" customWidth="1"/>
-    <col min="18" max="18" width="2.875" customWidth="1"/>
-    <col min="26" max="26" width="2.875" customWidth="1"/>
-    <col min="34" max="34" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" customWidth="1"/>
+    <col min="18" max="18" width="2.83203125" customWidth="1"/>
+    <col min="26" max="26" width="2.83203125" customWidth="1"/>
+    <col min="34" max="34" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -2229,7 +2242,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -2270,7 +2283,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -2309,7 +2322,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -2348,7 +2361,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2383,7 +2396,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2418,7 +2431,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2453,7 +2466,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2487,12 +2500,12 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -2525,7 +2538,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -2565,7 +2578,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -2603,7 +2616,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2638,7 +2651,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1">
       <c r="B17" s="8" t="s">
         <v>48</v>
       </c>
@@ -2675,7 +2688,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -2720,7 +2733,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2758,7 +2771,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2792,7 +2805,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2826,12 +2839,12 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1">
       <c r="B22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:34" ht="37.5" customHeight="1">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2876,7 +2889,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1">
       <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
@@ -2914,7 +2927,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2948,7 +2961,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:34" ht="37.5" customHeight="1">
       <c r="B26" t="s">
         <v>147</v>
       </c>
@@ -2984,7 +2997,7 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
     </row>
-    <row r="27" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:34" ht="37.5" customHeight="1">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -3029,7 +3042,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:34" ht="37.5" customHeight="1">
       <c r="B28" s="6" t="s">
         <v>60</v>
       </c>
@@ -3071,7 +3084,7 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="15"/>
     </row>
-    <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:34" ht="37.5" customHeight="1">
       <c r="B29" s="6" t="s">
         <v>144</v>
       </c>
@@ -3109,7 +3122,7 @@
       <c r="AF29" s="7"/>
       <c r="AG29" s="15"/>
     </row>
-    <row r="30" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:34" ht="37.5" customHeight="1">
       <c r="B30" s="10" t="s">
         <v>145</v>
       </c>
@@ -3147,7 +3160,7 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="15"/>
     </row>
-    <row r="31" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:34" ht="37.5" customHeight="1">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -3165,12 +3178,12 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="33" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:34" ht="37.5" customHeight="1">
       <c r="B33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:34" ht="37.5" customHeight="1">
       <c r="B34" s="3">
         <v>0</v>
       </c>
@@ -3215,7 +3228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:34" ht="37.5" customHeight="1">
       <c r="B35" s="6" t="s">
         <v>68</v>
       </c>
@@ -3255,7 +3268,7 @@
       <c r="AF35" s="7"/>
       <c r="AG35" s="15"/>
     </row>
-    <row r="36" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:34" ht="37.5" customHeight="1">
       <c r="B36" s="6" t="s">
         <v>116</v>
       </c>
@@ -3295,7 +3308,7 @@
       <c r="AF36" s="7"/>
       <c r="AG36" s="15"/>
     </row>
-    <row r="37" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:34" ht="37.5" customHeight="1">
       <c r="B37" s="6" t="s">
         <v>63</v>
       </c>
@@ -3331,7 +3344,7 @@
       <c r="AF37" s="9"/>
       <c r="AG37" s="9"/>
     </row>
-    <row r="38" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:34" ht="37.5" customHeight="1">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -3349,12 +3362,12 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:34" ht="37.5" customHeight="1">
       <c r="B39" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:34" ht="37.5" customHeight="1">
       <c r="B40" s="3">
         <v>0</v>
       </c>
@@ -3399,7 +3412,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:34" ht="37.5" customHeight="1">
       <c r="B41" s="6" t="s">
         <v>69</v>
       </c>
@@ -3439,7 +3452,7 @@
       <c r="AF41" s="7"/>
       <c r="AG41" s="15"/>
     </row>
-    <row r="42" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:34" ht="37.5" customHeight="1">
       <c r="B42" s="6" t="s">
         <v>62</v>
       </c>
@@ -3479,7 +3492,7 @@
       <c r="AF42" s="7"/>
       <c r="AG42" s="15"/>
     </row>
-    <row r="43" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:34" ht="37.5" customHeight="1">
       <c r="B43" s="6" t="s">
         <v>71</v>
       </c>
@@ -3517,12 +3530,12 @@
       <c r="AF43" s="9"/>
       <c r="AG43" s="9"/>
     </row>
-    <row r="45" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:34" ht="37.5" customHeight="1">
       <c r="B45" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:34" ht="37.5" customHeight="1">
       <c r="B46" s="3">
         <v>0</v>
       </c>
@@ -3567,7 +3580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:34" ht="37.5" customHeight="1">
       <c r="B47" s="6" t="s">
         <v>76</v>
       </c>
@@ -3607,7 +3620,7 @@
       <c r="AF47" s="7"/>
       <c r="AG47" s="15"/>
     </row>
-    <row r="48" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:34" ht="37.5" customHeight="1">
       <c r="B48" s="6" t="s">
         <v>62</v>
       </c>
@@ -3645,7 +3658,7 @@
       <c r="AF48" s="7"/>
       <c r="AG48" s="15"/>
     </row>
-    <row r="49" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:34" ht="37.5" customHeight="1">
       <c r="B49" s="6" t="s">
         <v>129</v>
       </c>
@@ -3653,12 +3666,12 @@
       <c r="D49" s="7"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:34" ht="37.5" customHeight="1">
       <c r="B50" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:34" ht="37.5" customHeight="1">
       <c r="B51" s="5">
         <v>0</v>
       </c>
@@ -3703,7 +3716,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:34" ht="37.5" customHeight="1">
       <c r="B52" s="6" t="s">
         <v>93</v>
       </c>
@@ -3743,7 +3756,7 @@
       <c r="AF52" s="7"/>
       <c r="AG52" s="15"/>
     </row>
-    <row r="53" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:34" ht="37.5" customHeight="1">
       <c r="B53" s="6" t="s">
         <v>83</v>
       </c>
@@ -3771,12 +3784,12 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="55" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:34" ht="37.5" customHeight="1">
       <c r="B55" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:34" ht="37.5" customHeight="1">
       <c r="B56" s="5">
         <v>0</v>
       </c>
@@ -3821,7 +3834,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:34" ht="37.5" customHeight="1">
       <c r="B57" s="6" t="s">
         <v>88</v>
       </c>
@@ -3861,7 +3874,7 @@
       <c r="AF57" s="7"/>
       <c r="AG57" s="15"/>
     </row>
-    <row r="58" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:34" ht="37.5" customHeight="1">
       <c r="B58" s="24" t="s">
         <v>62</v>
       </c>
@@ -3891,12 +3904,12 @@
       <c r="X58" s="7"/>
       <c r="Y58" s="15"/>
     </row>
-    <row r="60" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:34" ht="37.5" customHeight="1">
       <c r="B60" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:34" ht="37.5" customHeight="1">
       <c r="B61" s="5">
         <v>0</v>
       </c>
@@ -3941,7 +3954,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:34" ht="37.5" customHeight="1">
       <c r="B62" s="10" t="s">
         <v>90</v>
       </c>
@@ -3981,7 +3994,7 @@
       <c r="AF62" s="7"/>
       <c r="AG62" s="15"/>
     </row>
-    <row r="63" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:34" ht="37.5" customHeight="1">
       <c r="B63" s="24"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -4007,7 +4020,7 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="65" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:34" ht="37.5" customHeight="1">
       <c r="B65" s="25" t="s">
         <v>140</v>
       </c>
@@ -4046,7 +4059,7 @@
       <c r="AG65" s="25"/>
       <c r="AH65" s="25"/>
     </row>
-    <row r="66" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:34" ht="37.5" customHeight="1">
       <c r="B66" s="26">
         <v>0</v>
       </c>
@@ -4091,7 +4104,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:34" ht="37.5" customHeight="1">
       <c r="B67" s="29" t="s">
         <v>81</v>
       </c>
@@ -4132,7 +4145,7 @@
       <c r="AG67" s="28"/>
       <c r="AH67" s="25"/>
     </row>
-    <row r="68" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:34" ht="37.5" customHeight="1">
       <c r="B68" s="29" t="s">
         <v>115</v>
       </c>
@@ -4171,7 +4184,7 @@
       <c r="AG68" s="35"/>
       <c r="AH68" s="25"/>
     </row>
-    <row r="69" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:34" ht="37.5" customHeight="1">
       <c r="B69" s="10" t="s">
         <v>63</v>
       </c>
@@ -4208,7 +4221,7 @@
       <c r="AG69" s="33"/>
       <c r="AH69" s="25"/>
     </row>
-    <row r="70" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:34" ht="37.5" customHeight="1">
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
@@ -4243,12 +4256,12 @@
       <c r="AG70" s="25"/>
       <c r="AH70" s="25"/>
     </row>
-    <row r="71" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:34" ht="37.5" customHeight="1">
       <c r="B71" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:34" ht="37.5" customHeight="1">
       <c r="B72" s="3">
         <v>0</v>
       </c>
@@ -4293,7 +4306,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:34" ht="37.5" customHeight="1">
       <c r="B73" s="6" t="s">
         <v>97</v>
       </c>
@@ -4333,7 +4346,7 @@
       <c r="AF73" s="7"/>
       <c r="AG73" s="15"/>
     </row>
-    <row r="74" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:34" ht="37.5" customHeight="1">
       <c r="B74" s="6" t="s">
         <v>98</v>
       </c>
@@ -4373,7 +4386,7 @@
       <c r="AF74" s="7"/>
       <c r="AG74" s="15"/>
     </row>
-    <row r="75" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:34" ht="37.5" customHeight="1">
       <c r="B75" s="6" t="s">
         <v>63</v>
       </c>
@@ -4409,12 +4422,12 @@
       <c r="AF75" s="9"/>
       <c r="AG75" s="9"/>
     </row>
-    <row r="77" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:34" ht="37.5" customHeight="1">
       <c r="B77" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:34" ht="37.5" customHeight="1">
       <c r="B78" s="3">
         <v>0</v>
       </c>
@@ -4459,7 +4472,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:34" ht="37.5" customHeight="1">
       <c r="B79" s="6" t="s">
         <v>120</v>
       </c>
@@ -4497,12 +4510,12 @@
       <c r="AF79" s="9"/>
       <c r="AG79" s="9"/>
     </row>
-    <row r="81" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:34" ht="37.5" customHeight="1">
       <c r="B81" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:34" ht="37.5" customHeight="1">
       <c r="B82" s="3">
         <v>0</v>
       </c>
@@ -4547,7 +4560,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:34" ht="37.5" customHeight="1">
       <c r="B83" s="6" t="s">
         <v>125</v>
       </c>
@@ -4587,7 +4600,7 @@
       <c r="AF83" s="7"/>
       <c r="AG83" s="15"/>
     </row>
-    <row r="84" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:34" ht="37.5" customHeight="1">
       <c r="B84" s="24" t="s">
         <v>62</v>
       </c>
@@ -4617,12 +4630,12 @@
       <c r="X84" s="7"/>
       <c r="Y84" s="15"/>
     </row>
-    <row r="86" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:34" ht="37.5" customHeight="1">
       <c r="B86" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:34" ht="37.5" customHeight="1">
       <c r="B87" s="3">
         <v>0</v>
       </c>
@@ -4667,7 +4680,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:34" ht="37.5" customHeight="1">
       <c r="B88" s="6" t="s">
         <v>127</v>
       </c>
@@ -4707,7 +4720,7 @@
       <c r="AF88" s="7"/>
       <c r="AG88" s="15"/>
     </row>
-    <row r="89" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:34" ht="37.5" customHeight="1">
       <c r="B89" s="24" t="s">
         <v>62</v>
       </c>
@@ -4743,12 +4756,12 @@
       <c r="AB89" s="7"/>
       <c r="AC89" s="15"/>
     </row>
-    <row r="91" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:34" ht="37.5" customHeight="1">
       <c r="B91" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:34" ht="37.5" customHeight="1">
       <c r="B92" s="3">
         <v>0</v>
       </c>
@@ -4793,7 +4806,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:34" ht="37.5" customHeight="1">
       <c r="B93" s="6" t="s">
         <v>136</v>
       </c>
@@ -4817,17 +4830,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="AC28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CD37" sqref="CD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:106" ht="37.5" customHeight="1">
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -4838,7 +4851,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:106" ht="37.5" customHeight="1">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -4966,7 +4979,7 @@
       <c r="CZ3" s="8"/>
       <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:106" ht="37.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -5083,7 +5096,7 @@
       <c r="DA4" s="9"/>
       <c r="DB4" s="8"/>
     </row>
-    <row r="5" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:106" ht="37.5" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -5174,7 +5187,7 @@
       <c r="DA5" s="8"/>
       <c r="DB5" s="8"/>
     </row>
-    <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:106" ht="37.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>30</v>
       </c>
@@ -5192,7 +5205,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:106" ht="37.5" customHeight="1">
       <c r="B7" s="12" t="s">
         <v>26</v>
       </c>
@@ -5258,7 +5271,7 @@
       <c r="CZ7" s="8"/>
       <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="B8" s="8">
         <v>0</v>
       </c>
@@ -5338,7 +5351,7 @@
       <c r="CZ8" s="7"/>
       <c r="DA8" s="15"/>
     </row>
-    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -5428,7 +5441,7 @@
       <c r="CZ9" s="7"/>
       <c r="DA9" s="15"/>
     </row>
-    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -5500,7 +5513,7 @@
       <c r="CJ10" s="9"/>
       <c r="CK10" s="9"/>
     </row>
-    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -5558,7 +5571,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:106" ht="37.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8" t="s">
@@ -5644,7 +5657,7 @@
       <c r="CZ12" s="8"/>
       <c r="DA12" s="4"/>
     </row>
-    <row r="13" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:106" ht="37.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -5721,7 +5734,7 @@
       <c r="CZ13" s="7"/>
       <c r="DA13" s="15"/>
     </row>
-    <row r="14" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:106" ht="37.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -5797,7 +5810,7 @@
       <c r="CZ14" s="7"/>
       <c r="DA14" s="15"/>
     </row>
-    <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:106" ht="37.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>51</v>
@@ -5839,7 +5852,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:106" ht="37.5" customHeight="1">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -5888,7 +5901,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:105" ht="37.5" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
@@ -5968,7 +5981,7 @@
       <c r="CZ17" s="8"/>
       <c r="DA17" s="4"/>
     </row>
-    <row r="18" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:105" ht="37.5" customHeight="1">
       <c r="B18" s="6" t="s">
         <v>52</v>
       </c>
@@ -6044,7 +6057,7 @@
       <c r="CZ18" s="7"/>
       <c r="DA18" s="15"/>
     </row>
-    <row r="19" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:105" ht="37.5" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>54</v>
       </c>
@@ -6118,7 +6131,7 @@
       <c r="CZ19" s="7"/>
       <c r="DA19" s="15"/>
     </row>
-    <row r="20" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:105" ht="37.5" customHeight="1">
       <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
@@ -6190,7 +6203,7 @@
       <c r="CZ20" s="7"/>
       <c r="DA20" s="15"/>
     </row>
-    <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:105" ht="37.5" customHeight="1">
       <c r="B21" s="6" t="s">
         <v>106</v>
       </c>
@@ -6228,7 +6241,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:105" ht="37.5" customHeight="1">
       <c r="B22" s="6" t="s">
         <v>103</v>
       </c>
@@ -6269,7 +6282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:105" ht="37.5" customHeight="1">
       <c r="B23" s="6" t="s">
         <v>101</v>
       </c>
@@ -6349,7 +6362,7 @@
       <c r="CZ23" s="8"/>
       <c r="DA23" s="4"/>
     </row>
-    <row r="24" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:105" ht="37.5" customHeight="1">
       <c r="B24" s="6" t="s">
         <v>99</v>
       </c>
@@ -6426,7 +6439,7 @@
       <c r="CZ24" s="9"/>
       <c r="DA24" s="11"/>
     </row>
-    <row r="25" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:105" ht="37.5" customHeight="1">
       <c r="B25" s="17" t="s">
         <v>12</v>
       </c>
@@ -6466,7 +6479,7 @@
       <c r="CZ25" s="9"/>
       <c r="DA25" s="9"/>
     </row>
-    <row r="26" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:105" ht="37.5" customHeight="1">
       <c r="B26" s="6" t="s">
         <v>107</v>
       </c>
@@ -6505,7 +6518,7 @@
       <c r="AG26" s="15"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:105" ht="37.5" customHeight="1">
       <c r="B27" s="6" t="s">
         <v>108</v>
       </c>
@@ -6547,7 +6560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:105" ht="37.5" customHeight="1">
       <c r="B28" s="6" t="s">
         <v>111</v>
       </c>
@@ -6626,7 +6639,7 @@
       <c r="CZ28" s="8"/>
       <c r="DA28" s="4"/>
     </row>
-    <row r="29" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:105" ht="37.5" customHeight="1">
       <c r="B29" s="24" t="s">
         <v>113</v>
       </c>
@@ -6676,7 +6689,7 @@
       <c r="CZ29" s="7"/>
       <c r="DA29" s="15"/>
     </row>
-    <row r="30" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:105" ht="37.5" customHeight="1">
       <c r="AI30" s="8"/>
       <c r="BV30" s="6" t="s">
         <v>58</v>
@@ -6715,7 +6728,7 @@
       <c r="CZ30" s="7"/>
       <c r="DA30" s="15"/>
     </row>
-    <row r="31" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:105" ht="37.5" customHeight="1">
       <c r="BV31" s="10" t="s">
         <v>111</v>
       </c>
@@ -6753,7 +6766,7 @@
       <c r="CZ31" s="7"/>
       <c r="DA31" s="15"/>
     </row>
-    <row r="32" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:105" ht="37.5" customHeight="1">
       <c r="BV32" s="24" t="s">
         <v>113</v>
       </c>
@@ -6764,7 +6777,12 @@
       <c r="CA32" s="9"/>
       <c r="CB32" s="9"/>
     </row>
-    <row r="35" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:105" ht="37.5" customHeight="1">
+      <c r="BV34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:105" ht="37.5" customHeight="1">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -6800,8 +6818,48 @@
       <c r="AF35" s="8"/>
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
-    </row>
-    <row r="36" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BV35" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="2"/>
+      <c r="CD35" s="3">
+        <v>16</v>
+      </c>
+      <c r="CE35" s="1"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="1"/>
+      <c r="CH35" s="1"/>
+      <c r="CI35" s="1"/>
+      <c r="CJ35" s="1"/>
+      <c r="CK35" s="2"/>
+      <c r="CL35" s="5">
+        <v>32</v>
+      </c>
+      <c r="CM35" s="8"/>
+      <c r="CN35" s="8"/>
+      <c r="CO35" s="8"/>
+      <c r="CP35" s="8"/>
+      <c r="CQ35" s="8"/>
+      <c r="CR35" s="8"/>
+      <c r="CS35" s="4"/>
+      <c r="CT35" s="5">
+        <v>48</v>
+      </c>
+      <c r="CU35" s="8"/>
+      <c r="CV35" s="8"/>
+      <c r="CW35" s="8"/>
+      <c r="CX35" s="8"/>
+      <c r="CY35" s="8"/>
+      <c r="CZ35" s="8"/>
+      <c r="DA35" s="4"/>
+    </row>
+    <row r="36" spans="1:105" ht="37.5" customHeight="1">
       <c r="B36" s="5">
         <v>0</v>
       </c>
@@ -6845,8 +6903,46 @@
       <c r="AH36">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BV36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW36" s="7"/>
+      <c r="BX36" s="7"/>
+      <c r="BY36" s="7"/>
+      <c r="BZ36" s="7"/>
+      <c r="CA36" s="7"/>
+      <c r="CB36" s="7"/>
+      <c r="CC36" s="7"/>
+      <c r="CD36" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="CE36" s="7"/>
+      <c r="CF36" s="7"/>
+      <c r="CG36" s="7"/>
+      <c r="CH36" s="7"/>
+      <c r="CI36" s="7"/>
+      <c r="CJ36" s="7"/>
+      <c r="CK36" s="15"/>
+      <c r="CL36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="CM36" s="7"/>
+      <c r="CN36" s="7"/>
+      <c r="CO36" s="7"/>
+      <c r="CP36" s="7"/>
+      <c r="CQ36" s="7"/>
+      <c r="CR36" s="7"/>
+      <c r="CS36" s="7"/>
+      <c r="CT36" s="7"/>
+      <c r="CU36" s="7"/>
+      <c r="CV36" s="7"/>
+      <c r="CW36" s="7"/>
+      <c r="CX36" s="7"/>
+      <c r="CY36" s="7"/>
+      <c r="CZ36" s="7"/>
+      <c r="DA36" s="15"/>
+    </row>
+    <row r="37" spans="1:105" ht="37.5" customHeight="1">
       <c r="B37" s="6" t="s">
         <v>68</v>
       </c>
@@ -6885,8 +6981,44 @@
       <c r="AE37" s="7"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="15"/>
-    </row>
-    <row r="38" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BV37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BW37" s="7"/>
+      <c r="BX37" s="7"/>
+      <c r="BY37" s="7"/>
+      <c r="BZ37" s="7"/>
+      <c r="CA37" s="7"/>
+      <c r="CB37" s="7"/>
+      <c r="CC37" s="7"/>
+      <c r="CD37" s="7"/>
+      <c r="CE37" s="7"/>
+      <c r="CF37" s="7"/>
+      <c r="CG37" s="7"/>
+      <c r="CH37" s="7"/>
+      <c r="CI37" s="7"/>
+      <c r="CJ37" s="7"/>
+      <c r="CK37" s="15"/>
+      <c r="CL37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="CM37" s="7"/>
+      <c r="CN37" s="7"/>
+      <c r="CO37" s="7"/>
+      <c r="CP37" s="7"/>
+      <c r="CQ37" s="7"/>
+      <c r="CR37" s="7"/>
+      <c r="CS37" s="7"/>
+      <c r="CT37" s="7"/>
+      <c r="CU37" s="7"/>
+      <c r="CV37" s="7"/>
+      <c r="CW37" s="7"/>
+      <c r="CX37" s="7"/>
+      <c r="CY37" s="7"/>
+      <c r="CZ37" s="7"/>
+      <c r="DA37" s="15"/>
+    </row>
+    <row r="38" spans="1:105" ht="37.5" customHeight="1">
       <c r="B38" s="6" t="s">
         <v>52</v>
       </c>
@@ -6925,7 +7057,7 @@
       <c r="AG38" s="15"/>
       <c r="AH38" s="8"/>
     </row>
-    <row r="39" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:105" ht="37.5" customHeight="1">
       <c r="B39" s="6" t="s">
         <v>54</v>
       </c>
@@ -6964,7 +7096,7 @@
       <c r="AG39" s="15"/>
       <c r="AH39" s="8"/>
     </row>
-    <row r="40" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:105" ht="37.5" customHeight="1">
       <c r="B40" s="17" t="s">
         <v>12</v>
       </c>
@@ -7001,7 +7133,7 @@
       <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
     </row>
-    <row r="41" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:105" ht="37.5" customHeight="1">
       <c r="B41" s="6" t="s">
         <v>84</v>
       </c>
@@ -7040,7 +7172,7 @@
       <c r="AG41" s="8"/>
       <c r="AH41" s="8"/>
     </row>
-    <row r="43" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:105" ht="37.5" customHeight="1">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -7059,7 +7191,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="45" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:105" ht="37.5" customHeight="1">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6869FC-5636-954B-9B35-C027CA651D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210C3632-EAE8-9442-9663-1DDC6C430B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -1013,13 +1013,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未実装　インベントリアイテム移動プロトコル</t>
-    <rPh sb="0" eb="3">
-      <t>ミジッソウサクジヨイドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>要修正　ブロックインベントリ応答プロトコル</t>
     <rPh sb="0" eb="3">
       <t>ヨウシュウセイ</t>
@@ -1041,6 +1034,10 @@
     <rPh sb="13" eb="14">
       <t>ザヒョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インベントリアイテム移動プロトコル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1752,7 +1749,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1915,7 +1912,7 @@
       </c>
       <c r="B8" s="13" t="str">
         <f>'from client'!$B$26</f>
-        <v>未実装　インベントリアイテム移動プロトコル</v>
+        <v>インベントリアイテム移動プロトコル</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2178,8 +2175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH93"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -2963,7 +2960,7 @@
     </row>
     <row r="26" spans="2:34" ht="37.5" customHeight="1">
       <c r="B26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -4830,7 +4827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AQ24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="CD37" sqref="CD37"/>
     </sheetView>
   </sheetViews>
@@ -6779,12 +6776,12 @@
     </row>
     <row r="34" spans="1:105" ht="37.5" customHeight="1">
       <c r="BV34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:105" ht="37.5" customHeight="1">
       <c r="B35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -6914,7 +6911,7 @@
       <c r="CB36" s="7"/>
       <c r="CC36" s="7"/>
       <c r="CD36" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="CE36" s="7"/>
       <c r="CF36" s="7"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210C3632-EAE8-9442-9663-1DDC6C430B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5961FA56-8969-1346-9AA9-4FC46C03382D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="152">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -1038,6 +1038,25 @@
   </si>
   <si>
     <t>インベントリアイテム移動プロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>byte クラフト種別 1個クラフト 0 作れるだけ作る 1　1スタック分作る 2 もっているアイテム入る分だけクラフトする</t>
+    <rPh sb="13" eb="14">
+      <t>コクラヘゥ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツクレ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t xml:space="preserve">ブン </t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツクル</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ハイル</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1749,7 +1768,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2175,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B30"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z79" sqref="Z79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -4498,10 +4517,12 @@
       <c r="W79" s="7"/>
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
-      <c r="Z79" s="10"/>
-      <c r="AA79" s="9"/>
-      <c r="AB79" s="9"/>
-      <c r="AC79" s="9"/>
+      <c r="Z79" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="15"/>
       <c r="AD79" s="9"/>
       <c r="AE79" s="9"/>
       <c r="AF79" s="9"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5961FA56-8969-1346-9AA9-4FC46C03382D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B88523-39E9-9E45-8AE4-1406DCB4F23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
@@ -2195,7 +2195,7 @@
   <dimension ref="A2:AH93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z79" sqref="Z79"/>
+      <selection activeCell="AB72" sqref="AB72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B88523-39E9-9E45-8AE4-1406DCB4F23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A853781-68C6-A545-B5C4-4EE24330E596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
@@ -1041,7 +1041,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>byte クラフト種別 1個クラフト 0 作れるだけ作る 1　1スタック分作る 2 もっているアイテム入る分だけクラフトする</t>
+    <t>byte クラフト種別 1個クラフト 0 作れるだけ作る 1　1スタック分作る 2</t>
     <rPh sb="13" eb="14">
       <t>コクラヘゥ</t>
     </rPh>
@@ -1053,9 +1053,6 @@
     </rPh>
     <rPh sb="37" eb="38">
       <t>ツクル</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ハイル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2195,7 +2192,7 @@
   <dimension ref="A2:AH93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB72" sqref="AB72"/>
+      <selection activeCell="Z79" sqref="Z79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A853781-68C6-A545-B5C4-4EE24330E596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D5E3F3-BF38-5548-AAEA-29192CADF98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="135">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -496,30 +496,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>short パケットID 7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int 移動元ブロックインベントリスロット</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>モト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int 移動先ブロックインベントリスロット</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">サキ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブロック削除イベント</t>
     <rPh sb="4" eb="6">
       <t>サクジヨ</t>
@@ -568,10 +544,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>short パケットID 12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int x</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -632,27 +604,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>int プレイヤーID</t>
-  </si>
-  <si>
-    <t>int クラフトインベントリスロット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>short パケットID 13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int 移動元ブロックインベントリスロット</t>
-    <rPh sb="4" eb="7">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int クラフトスロット1のアイテムID</t>
     <rPh sb="17" eb="18">
       <t>スウ</t>
@@ -776,31 +727,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>short 0ならメインインベントリからクラフトインベントリにアイテム移動 1ならその逆</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int メインインベントリスロット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int 移動元メインインベントリスロット</t>
-    <rPh sb="4" eb="7">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int 移動先メインインベントリスロット</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">サキ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メインインベントリ更新イベント</t>
     <rPh sb="9" eb="11">
       <t>コウシn</t>
@@ -947,25 +873,6 @@
   </si>
   <si>
     <t>int ブロックのID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除　メインインベントリ内アイテム移動プロトコル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除　ブロックインベントリ内アイテム移動プロトコル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除　クラフトインベントリ-メインインベントリアイテム移動プロトコル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除　クラフトインベントリ内アイテム移動プロトコル</t>
-    <rPh sb="0" eb="2">
-      <t>サクジヨ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1118,7 +1025,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1290,34 +1197,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -1335,7 +1214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1405,46 +1284,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1764,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1937,16 +1786,15 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="str">
-        <f>'from client'!$B$33</f>
-        <v>削除　メインインベントリ内アイテム移動プロトコル</v>
+      <c r="B9" t="s">
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1963,9 +1811,8 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="str">
-        <f>'from client'!$B$39</f>
-        <v>削除　ブロックインベントリ内アイテム移動プロトコル</v>
+      <c r="B10" t="s">
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2024,9 +1871,8 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="str">
-        <f>'from client'!$B$65</f>
-        <v>削除　クラフトインベントリ-メインインベントリアイテム移動プロトコル</v>
+      <c r="B15" t="s">
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -2036,9 +1882,8 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="str">
-        <f>'from client'!$B$71</f>
-        <v>削除　クラフトインベントリ内アイテム移動プロトコル</v>
+      <c r="B16" t="s">
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -2107,15 +1952,11 @@
     <hyperlink ref="F6" location="'from server'!BV2" display="'from server'!BV2" xr:uid="{84C7406E-A115-E840-8FC1-A58D116FB63E}"/>
     <hyperlink ref="F7" location="'from server'!B15" display="'from server'!B15" xr:uid="{145B13FB-B24A-184E-BC66-1A8FEE8A8BF4}"/>
     <hyperlink ref="B8" location="'from client'!B26" display="'from client'!B26" xr:uid="{CBBD4C72-1145-4E35-8A91-19D4F1301DFC}"/>
-    <hyperlink ref="B9" location="'from client'!B33" display="'from client'!B33" xr:uid="{D1DDCF5F-D032-9941-B0DE-183876C26C81}"/>
-    <hyperlink ref="B10" location="'from client'!B39" display="'from client'!B39" xr:uid="{5A8838B1-1247-1745-A447-957E2DBF349D}"/>
     <hyperlink ref="B11" location="'from client'!B45" display="'from client'!B45" xr:uid="{46920734-A454-4530-89C1-F77469B5F187}"/>
     <hyperlink ref="B12" location="'from client'!B51" display="'from client'!B51" xr:uid="{BD44C648-ABF1-AA40-9C73-2972260DADB1}"/>
     <hyperlink ref="C12" location="'from server'!B35" display="'from server'!B35" xr:uid="{C8DE9813-B4C5-9C4E-9007-9CE50D366673}"/>
     <hyperlink ref="B13" location="'from client'!B55" display="ブロック削除プロトコル" xr:uid="{D7C87888-FC37-4625-B004-3CC9C31DC03F}"/>
     <hyperlink ref="B14" location="'from client'!B60" display="'from client'!B60" xr:uid="{25534867-9881-2B4C-8C4E-BEB874797101}"/>
-    <hyperlink ref="B15" location="'from client'!B65" display="'from client'!B65" xr:uid="{A3CF76F8-F667-834D-B827-BF1D448A7F3A}"/>
-    <hyperlink ref="B16" location="'from client'!B71" display="'from client'!B71" xr:uid="{9234CCF1-4647-9848-98F3-24F80A3BF3AA}"/>
     <hyperlink ref="F9" location="'from server'!B35" display="'from server'!B35" xr:uid="{410E8C63-57E0-844E-B331-44511CC58F59}"/>
     <hyperlink ref="B17" location="'from client'!B77" display="'from client'!B77" xr:uid="{FF7597BB-5D2C-4342-9E7D-8C8A10685B07}"/>
     <hyperlink ref="B18" location="'from client'!B81" display="'from client'!B81" xr:uid="{3588C674-A0D8-4A55-B492-1972286E9506}"/>
@@ -2189,10 +2030,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH93"/>
+  <dimension ref="A2:AL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z79" sqref="Z79"/>
+    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:AJ75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -2854,7 +2695,7 @@
     </row>
     <row r="22" spans="2:34" ht="37.5" customHeight="1">
       <c r="B22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="2:34" ht="37.5" customHeight="1">
@@ -2976,7 +2817,7 @@
     </row>
     <row r="26" spans="2:34" ht="37.5" customHeight="1">
       <c r="B26" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -3067,13 +2908,13 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="6" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -3099,7 +2940,7 @@
     </row>
     <row r="29" spans="2:34" ht="37.5" customHeight="1">
       <c r="B29" s="6" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3137,7 +2978,7 @@
     </row>
     <row r="30" spans="2:34" ht="37.5" customHeight="1">
       <c r="B30" s="10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -3155,7 +2996,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="6" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -3191,181 +3032,210 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="33" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B34" s="3">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="3">
-        <v>16</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="3">
-        <v>32</v>
-      </c>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="3">
-        <v>48</v>
-      </c>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B35" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="15"/>
-    </row>
-    <row r="36" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B36" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="7"/>
-      <c r="AD36" s="7"/>
-      <c r="AE36" s="7"/>
-      <c r="AF36" s="7"/>
-      <c r="AG36" s="15"/>
-    </row>
-    <row r="37" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
-    </row>
-    <row r="38" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+    <row r="33" spans="2:38" ht="37.5" customHeight="1">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+    </row>
+    <row r="34" spans="2:38" ht="37.5" customHeight="1">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+    </row>
+    <row r="35" spans="2:38" ht="37.5" customHeight="1">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+    </row>
+    <row r="36" spans="2:38" ht="37.5" customHeight="1">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+    </row>
+    <row r="37" spans="2:38" ht="37.5" customHeight="1">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+    </row>
+    <row r="38" spans="2:38" ht="37.5" customHeight="1">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -3375,180 +3245,207 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B40" s="3">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="3">
-        <v>16</v>
-      </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="3">
-        <v>32</v>
-      </c>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="3">
-        <v>48</v>
-      </c>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="1"/>
-      <c r="AG40" s="2"/>
-      <c r="AH40">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B41" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
-      <c r="AC41" s="7"/>
-      <c r="AD41" s="7"/>
-      <c r="AE41" s="7"/>
-      <c r="AF41" s="7"/>
-      <c r="AG41" s="15"/>
-    </row>
-    <row r="42" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B42" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-      <c r="AC42" s="7"/>
-      <c r="AD42" s="7"/>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="15"/>
-    </row>
-    <row r="43" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B43" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9"/>
-      <c r="AF43" s="9"/>
-      <c r="AG43" s="9"/>
-    </row>
-    <row r="45" spans="2:34" ht="37.5" customHeight="1">
+    <row r="39" spans="2:38" ht="37.5" customHeight="1">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
+    </row>
+    <row r="40" spans="2:38" ht="37.5" customHeight="1">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
+    </row>
+    <row r="41" spans="2:38" ht="37.5" customHeight="1">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+    </row>
+    <row r="42" spans="2:38" ht="37.5" customHeight="1">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+    </row>
+    <row r="43" spans="2:38" ht="37.5" customHeight="1">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
+    </row>
+    <row r="45" spans="2:38" ht="37.5" customHeight="1">
       <c r="B45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="2:34" ht="37.5" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="2:38" ht="37.5" customHeight="1">
       <c r="B46" s="3">
         <v>0</v>
       </c>
@@ -3593,9 +3490,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:34" ht="37.5" customHeight="1">
+    <row r="47" spans="2:38" ht="37.5" customHeight="1">
       <c r="B47" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -3605,7 +3502,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="15"/>
       <c r="J47" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -3633,7 +3530,7 @@
       <c r="AF47" s="7"/>
       <c r="AG47" s="15"/>
     </row>
-    <row r="48" spans="2:34" ht="37.5" customHeight="1">
+    <row r="48" spans="2:38" ht="37.5" customHeight="1">
       <c r="B48" s="6" t="s">
         <v>62</v>
       </c>
@@ -3653,7 +3550,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="15"/>
       <c r="R48" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -3673,7 +3570,7 @@
     </row>
     <row r="49" spans="2:34" ht="37.5" customHeight="1">
       <c r="B49" s="6" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -3681,7 +3578,7 @@
     </row>
     <row r="50" spans="2:34" ht="37.5" customHeight="1">
       <c r="B50" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="2:34" ht="37.5" customHeight="1">
@@ -3731,7 +3628,7 @@
     </row>
     <row r="52" spans="2:34" ht="37.5" customHeight="1">
       <c r="B52" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -3741,7 +3638,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="15"/>
       <c r="J52" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -3759,7 +3656,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
@@ -3771,7 +3668,7 @@
     </row>
     <row r="53" spans="2:34" ht="37.5" customHeight="1">
       <c r="B53" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -3799,7 +3696,7 @@
     </row>
     <row r="55" spans="2:34" ht="37.5" customHeight="1">
       <c r="B55" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="2:34" ht="37.5" customHeight="1">
@@ -3849,7 +3746,7 @@
     </row>
     <row r="57" spans="2:34" ht="37.5" customHeight="1">
       <c r="B57" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -3888,7 +3785,7 @@
       <c r="AG57" s="15"/>
     </row>
     <row r="58" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="7"/>
@@ -3919,7 +3816,7 @@
     </row>
     <row r="60" spans="2:34" ht="37.5" customHeight="1">
       <c r="B60" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="2:34" ht="37.5" customHeight="1">
@@ -3969,7 +3866,7 @@
     </row>
     <row r="62" spans="2:34" ht="37.5" customHeight="1">
       <c r="B62" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -3979,7 +3876,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="11"/>
       <c r="J62" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -3989,7 +3886,7 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
@@ -4008,7 +3905,7 @@
       <c r="AG62" s="15"/>
     </row>
     <row r="63" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B63" s="24"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -4033,10 +3930,8 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="65" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B65" s="25" t="s">
-        <v>140</v>
-      </c>
+    <row r="65" spans="2:36" ht="37.5" customHeight="1">
+      <c r="B65" s="25"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
@@ -4052,9 +3947,7 @@
       <c r="O65" s="25"/>
       <c r="P65" s="25"/>
       <c r="Q65" s="25"/>
-      <c r="R65" s="25" t="s">
-        <v>94</v>
-      </c>
+      <c r="R65" s="25"/>
       <c r="S65" s="25"/>
       <c r="T65" s="25"/>
       <c r="U65" s="25"/>
@@ -4071,376 +3964,383 @@
       <c r="AF65" s="25"/>
       <c r="AG65" s="25"/>
       <c r="AH65" s="25"/>
-    </row>
-    <row r="66" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B66" s="26">
-        <v>0</v>
-      </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="27">
-        <v>16</v>
-      </c>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="27">
-        <v>32</v>
-      </c>
-      <c r="S66" s="27"/>
-      <c r="T66" s="27"/>
-      <c r="U66" s="27"/>
-      <c r="V66" s="27"/>
-      <c r="W66" s="27"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="28"/>
-      <c r="Z66" s="27">
-        <v>48</v>
-      </c>
-      <c r="AA66" s="27"/>
-      <c r="AB66" s="27"/>
-      <c r="AC66" s="27"/>
-      <c r="AD66" s="27"/>
-      <c r="AE66" s="27"/>
-      <c r="AF66" s="27"/>
-      <c r="AG66" s="28"/>
-      <c r="AH66" s="25">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B67" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="30"/>
-      <c r="V67" s="30"/>
-      <c r="W67" s="30"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="27"/>
-      <c r="Z67" s="27"/>
-      <c r="AA67" s="27"/>
-      <c r="AB67" s="27"/>
-      <c r="AC67" s="27"/>
-      <c r="AD67" s="27"/>
-      <c r="AE67" s="27"/>
-      <c r="AF67" s="27"/>
-      <c r="AG67" s="28"/>
+      <c r="AI65" s="8"/>
+      <c r="AJ65" s="8"/>
+    </row>
+    <row r="66" spans="2:36" ht="37.5" customHeight="1">
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="25"/>
+      <c r="W66" s="25"/>
+      <c r="X66" s="25"/>
+      <c r="Y66" s="25"/>
+      <c r="Z66" s="25"/>
+      <c r="AA66" s="25"/>
+      <c r="AB66" s="25"/>
+      <c r="AC66" s="25"/>
+      <c r="AD66" s="25"/>
+      <c r="AE66" s="25"/>
+      <c r="AF66" s="25"/>
+      <c r="AG66" s="25"/>
+      <c r="AH66" s="25"/>
+      <c r="AI66" s="8"/>
+      <c r="AJ66" s="8"/>
+    </row>
+    <row r="67" spans="2:36" ht="37.5" customHeight="1">
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="25"/>
+      <c r="W67" s="25"/>
+      <c r="X67" s="25"/>
+      <c r="Y67" s="25"/>
+      <c r="Z67" s="25"/>
+      <c r="AA67" s="25"/>
+      <c r="AB67" s="25"/>
+      <c r="AC67" s="25"/>
+      <c r="AD67" s="25"/>
+      <c r="AE67" s="25"/>
+      <c r="AF67" s="25"/>
+      <c r="AG67" s="25"/>
       <c r="AH67" s="25"/>
-    </row>
-    <row r="68" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B68" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="28"/>
-      <c r="R68" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="S68" s="33"/>
-      <c r="T68" s="33"/>
-      <c r="U68" s="33"/>
-      <c r="V68" s="33"/>
-      <c r="W68" s="33"/>
-      <c r="X68" s="34"/>
-      <c r="Y68" s="34"/>
-      <c r="Z68" s="34"/>
-      <c r="AA68" s="34"/>
-      <c r="AB68" s="34"/>
-      <c r="AC68" s="34"/>
-      <c r="AD68" s="34"/>
-      <c r="AE68" s="34"/>
-      <c r="AF68" s="34"/>
-      <c r="AG68" s="35"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="8"/>
+    </row>
+    <row r="68" spans="2:36" ht="37.5" customHeight="1">
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="25"/>
+      <c r="V68" s="25"/>
+      <c r="W68" s="25"/>
+      <c r="X68" s="25"/>
+      <c r="Y68" s="25"/>
+      <c r="Z68" s="25"/>
+      <c r="AA68" s="25"/>
+      <c r="AB68" s="25"/>
+      <c r="AC68" s="25"/>
+      <c r="AD68" s="25"/>
+      <c r="AE68" s="25"/>
+      <c r="AF68" s="25"/>
+      <c r="AG68" s="25"/>
       <c r="AH68" s="25"/>
-    </row>
-    <row r="69" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B69" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="32"/>
-      <c r="S69" s="33"/>
-      <c r="T69" s="33"/>
-      <c r="U69" s="33"/>
-      <c r="V69" s="33"/>
-      <c r="W69" s="33"/>
-      <c r="X69" s="33"/>
-      <c r="Y69" s="33"/>
-      <c r="Z69" s="33"/>
-      <c r="AA69" s="33"/>
-      <c r="AB69" s="33"/>
-      <c r="AC69" s="33"/>
-      <c r="AD69" s="33"/>
-      <c r="AE69" s="33"/>
-      <c r="AF69" s="33"/>
-      <c r="AG69" s="33"/>
+      <c r="AI68" s="8"/>
+      <c r="AJ68" s="8"/>
+    </row>
+    <row r="69" spans="2:36" ht="37.5" customHeight="1">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="25"/>
+      <c r="AB69" s="25"/>
+      <c r="AC69" s="25"/>
+      <c r="AD69" s="25"/>
+      <c r="AE69" s="25"/>
+      <c r="AF69" s="25"/>
+      <c r="AG69" s="25"/>
       <c r="AH69" s="25"/>
-    </row>
-    <row r="70" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="33"/>
-      <c r="O70" s="33"/>
-      <c r="P70" s="33"/>
-      <c r="Q70" s="33"/>
-      <c r="R70" s="25"/>
-      <c r="S70" s="25"/>
-      <c r="T70" s="25"/>
-      <c r="U70" s="25"/>
-      <c r="V70" s="25"/>
-      <c r="W70" s="25"/>
-      <c r="X70" s="25"/>
-      <c r="Y70" s="25"/>
-      <c r="Z70" s="25"/>
-      <c r="AA70" s="25"/>
-      <c r="AB70" s="25"/>
-      <c r="AC70" s="25"/>
-      <c r="AD70" s="25"/>
-      <c r="AE70" s="25"/>
-      <c r="AF70" s="25"/>
-      <c r="AG70" s="25"/>
-      <c r="AH70" s="25"/>
-    </row>
-    <row r="71" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B72" s="3">
-        <v>0</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="3">
-        <v>16</v>
-      </c>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="3">
-        <v>32</v>
-      </c>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="3">
-        <v>48</v>
-      </c>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="1"/>
-      <c r="AF72" s="1"/>
-      <c r="AG72" s="2"/>
-      <c r="AH72">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B73" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="7"/>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="15"/>
-      <c r="Z73" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA73" s="7"/>
-      <c r="AB73" s="7"/>
-      <c r="AC73" s="7"/>
-      <c r="AD73" s="7"/>
-      <c r="AE73" s="7"/>
-      <c r="AF73" s="7"/>
-      <c r="AG73" s="15"/>
-    </row>
-    <row r="74" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B74" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="11"/>
-      <c r="Z74" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA74" s="7"/>
-      <c r="AB74" s="7"/>
-      <c r="AC74" s="7"/>
-      <c r="AD74" s="7"/>
-      <c r="AE74" s="7"/>
-      <c r="AF74" s="7"/>
-      <c r="AG74" s="15"/>
-    </row>
-    <row r="75" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B75" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="9"/>
-      <c r="Y75" s="9"/>
-      <c r="Z75" s="9"/>
-      <c r="AA75" s="9"/>
-      <c r="AB75" s="9"/>
-      <c r="AC75" s="9"/>
-      <c r="AD75" s="9"/>
-      <c r="AE75" s="9"/>
-      <c r="AF75" s="9"/>
-      <c r="AG75" s="9"/>
-    </row>
-    <row r="77" spans="2:34" ht="37.5" customHeight="1">
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="8"/>
+    </row>
+    <row r="70" spans="2:36" ht="37.5" customHeight="1">
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="24"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="24"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="24"/>
+      <c r="AB70" s="24"/>
+      <c r="AC70" s="24"/>
+      <c r="AD70" s="24"/>
+      <c r="AE70" s="24"/>
+      <c r="AF70" s="24"/>
+      <c r="AG70" s="24"/>
+      <c r="AH70" s="24"/>
+    </row>
+    <row r="71" spans="2:36" ht="37.5" customHeight="1">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+      <c r="AD71" s="8"/>
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="8"/>
+      <c r="AJ71" s="8"/>
+    </row>
+    <row r="72" spans="2:36" ht="37.5" customHeight="1">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8"/>
+      <c r="AJ72" s="8"/>
+    </row>
+    <row r="73" spans="2:36" ht="37.5" customHeight="1">
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="8"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="8"/>
+    </row>
+    <row r="74" spans="2:36" ht="37.5" customHeight="1">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="8"/>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="8"/>
+      <c r="AG74" s="8"/>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="8"/>
+    </row>
+    <row r="75" spans="2:36" ht="37.5" customHeight="1">
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8"/>
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="8"/>
+      <c r="AE75" s="8"/>
+      <c r="AF75" s="8"/>
+      <c r="AG75" s="8"/>
+      <c r="AH75" s="8"/>
+      <c r="AI75" s="8"/>
+      <c r="AJ75" s="8"/>
+    </row>
+    <row r="77" spans="2:36" ht="37.5" customHeight="1">
       <c r="B77" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="2:34" ht="37.5" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="2:36" ht="37.5" customHeight="1">
       <c r="B78" s="3">
         <v>0</v>
       </c>
@@ -4485,9 +4385,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="2:34" ht="37.5" customHeight="1">
+    <row r="79" spans="2:36" ht="37.5" customHeight="1">
       <c r="B79" s="6" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -4515,7 +4415,7 @@
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="6" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="AA79" s="7"/>
       <c r="AB79" s="7"/>
@@ -4527,7 +4427,7 @@
     </row>
     <row r="81" spans="2:34" ht="37.5" customHeight="1">
       <c r="B81" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="2:34" ht="37.5" customHeight="1">
@@ -4577,7 +4477,7 @@
     </row>
     <row r="83" spans="2:34" ht="37.5" customHeight="1">
       <c r="B83" s="6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -4616,7 +4516,7 @@
       <c r="AG83" s="15"/>
     </row>
     <row r="84" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C84" s="7"/>
@@ -4647,7 +4547,7 @@
     </row>
     <row r="86" spans="2:34" ht="37.5" customHeight="1">
       <c r="B86" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="2:34" ht="37.5" customHeight="1">
@@ -4697,7 +4597,7 @@
     </row>
     <row r="88" spans="2:34" ht="37.5" customHeight="1">
       <c r="B88" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -4736,7 +4636,7 @@
       <c r="AG88" s="15"/>
     </row>
     <row r="89" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B89" s="24" t="s">
+      <c r="B89" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C89" s="7"/>
@@ -4765,7 +4665,7 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="15"/>
       <c r="Z89" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="AA89" s="7"/>
       <c r="AB89" s="7"/>
@@ -4773,7 +4673,7 @@
     </row>
     <row r="91" spans="2:34" ht="37.5" customHeight="1">
       <c r="B91" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="2:34" ht="37.5" customHeight="1">
@@ -4823,7 +4723,7 @@
     </row>
     <row r="93" spans="2:34" ht="37.5" customHeight="1">
       <c r="B93" s="6" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -5123,7 +5023,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="15"/>
       <c r="J5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -5297,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -5394,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
@@ -5492,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
@@ -5510,7 +5410,7 @@
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
       <c r="BV10" s="6" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="BW10" s="7"/>
       <c r="BX10" s="7"/>
@@ -5580,22 +5480,22 @@
         <v>0</v>
       </c>
       <c r="AM11" s="8" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="BV11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:106" ht="37.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="8"/>
@@ -6220,7 +6120,7 @@
     </row>
     <row r="21" spans="2:105" ht="37.5" customHeight="1">
       <c r="B21" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6238,7 +6138,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -6258,7 +6158,7 @@
     </row>
     <row r="22" spans="2:105" ht="37.5" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6276,7 +6176,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -6294,12 +6194,12 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="15"/>
       <c r="BV22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:105" ht="37.5" customHeight="1">
       <c r="B23" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -6317,7 +6217,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -6379,7 +6279,7 @@
     </row>
     <row r="24" spans="2:105" ht="37.5" customHeight="1">
       <c r="B24" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -6397,7 +6297,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -6426,7 +6326,7 @@
       <c r="CB24" s="7"/>
       <c r="CC24" s="7"/>
       <c r="CD24" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="CE24" s="7"/>
       <c r="CF24" s="7"/>
@@ -6496,7 +6396,7 @@
     </row>
     <row r="26" spans="2:105" ht="37.5" customHeight="1">
       <c r="B26" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -6514,7 +6414,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -6535,7 +6435,7 @@
     </row>
     <row r="27" spans="2:105" ht="37.5" customHeight="1">
       <c r="B27" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -6553,7 +6453,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -6572,12 +6472,12 @@
       <c r="AG27" s="15"/>
       <c r="AI27" s="8"/>
       <c r="BV27" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="2:105" ht="37.5" customHeight="1">
       <c r="B28" s="6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -6595,7 +6495,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="15"/>
       <c r="R28" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -6655,8 +6555,8 @@
       <c r="DA28" s="4"/>
     </row>
     <row r="29" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B29" s="24" t="s">
-        <v>113</v>
+      <c r="B29" s="23" t="s">
+        <v>104</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -6676,7 +6576,7 @@
       <c r="CB29" s="7"/>
       <c r="CC29" s="7"/>
       <c r="CD29" s="6" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="CE29" s="7"/>
       <c r="CF29" s="7"/>
@@ -6686,7 +6586,7 @@
       <c r="CJ29" s="7"/>
       <c r="CK29" s="15"/>
       <c r="CL29" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="CM29" s="7"/>
       <c r="CN29" s="7"/>
@@ -6745,7 +6645,7 @@
     </row>
     <row r="31" spans="2:105" ht="37.5" customHeight="1">
       <c r="BV31" s="10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="BW31" s="9"/>
       <c r="BX31" s="9"/>
@@ -6763,7 +6663,7 @@
       <c r="CJ31" s="7"/>
       <c r="CK31" s="15"/>
       <c r="CL31" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="CM31" s="7"/>
       <c r="CN31" s="7"/>
@@ -6782,8 +6682,8 @@
       <c r="DA31" s="15"/>
     </row>
     <row r="32" spans="2:105" ht="37.5" customHeight="1">
-      <c r="BV32" s="24" t="s">
-        <v>113</v>
+      <c r="BV32" s="23" t="s">
+        <v>104</v>
       </c>
       <c r="BW32" s="7"/>
       <c r="BX32" s="7"/>
@@ -6794,12 +6694,12 @@
     </row>
     <row r="34" spans="1:105" ht="37.5" customHeight="1">
       <c r="BV34" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:105" ht="37.5" customHeight="1">
       <c r="B35" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -6929,7 +6829,7 @@
       <c r="CB36" s="7"/>
       <c r="CC36" s="7"/>
       <c r="CD36" s="6" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="CE36" s="7"/>
       <c r="CF36" s="7"/>
@@ -6969,7 +6869,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="15"/>
       <c r="J37" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -6979,7 +6879,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="15"/>
       <c r="R37" s="6" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -7150,7 +7050,7 @@
     </row>
     <row r="41" spans="1:105" ht="37.5" customHeight="1">
       <c r="B41" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -7168,7 +7068,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D5E3F3-BF38-5548-AAEA-29192CADF98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6B495F-BE2C-8243-A159-A92C0E3D8917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="133">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -679,24 +679,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int クラフトスロット9のアイテムID</t>
-    <rPh sb="17" eb="18">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int クラフトスロット8のアイテム数</t>
-    <rPh sb="17" eb="18">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int クラフトスロット9のアイテム数</t>
     <rPh sb="17" eb="18">
       <t>スウ</t>
     </rPh>
@@ -1613,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2032,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AL93"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:AJ75"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -2817,7 +2800,7 @@
     </row>
     <row r="26" spans="2:34" ht="37.5" customHeight="1">
       <c r="B26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2908,13 +2891,13 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -2940,7 +2923,7 @@
     </row>
     <row r="29" spans="2:34" ht="37.5" customHeight="1">
       <c r="B29" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2978,7 +2961,7 @@
     </row>
     <row r="30" spans="2:34" ht="37.5" customHeight="1">
       <c r="B30" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2996,7 +2979,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -3570,7 +3553,7 @@
     </row>
     <row r="49" spans="2:34" ht="37.5" customHeight="1">
       <c r="B49" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -4337,7 +4320,7 @@
     </row>
     <row r="77" spans="2:36" ht="37.5" customHeight="1">
       <c r="B77" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="2:36" ht="37.5" customHeight="1">
@@ -4387,7 +4370,7 @@
     </row>
     <row r="79" spans="2:36" ht="37.5" customHeight="1">
       <c r="B79" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -4415,7 +4398,7 @@
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AA79" s="7"/>
       <c r="AB79" s="7"/>
@@ -4427,7 +4410,7 @@
     </row>
     <row r="81" spans="2:34" ht="37.5" customHeight="1">
       <c r="B81" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="2:34" ht="37.5" customHeight="1">
@@ -4477,7 +4460,7 @@
     </row>
     <row r="83" spans="2:34" ht="37.5" customHeight="1">
       <c r="B83" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -4547,7 +4530,7 @@
     </row>
     <row r="86" spans="2:34" ht="37.5" customHeight="1">
       <c r="B86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="2:34" ht="37.5" customHeight="1">
@@ -4597,7 +4580,7 @@
     </row>
     <row r="88" spans="2:34" ht="37.5" customHeight="1">
       <c r="B88" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -4665,7 +4648,7 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="15"/>
       <c r="Z89" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AA89" s="7"/>
       <c r="AB89" s="7"/>
@@ -4673,7 +4656,7 @@
     </row>
     <row r="91" spans="2:34" ht="37.5" customHeight="1">
       <c r="B91" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="2:34" ht="37.5" customHeight="1">
@@ -4723,7 +4706,7 @@
     </row>
     <row r="93" spans="2:34" ht="37.5" customHeight="1">
       <c r="B93" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -4745,8 +4728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CD37" sqref="CD37"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -5023,7 +5006,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="15"/>
       <c r="J5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -5197,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -5294,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
@@ -5392,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
@@ -5410,7 +5393,7 @@
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
       <c r="BV10" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BW10" s="7"/>
       <c r="BX10" s="7"/>
@@ -5480,20 +5463,20 @@
         <v>0</v>
       </c>
       <c r="AM11" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BV11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:106" ht="37.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>27</v>
@@ -6414,7 +6397,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -6435,7 +6418,7 @@
     </row>
     <row r="27" spans="2:105" ht="37.5" customHeight="1">
       <c r="B27" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -6472,11 +6455,11 @@
       <c r="AG27" s="15"/>
       <c r="AI27" s="8"/>
       <c r="BV27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="7"/>
@@ -6484,34 +6467,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="15"/>
+      <c r="H28" s="15"/>
       <c r="AI28" s="8"/>
       <c r="BV28" s="3">
         <v>0</v>
@@ -6555,15 +6511,6 @@
       <c r="DA28" s="4"/>
     </row>
     <row r="29" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B29" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="15"/>
       <c r="AI29" s="8"/>
       <c r="BV29" s="6" t="s">
         <v>14</v>
@@ -6576,7 +6523,7 @@
       <c r="CB29" s="7"/>
       <c r="CC29" s="7"/>
       <c r="CD29" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="CE29" s="7"/>
       <c r="CF29" s="7"/>
@@ -6586,7 +6533,7 @@
       <c r="CJ29" s="7"/>
       <c r="CK29" s="15"/>
       <c r="CL29" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="CM29" s="7"/>
       <c r="CN29" s="7"/>
@@ -6645,7 +6592,7 @@
     </row>
     <row r="31" spans="2:105" ht="37.5" customHeight="1">
       <c r="BV31" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BW31" s="9"/>
       <c r="BX31" s="9"/>
@@ -6663,7 +6610,7 @@
       <c r="CJ31" s="7"/>
       <c r="CK31" s="15"/>
       <c r="CL31" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="CM31" s="7"/>
       <c r="CN31" s="7"/>
@@ -6683,7 +6630,7 @@
     </row>
     <row r="32" spans="2:105" ht="37.5" customHeight="1">
       <c r="BV32" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BW32" s="7"/>
       <c r="BX32" s="7"/>
@@ -6694,12 +6641,12 @@
     </row>
     <row r="34" spans="1:105" ht="37.5" customHeight="1">
       <c r="BV34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:105" ht="37.5" customHeight="1">
       <c r="B35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -6829,7 +6776,7 @@
       <c r="CB36" s="7"/>
       <c r="CC36" s="7"/>
       <c r="CD36" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="CE36" s="7"/>
       <c r="CF36" s="7"/>
@@ -6879,7 +6826,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="15"/>
       <c r="R37" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>

--- a/Server.Protocol/プロトコル設計.xlsx
+++ b/Server.Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server.Protocol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server.Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6B495F-BE2C-8243-A159-A92C0E3D8917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC35855C-6C68-44F6-8903-EA2100AD7853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="135">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -943,6 +943,20 @@
     </rPh>
     <rPh sb="37" eb="38">
       <t>ツクル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int grabインベントリのアイテムID</t>
+    <rPh sb="18" eb="19">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int grabインベントリのアイテム数</t>
+    <rPh sb="19" eb="20">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -951,7 +965,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1600,19 +1614,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1626,7 +1640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1646,7 +1660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1669,7 +1683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1691,7 +1705,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1714,7 +1728,7 @@
         <v>プレイヤー座標プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1734,7 +1748,7 @@
         <v>イベント返答プロトコル</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1754,7 +1768,7 @@
         <v>プレイヤーインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1772,7 +1786,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1790,7 +1804,7 @@
         <v>要修正　ブロックインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1801,7 +1815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1813,7 +1827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1826,7 +1840,7 @@
         <v>要修正　ブロックインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1838,7 +1852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1850,7 +1864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1861,7 +1875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1872,7 +1886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1884,7 +1898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1896,7 +1910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1908,7 +1922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1959,13 +1973,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1973,7 +1987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1981,7 +1995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1989,7 +2003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1997,7 +2011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2019,21 +2033,21 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="2.83203125" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" customWidth="1"/>
-    <col min="18" max="18" width="2.83203125" customWidth="1"/>
-    <col min="26" max="26" width="2.83203125" customWidth="1"/>
-    <col min="34" max="34" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="2.875" customWidth="1"/>
+    <col min="10" max="10" width="2.875" customWidth="1"/>
+    <col min="18" max="18" width="2.875" customWidth="1"/>
+    <col min="26" max="26" width="2.875" customWidth="1"/>
+    <col min="34" max="34" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -2079,7 +2093,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -2120,7 +2134,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -2159,7 +2173,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -2198,7 +2212,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2233,7 +2247,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2268,7 +2282,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2303,7 +2317,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2337,12 +2351,12 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -2375,7 +2389,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -2415,7 +2429,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -2453,7 +2467,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2488,7 +2502,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="8" t="s">
         <v>48</v>
       </c>
@@ -2525,7 +2539,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -2570,7 +2584,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2608,7 +2622,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2642,7 +2656,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2676,12 +2690,12 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1">
+    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2726,7 +2740,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
@@ -2764,7 +2778,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2798,7 +2812,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="37.5" customHeight="1">
+    <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>131</v>
       </c>
@@ -2834,7 +2848,7 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
     </row>
-    <row r="27" spans="2:34" ht="37.5" customHeight="1">
+    <row r="27" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2879,7 +2893,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="37.5" customHeight="1">
+    <row r="28" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
         <v>60</v>
       </c>
@@ -2921,7 +2935,7 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="15"/>
     </row>
-    <row r="29" spans="2:34" ht="37.5" customHeight="1">
+    <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
         <v>125</v>
       </c>
@@ -2959,7 +2973,7 @@
       <c r="AF29" s="7"/>
       <c r="AG29" s="15"/>
     </row>
-    <row r="30" spans="2:34" ht="37.5" customHeight="1">
+    <row r="30" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="10" t="s">
         <v>126</v>
       </c>
@@ -2997,7 +3011,7 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="15"/>
     </row>
-    <row r="31" spans="2:34" ht="37.5" customHeight="1">
+    <row r="31" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -3015,7 +3029,7 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="33" spans="2:38" ht="37.5" customHeight="1">
+    <row r="33" spans="2:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -3054,7 +3068,7 @@
       <c r="AK33" s="8"/>
       <c r="AL33" s="8"/>
     </row>
-    <row r="34" spans="2:38" ht="37.5" customHeight="1">
+    <row r="34" spans="2:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -3093,7 +3107,7 @@
       <c r="AK34" s="8"/>
       <c r="AL34" s="8"/>
     </row>
-    <row r="35" spans="2:38" ht="37.5" customHeight="1">
+    <row r="35" spans="2:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -3132,7 +3146,7 @@
       <c r="AK35" s="8"/>
       <c r="AL35" s="8"/>
     </row>
-    <row r="36" spans="2:38" ht="37.5" customHeight="1">
+    <row r="36" spans="2:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -3171,7 +3185,7 @@
       <c r="AK36" s="8"/>
       <c r="AL36" s="8"/>
     </row>
-    <row r="37" spans="2:38" ht="37.5" customHeight="1">
+    <row r="37" spans="2:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -3210,7 +3224,7 @@
       <c r="AK37" s="8"/>
       <c r="AL37" s="8"/>
     </row>
-    <row r="38" spans="2:38" ht="37.5" customHeight="1">
+    <row r="38" spans="2:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -3228,7 +3242,7 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="2:38" ht="37.5" customHeight="1">
+    <row r="39" spans="2:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -3267,7 +3281,7 @@
       <c r="AK39" s="8"/>
       <c r="AL39" s="8"/>
     </row>
-    <row r="40" spans="2:38" ht="37.5" customHeight="1">
+    <row r="40" spans="2:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -3306,7 +3320,7 @@
       <c r="AK40" s="8"/>
       <c r="AL40" s="8"/>
     </row>
-    <row r="41" spans="2:38" ht="37.5" customHeight="1">
+    <row r="41" spans="2:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -3345,7 +3359,7 @@
       <c r="AK41" s="8"/>
       <c r="AL41" s="8"/>
     </row>
-    <row r="42" spans="2:38" ht="37.5" customHeight="1">
+    <row r="42" spans="2:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -3384,7 +3398,7 @@
       <c r="AK42" s="8"/>
       <c r="AL42" s="8"/>
     </row>
-    <row r="43" spans="2:38" ht="37.5" customHeight="1">
+    <row r="43" spans="2:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -3423,12 +3437,12 @@
       <c r="AK43" s="8"/>
       <c r="AL43" s="8"/>
     </row>
-    <row r="45" spans="2:38" ht="37.5" customHeight="1">
+    <row r="45" spans="2:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="2:38" ht="37.5" customHeight="1">
+    <row r="46" spans="2:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="3">
         <v>0</v>
       </c>
@@ -3473,7 +3487,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:38" ht="37.5" customHeight="1">
+    <row r="47" spans="2:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="6" t="s">
         <v>73</v>
       </c>
@@ -3513,7 +3527,7 @@
       <c r="AF47" s="7"/>
       <c r="AG47" s="15"/>
     </row>
-    <row r="48" spans="2:38" ht="37.5" customHeight="1">
+    <row r="48" spans="2:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="6" t="s">
         <v>62</v>
       </c>
@@ -3551,7 +3565,7 @@
       <c r="AF48" s="7"/>
       <c r="AG48" s="15"/>
     </row>
-    <row r="49" spans="2:34" ht="37.5" customHeight="1">
+    <row r="49" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="6" t="s">
         <v>114</v>
       </c>
@@ -3559,12 +3573,12 @@
       <c r="D49" s="7"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" spans="2:34" ht="37.5" customHeight="1">
+    <row r="50" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="2:34" ht="37.5" customHeight="1">
+    <row r="51" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="5">
         <v>0</v>
       </c>
@@ -3609,7 +3623,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:34" ht="37.5" customHeight="1">
+    <row r="52" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
         <v>89</v>
       </c>
@@ -3649,7 +3663,7 @@
       <c r="AF52" s="7"/>
       <c r="AG52" s="15"/>
     </row>
-    <row r="53" spans="2:34" ht="37.5" customHeight="1">
+    <row r="53" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
         <v>79</v>
       </c>
@@ -3677,12 +3691,12 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="55" spans="2:34" ht="37.5" customHeight="1">
+    <row r="55" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="2:34" ht="37.5" customHeight="1">
+    <row r="56" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="5">
         <v>0</v>
       </c>
@@ -3727,7 +3741,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:34" ht="37.5" customHeight="1">
+    <row r="57" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="6" t="s">
         <v>84</v>
       </c>
@@ -3767,7 +3781,7 @@
       <c r="AF57" s="7"/>
       <c r="AG57" s="15"/>
     </row>
-    <row r="58" spans="2:34" ht="37.5" customHeight="1">
+    <row r="58" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="23" t="s">
         <v>62</v>
       </c>
@@ -3797,12 +3811,12 @@
       <c r="X58" s="7"/>
       <c r="Y58" s="15"/>
     </row>
-    <row r="60" spans="2:34" ht="37.5" customHeight="1">
+    <row r="60" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="2:34" ht="37.5" customHeight="1">
+    <row r="61" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="5">
         <v>0</v>
       </c>
@@ -3847,7 +3861,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="2:34" ht="37.5" customHeight="1">
+    <row r="62" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="10" t="s">
         <v>86</v>
       </c>
@@ -3887,7 +3901,7 @@
       <c r="AF62" s="7"/>
       <c r="AG62" s="15"/>
     </row>
-    <row r="63" spans="2:34" ht="37.5" customHeight="1">
+    <row r="63" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="23"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -3913,7 +3927,7 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="8"/>
     </row>
-    <row r="65" spans="2:36" ht="37.5" customHeight="1">
+    <row r="65" spans="2:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -3950,7 +3964,7 @@
       <c r="AI65" s="8"/>
       <c r="AJ65" s="8"/>
     </row>
-    <row r="66" spans="2:36" ht="37.5" customHeight="1">
+    <row r="66" spans="2:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -3987,7 +4001,7 @@
       <c r="AI66" s="8"/>
       <c r="AJ66" s="8"/>
     </row>
-    <row r="67" spans="2:36" ht="37.5" customHeight="1">
+    <row r="67" spans="2:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4024,7 +4038,7 @@
       <c r="AI67" s="8"/>
       <c r="AJ67" s="8"/>
     </row>
-    <row r="68" spans="2:36" ht="37.5" customHeight="1">
+    <row r="68" spans="2:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4061,7 +4075,7 @@
       <c r="AI68" s="8"/>
       <c r="AJ68" s="8"/>
     </row>
-    <row r="69" spans="2:36" ht="37.5" customHeight="1">
+    <row r="69" spans="2:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -4098,7 +4112,7 @@
       <c r="AI69" s="8"/>
       <c r="AJ69" s="8"/>
     </row>
-    <row r="70" spans="2:36" ht="37.5" customHeight="1">
+    <row r="70" spans="2:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4133,7 +4147,7 @@
       <c r="AG70" s="24"/>
       <c r="AH70" s="24"/>
     </row>
-    <row r="71" spans="2:36" ht="37.5" customHeight="1">
+    <row r="71" spans="2:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -4170,7 +4184,7 @@
       <c r="AI71" s="8"/>
       <c r="AJ71" s="8"/>
     </row>
-    <row r="72" spans="2:36" ht="37.5" customHeight="1">
+    <row r="72" spans="2:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -4207,7 +4221,7 @@
       <c r="AI72" s="8"/>
       <c r="AJ72" s="8"/>
     </row>
-    <row r="73" spans="2:36" ht="37.5" customHeight="1">
+    <row r="73" spans="2:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -4244,7 +4258,7 @@
       <c r="AI73" s="8"/>
       <c r="AJ73" s="8"/>
     </row>
-    <row r="74" spans="2:36" ht="37.5" customHeight="1">
+    <row r="74" spans="2:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -4281,7 +4295,7 @@
       <c r="AI74" s="8"/>
       <c r="AJ74" s="8"/>
     </row>
-    <row r="75" spans="2:36" ht="37.5" customHeight="1">
+    <row r="75" spans="2:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -4318,12 +4332,12 @@
       <c r="AI75" s="8"/>
       <c r="AJ75" s="8"/>
     </row>
-    <row r="77" spans="2:36" ht="37.5" customHeight="1">
+    <row r="77" spans="2:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="2:36" ht="37.5" customHeight="1">
+    <row r="78" spans="2:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3">
         <v>0</v>
       </c>
@@ -4368,7 +4382,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="2:36" ht="37.5" customHeight="1">
+    <row r="79" spans="2:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="6" t="s">
         <v>105</v>
       </c>
@@ -4408,12 +4422,12 @@
       <c r="AF79" s="9"/>
       <c r="AG79" s="9"/>
     </row>
-    <row r="81" spans="2:34" ht="37.5" customHeight="1">
+    <row r="81" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="2:34" ht="37.5" customHeight="1">
+    <row r="82" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="3">
         <v>0</v>
       </c>
@@ -4458,7 +4472,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="2:34" ht="37.5" customHeight="1">
+    <row r="83" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="6" t="s">
         <v>110</v>
       </c>
@@ -4498,7 +4512,7 @@
       <c r="AF83" s="7"/>
       <c r="AG83" s="15"/>
     </row>
-    <row r="84" spans="2:34" ht="37.5" customHeight="1">
+    <row r="84" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="23" t="s">
         <v>62</v>
       </c>
@@ -4528,12 +4542,12 @@
       <c r="X84" s="7"/>
       <c r="Y84" s="15"/>
     </row>
-    <row r="86" spans="2:34" ht="37.5" customHeight="1">
+    <row r="86" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="2:34" ht="37.5" customHeight="1">
+    <row r="87" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="3">
         <v>0</v>
       </c>
@@ -4578,7 +4592,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="2:34" ht="37.5" customHeight="1">
+    <row r="88" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="6" t="s">
         <v>112</v>
       </c>
@@ -4618,7 +4632,7 @@
       <c r="AF88" s="7"/>
       <c r="AG88" s="15"/>
     </row>
-    <row r="89" spans="2:34" ht="37.5" customHeight="1">
+    <row r="89" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="23" t="s">
         <v>62</v>
       </c>
@@ -4654,12 +4668,12 @@
       <c r="AB89" s="7"/>
       <c r="AC89" s="15"/>
     </row>
-    <row r="91" spans="2:34" ht="37.5" customHeight="1">
+    <row r="91" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="2:34" ht="37.5" customHeight="1">
+    <row r="92" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="3">
         <v>0</v>
       </c>
@@ -4704,7 +4718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="2:34" ht="37.5" customHeight="1">
+    <row r="93" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="6" t="s">
         <v>121</v>
       </c>
@@ -4728,17 +4742,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:106" ht="37.5" customHeight="1">
+    <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -4749,7 +4763,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="37.5" customHeight="1">
+    <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -4877,7 +4891,7 @@
       <c r="CZ3" s="8"/>
       <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:106" ht="37.5" customHeight="1">
+    <row r="4" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -4994,7 +5008,7 @@
       <c r="DA4" s="9"/>
       <c r="DB4" s="8"/>
     </row>
-    <row r="5" spans="1:106" ht="37.5" customHeight="1">
+    <row r="5" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -5085,7 +5099,7 @@
       <c r="DA5" s="8"/>
       <c r="DB5" s="8"/>
     </row>
-    <row r="6" spans="1:106" ht="37.5" customHeight="1">
+    <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>30</v>
       </c>
@@ -5103,7 +5117,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:106" ht="37.5" customHeight="1">
+    <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>26</v>
       </c>
@@ -5169,7 +5183,7 @@
       <c r="CZ7" s="8"/>
       <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8">
         <v>0</v>
       </c>
@@ -5249,7 +5263,7 @@
       <c r="CZ8" s="7"/>
       <c r="DA8" s="15"/>
     </row>
-    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -5339,7 +5353,7 @@
       <c r="CZ9" s="7"/>
       <c r="DA9" s="15"/>
     </row>
-    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -5411,7 +5425,7 @@
       <c r="CJ10" s="9"/>
       <c r="CK10" s="9"/>
     </row>
-    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -5469,7 +5483,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:106" ht="37.5" customHeight="1">
+    <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8" t="s">
@@ -5555,7 +5569,7 @@
       <c r="CZ12" s="8"/>
       <c r="DA12" s="4"/>
     </row>
-    <row r="13" spans="1:106" ht="37.5" customHeight="1">
+    <row r="13" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -5632,7 +5646,7 @@
       <c r="CZ13" s="7"/>
       <c r="DA13" s="15"/>
     </row>
-    <row r="14" spans="1:106" ht="37.5" customHeight="1">
+    <row r="14" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -5708,7 +5722,7 @@
       <c r="CZ14" s="7"/>
       <c r="DA14" s="15"/>
     </row>
-    <row r="15" spans="1:106" ht="37.5" customHeight="1">
+    <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>51</v>
@@ -5750,7 +5764,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:106" ht="37.5" customHeight="1">
+    <row r="16" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -5799,7 +5813,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:105" ht="37.5" customHeight="1">
+    <row r="17" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
@@ -5879,7 +5893,7 @@
       <c r="CZ17" s="8"/>
       <c r="DA17" s="4"/>
     </row>
-    <row r="18" spans="2:105" ht="37.5" customHeight="1">
+    <row r="18" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6" t="s">
         <v>52</v>
       </c>
@@ -5955,7 +5969,7 @@
       <c r="CZ18" s="7"/>
       <c r="DA18" s="15"/>
     </row>
-    <row r="19" spans="2:105" ht="37.5" customHeight="1">
+    <row r="19" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>54</v>
       </c>
@@ -6029,7 +6043,7 @@
       <c r="CZ19" s="7"/>
       <c r="DA19" s="15"/>
     </row>
-    <row r="20" spans="2:105" ht="37.5" customHeight="1">
+    <row r="20" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
@@ -6101,7 +6115,7 @@
       <c r="CZ20" s="7"/>
       <c r="DA20" s="15"/>
     </row>
-    <row r="21" spans="2:105" ht="37.5" customHeight="1">
+    <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>97</v>
       </c>
@@ -6139,7 +6153,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:105" ht="37.5" customHeight="1">
+    <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
@@ -6180,9 +6194,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:105" ht="37.5" customHeight="1">
+    <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -6200,7 +6214,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="6" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -6260,9 +6274,9 @@
       <c r="CZ23" s="8"/>
       <c r="DA23" s="4"/>
     </row>
-    <row r="24" spans="2:105" ht="37.5" customHeight="1">
+    <row r="24" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -6280,7 +6294,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -6337,10 +6351,43 @@
       <c r="CZ24" s="9"/>
       <c r="DA24" s="11"/>
     </row>
-    <row r="25" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B25" s="17" t="s">
-        <v>12</v>
-      </c>
+    <row r="25" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="15"/>
       <c r="AI25" s="8"/>
       <c r="BV25" s="6" t="s">
         <v>24</v>
@@ -6377,48 +6424,15 @@
       <c r="CZ25" s="9"/>
       <c r="DA25" s="9"/>
     </row>
-    <row r="26" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B26" s="6" t="s">
+    <row r="26" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI26" s="8"/>
+    </row>
+    <row r="27" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="15"/>
-      <c r="AI26" s="8"/>
-    </row>
-    <row r="27" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B27" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -6436,7 +6450,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -6458,16 +6472,43 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="2:105" ht="37.5" customHeight="1">
-      <c r="B28" s="23" t="s">
-        <v>102</v>
+    <row r="28" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="15"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="15"/>
       <c r="AI28" s="8"/>
       <c r="BV28" s="3">
         <v>0</v>
@@ -6510,7 +6551,16 @@
       <c r="CZ28" s="8"/>
       <c r="DA28" s="4"/>
     </row>
-    <row r="29" spans="2:105" ht="37.5" customHeight="1">
+    <row r="29" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="15"/>
       <c r="AI29" s="8"/>
       <c r="BV29" s="6" t="s">
         <v>14</v>
@@ -6551,7 +6601,7 @@
       <c r="CZ29" s="7"/>
       <c r="DA29" s="15"/>
     </row>
-    <row r="30" spans="2:105" ht="37.5" customHeight="1">
+    <row r="30" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI30" s="8"/>
       <c r="BV30" s="6" t="s">
         <v>58</v>
@@ -6590,7 +6640,7 @@
       <c r="CZ30" s="7"/>
       <c r="DA30" s="15"/>
     </row>
-    <row r="31" spans="2:105" ht="37.5" customHeight="1">
+    <row r="31" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BV31" s="10" t="s">
         <v>100</v>
       </c>
@@ -6628,7 +6678,7 @@
       <c r="CZ31" s="7"/>
       <c r="DA31" s="15"/>
     </row>
-    <row r="32" spans="2:105" ht="37.5" customHeight="1">
+    <row r="32" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BV32" s="23" t="s">
         <v>102</v>
       </c>
@@ -6639,12 +6689,12 @@
       <c r="CA32" s="9"/>
       <c r="CB32" s="9"/>
     </row>
-    <row r="34" spans="1:105" ht="37.5" customHeight="1">
+    <row r="34" spans="1:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BV34" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:105" ht="37.5" customHeight="1">
+    <row r="35" spans="1:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>128</v>
       </c>
@@ -6721,7 +6771,7 @@
       <c r="CZ35" s="8"/>
       <c r="DA35" s="4"/>
     </row>
-    <row r="36" spans="1:105" ht="37.5" customHeight="1">
+    <row r="36" spans="1:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="5">
         <v>0</v>
       </c>
@@ -6804,7 +6854,7 @@
       <c r="CZ36" s="7"/>
       <c r="DA36" s="15"/>
     </row>
-    <row r="37" spans="1:105" ht="37.5" customHeight="1">
+    <row r="37" spans="1:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
         <v>68</v>
       </c>
@@ -6880,7 +6930,7 @@
       <c r="CZ37" s="7"/>
       <c r="DA37" s="15"/>
     </row>
-    <row r="38" spans="1:105" ht="37.5" customHeight="1">
+    <row r="38" spans="1:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
         <v>52</v>
       </c>
@@ -6919,7 +6969,7 @@
       <c r="AG38" s="15"/>
       <c r="AH38" s="8"/>
     </row>
-    <row r="39" spans="1:105" ht="37.5" customHeight="1">
+    <row r="39" spans="1:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="6" t="s">
         <v>54</v>
       </c>
@@ -6958,7 +7008,7 @@
       <c r="AG39" s="15"/>
       <c r="AH39" s="8"/>
     </row>
-    <row r="40" spans="1:105" ht="37.5" customHeight="1">
+    <row r="40" spans="1:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="17" t="s">
         <v>12</v>
       </c>
@@ -6995,7 +7045,7 @@
       <c r="AG40" s="8"/>
       <c r="AH40" s="8"/>
     </row>
-    <row r="41" spans="1:105" ht="37.5" customHeight="1">
+    <row r="41" spans="1:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="6" t="s">
         <v>80</v>
       </c>
@@ -7034,7 +7084,7 @@
       <c r="AG41" s="8"/>
       <c r="AH41" s="8"/>
     </row>
-    <row r="43" spans="1:105" ht="37.5" customHeight="1">
+    <row r="43" spans="1:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -7053,7 +7103,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="45" spans="1:105" ht="37.5" customHeight="1">
+    <row r="45" spans="1:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
